--- a/近1-2年已完成的短剧项目清单/海南项目进程表.xlsx
+++ b/近1-2年已完成的短剧项目清单/海南项目进程表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="139">
   <si>
     <t>《 制 片 计 划 》</t>
   </si>
@@ -333,7 +333,8 @@
     <t>导演、制片</t>
   </si>
   <si>
-    <t>2025年10月14日前完成</t>
+    <t xml:space="preserve">2025年10月21日完成
+</t>
   </si>
   <si>
     <t>确定主演</t>
@@ -411,6 +412,9 @@
   </si>
   <si>
     <t>所有主创</t>
+  </si>
+  <si>
+    <t>本剧联合3-5家平台于11月12日左右上线</t>
   </si>
   <si>
     <r>
@@ -519,10 +523,7 @@
     <t>混音</t>
   </si>
   <si>
-    <t>本剧联合3-5家平台于11月5日左右上线</t>
-  </si>
-  <si>
-    <t>本剧联合3-5家平台于11月15日左右上线</t>
+    <t>本剧联合3-5家平台于11月22日左右上线</t>
   </si>
   <si>
     <r>
@@ -546,9 +547,6 @@
       </rPr>
       <t>《Sorry, but I'm with Your Dad》</t>
     </r>
-  </si>
-  <si>
-    <t>本剧联合3-5家平台于11月24日左右上线</t>
   </si>
 </sst>
 </file>
@@ -765,21 +763,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +828,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -848,13 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1188,19 +1192,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1333,43 +1324,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1505,7 +1459,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,119 +1471,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,7 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,9 +1695,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1753,14 +1704,56 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1774,51 +1767,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1834,85 +1782,79 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2226,14 +2168,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:G66"/>
+      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2320,7 +2262,7 @@
       <c r="BM1" s="5"/>
       <c r="BN1" s="5"/>
       <c r="BO1" s="5"/>
-      <c r="BP1" s="75"/>
+      <c r="BP1" s="74"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:68">
       <c r="A2" s="6" t="s">
@@ -2524,7 +2466,7 @@
       <c r="BO2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="76" t="s">
+      <c r="BP2" s="75" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2716,7 +2658,7 @@
       <c r="BO3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="BP3" s="77" t="s">
+      <c r="BP3" s="76" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2786,23 +2728,23 @@
       <c r="AW4" s="36"/>
       <c r="AX4" s="36"/>
       <c r="AY4" s="36"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="74"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="73"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:68">
       <c r="A5" s="16"/>
@@ -2856,23 +2798,23 @@
       <c r="AW5" s="36"/>
       <c r="AX5" s="36"/>
       <c r="AY5" s="36"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
-      <c r="BG5" s="71"/>
-      <c r="BH5" s="71"/>
-      <c r="BI5" s="71"/>
-      <c r="BJ5" s="71"/>
-      <c r="BK5" s="71"/>
-      <c r="BL5" s="71"/>
-      <c r="BM5" s="71"/>
-      <c r="BN5" s="71"/>
-      <c r="BO5" s="71"/>
-      <c r="BP5" s="74"/>
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="68"/>
+      <c r="BB5" s="68"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="73"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:68">
       <c r="A6" s="16"/>
@@ -2926,23 +2868,23 @@
       <c r="AW6" s="36"/>
       <c r="AX6" s="36"/>
       <c r="AY6" s="36"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="71"/>
-      <c r="BG6" s="71"/>
-      <c r="BH6" s="71"/>
-      <c r="BI6" s="71"/>
-      <c r="BJ6" s="71"/>
-      <c r="BK6" s="71"/>
-      <c r="BL6" s="71"/>
-      <c r="BM6" s="71"/>
-      <c r="BN6" s="71"/>
-      <c r="BO6" s="71"/>
-      <c r="BP6" s="74"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="68"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="68"/>
+      <c r="BM6" s="68"/>
+      <c r="BN6" s="68"/>
+      <c r="BO6" s="68"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:68">
       <c r="A7" s="16"/>
@@ -2996,23 +2938,23 @@
       <c r="AW7" s="36"/>
       <c r="AX7" s="36"/>
       <c r="AY7" s="36"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="71"/>
-      <c r="BP7" s="74"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
+      <c r="BP7" s="73"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:68">
       <c r="A8" s="16"/>
@@ -3066,23 +3008,23 @@
       <c r="AW8" s="36"/>
       <c r="AX8" s="36"/>
       <c r="AY8" s="36"/>
-      <c r="AZ8" s="71"/>
-      <c r="BA8" s="71"/>
-      <c r="BB8" s="71"/>
-      <c r="BC8" s="71"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="71"/>
-      <c r="BG8" s="71"/>
-      <c r="BH8" s="71"/>
-      <c r="BI8" s="71"/>
-      <c r="BJ8" s="71"/>
-      <c r="BK8" s="71"/>
-      <c r="BL8" s="71"/>
-      <c r="BM8" s="71"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="74"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="73"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:68">
       <c r="A9" s="21" t="s">
@@ -3140,23 +3082,23 @@
       <c r="AW9" s="36"/>
       <c r="AX9" s="36"/>
       <c r="AY9" s="36"/>
-      <c r="AZ9" s="71"/>
-      <c r="BA9" s="71"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="71"/>
-      <c r="BD9" s="71"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="71"/>
-      <c r="BG9" s="71"/>
-      <c r="BH9" s="71"/>
-      <c r="BI9" s="71"/>
-      <c r="BJ9" s="71"/>
-      <c r="BK9" s="71"/>
-      <c r="BL9" s="71"/>
-      <c r="BM9" s="71"/>
-      <c r="BN9" s="71"/>
-      <c r="BO9" s="71"/>
-      <c r="BP9" s="74"/>
+      <c r="AZ9" s="68"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="68"/>
+      <c r="BD9" s="68"/>
+      <c r="BE9" s="68"/>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="68"/>
+      <c r="BH9" s="68"/>
+      <c r="BI9" s="68"/>
+      <c r="BJ9" s="68"/>
+      <c r="BK9" s="68"/>
+      <c r="BL9" s="68"/>
+      <c r="BM9" s="68"/>
+      <c r="BN9" s="68"/>
+      <c r="BO9" s="68"/>
+      <c r="BP9" s="73"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:68">
       <c r="A10" s="23"/>
@@ -3210,23 +3152,23 @@
       <c r="AW10" s="36"/>
       <c r="AX10" s="36"/>
       <c r="AY10" s="36"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="71"/>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="71"/>
-      <c r="BP10" s="74"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
+      <c r="BD10" s="68"/>
+      <c r="BE10" s="68"/>
+      <c r="BF10" s="68"/>
+      <c r="BG10" s="68"/>
+      <c r="BH10" s="68"/>
+      <c r="BI10" s="68"/>
+      <c r="BJ10" s="68"/>
+      <c r="BK10" s="68"/>
+      <c r="BL10" s="68"/>
+      <c r="BM10" s="68"/>
+      <c r="BN10" s="68"/>
+      <c r="BO10" s="68"/>
+      <c r="BP10" s="73"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:68">
       <c r="A11" s="23"/>
@@ -3280,23 +3222,23 @@
       <c r="AW11" s="36"/>
       <c r="AX11" s="36"/>
       <c r="AY11" s="36"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="71"/>
-      <c r="BH11" s="71"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="71"/>
-      <c r="BK11" s="71"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="71"/>
-      <c r="BN11" s="71"/>
-      <c r="BO11" s="71"/>
-      <c r="BP11" s="74"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="68"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="68"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="68"/>
+      <c r="BN11" s="68"/>
+      <c r="BO11" s="68"/>
+      <c r="BP11" s="73"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:68">
       <c r="A12" s="23"/>
@@ -3350,23 +3292,23 @@
       <c r="AW12" s="36"/>
       <c r="AX12" s="36"/>
       <c r="AY12" s="36"/>
-      <c r="AZ12" s="71"/>
-      <c r="BA12" s="71"/>
-      <c r="BB12" s="71"/>
-      <c r="BC12" s="71"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="71"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="71"/>
-      <c r="BH12" s="71"/>
-      <c r="BI12" s="71"/>
-      <c r="BJ12" s="71"/>
-      <c r="BK12" s="71"/>
-      <c r="BL12" s="71"/>
-      <c r="BM12" s="71"/>
-      <c r="BN12" s="71"/>
-      <c r="BO12" s="71"/>
-      <c r="BP12" s="74"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="68"/>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="68"/>
+      <c r="BJ12" s="68"/>
+      <c r="BK12" s="68"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
+      <c r="BP12" s="73"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:68">
       <c r="A13" s="23"/>
@@ -3420,23 +3362,23 @@
       <c r="AW13" s="36"/>
       <c r="AX13" s="36"/>
       <c r="AY13" s="36"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="71"/>
-      <c r="BO13" s="71"/>
-      <c r="BP13" s="74"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="68"/>
+      <c r="BI13" s="68"/>
+      <c r="BJ13" s="68"/>
+      <c r="BK13" s="68"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="68"/>
+      <c r="BO13" s="68"/>
+      <c r="BP13" s="73"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:68">
       <c r="A14" s="24" t="s">
@@ -3494,23 +3436,23 @@
       <c r="AW14" s="36"/>
       <c r="AX14" s="36"/>
       <c r="AY14" s="36"/>
-      <c r="AZ14" s="71"/>
-      <c r="BA14" s="71"/>
-      <c r="BB14" s="71"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="71"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="71"/>
-      <c r="BG14" s="71"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="71"/>
-      <c r="BJ14" s="71"/>
-      <c r="BK14" s="71"/>
-      <c r="BL14" s="71"/>
-      <c r="BM14" s="71"/>
-      <c r="BN14" s="71"/>
-      <c r="BO14" s="71"/>
-      <c r="BP14" s="74"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="68"/>
+      <c r="BG14" s="68"/>
+      <c r="BH14" s="68"/>
+      <c r="BI14" s="68"/>
+      <c r="BJ14" s="68"/>
+      <c r="BK14" s="68"/>
+      <c r="BL14" s="68"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="68"/>
+      <c r="BO14" s="68"/>
+      <c r="BP14" s="73"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:68">
       <c r="A15" s="26"/>
@@ -3564,23 +3506,23 @@
       <c r="AW15" s="36"/>
       <c r="AX15" s="36"/>
       <c r="AY15" s="36"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="71"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="71"/>
-      <c r="BG15" s="71"/>
-      <c r="BH15" s="71"/>
-      <c r="BI15" s="71"/>
-      <c r="BJ15" s="71"/>
-      <c r="BK15" s="71"/>
-      <c r="BL15" s="71"/>
-      <c r="BM15" s="71"/>
-      <c r="BN15" s="71"/>
-      <c r="BO15" s="71"/>
-      <c r="BP15" s="74"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="73"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:68">
       <c r="A16" s="26"/>
@@ -3634,23 +3576,23 @@
       <c r="AW16" s="36"/>
       <c r="AX16" s="36"/>
       <c r="AY16" s="36"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="71"/>
-      <c r="BN16" s="71"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="74"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="68"/>
+      <c r="BM16" s="68"/>
+      <c r="BN16" s="68"/>
+      <c r="BO16" s="68"/>
+      <c r="BP16" s="73"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:68">
       <c r="A17" s="26"/>
@@ -3704,23 +3646,23 @@
       <c r="AW17" s="36"/>
       <c r="AX17" s="36"/>
       <c r="AY17" s="36"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-      <c r="BM17" s="71"/>
-      <c r="BN17" s="71"/>
-      <c r="BO17" s="71"/>
-      <c r="BP17" s="74"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="68"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="68"/>
+      <c r="BL17" s="68"/>
+      <c r="BM17" s="68"/>
+      <c r="BN17" s="68"/>
+      <c r="BO17" s="68"/>
+      <c r="BP17" s="73"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:68">
       <c r="A18" s="27"/>
@@ -3774,23 +3716,23 @@
       <c r="AW18" s="36"/>
       <c r="AX18" s="36"/>
       <c r="AY18" s="36"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="71"/>
-      <c r="BG18" s="71"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="71"/>
-      <c r="BL18" s="71"/>
-      <c r="BM18" s="71"/>
-      <c r="BN18" s="71"/>
-      <c r="BO18" s="71"/>
-      <c r="BP18" s="74"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
+      <c r="BP18" s="73"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:68">
       <c r="A19" s="29" t="s">
@@ -3846,23 +3788,23 @@
       <c r="AW19" s="36"/>
       <c r="AX19" s="36"/>
       <c r="AY19" s="36"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
-      <c r="BG19" s="71"/>
-      <c r="BH19" s="71"/>
-      <c r="BI19" s="71"/>
-      <c r="BJ19" s="71"/>
-      <c r="BK19" s="71"/>
-      <c r="BL19" s="71"/>
-      <c r="BM19" s="71"/>
-      <c r="BN19" s="71"/>
-      <c r="BO19" s="71"/>
-      <c r="BP19" s="74"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="73"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:68">
       <c r="A20" s="31" t="s">
@@ -3896,21 +3838,21 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
       <c r="AK20" s="36"/>
@@ -3928,23 +3870,23 @@
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
       <c r="AY20" s="36"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="71"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="71"/>
-      <c r="BG20" s="71"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="71"/>
-      <c r="BL20" s="71"/>
-      <c r="BM20" s="71"/>
-      <c r="BN20" s="71"/>
-      <c r="BO20" s="71"/>
-      <c r="BP20" s="74"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="68"/>
+      <c r="BJ20" s="68"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
+      <c r="BP20" s="73"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:68">
       <c r="A21" s="31"/>
@@ -3955,9 +3897,11 @@
       <c r="D21" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="E21" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="36"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -3970,21 +3914,21 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="36"/>
       <c r="AK21" s="36"/>
@@ -4002,23 +3946,23 @@
       <c r="AW21" s="36"/>
       <c r="AX21" s="36"/>
       <c r="AY21" s="36"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
-      <c r="BG21" s="71"/>
-      <c r="BH21" s="71"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="71"/>
-      <c r="BK21" s="71"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="71"/>
-      <c r="BN21" s="71"/>
-      <c r="BO21" s="71"/>
-      <c r="BP21" s="74"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
+      <c r="BP21" s="73"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:68">
       <c r="A22" s="31"/>
@@ -4029,9 +3973,11 @@
       <c r="D22" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="E22" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -4044,21 +3990,21 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="36"/>
@@ -4076,23 +4022,23 @@
       <c r="AW22" s="36"/>
       <c r="AX22" s="36"/>
       <c r="AY22" s="36"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="71"/>
-      <c r="BM22" s="71"/>
-      <c r="BN22" s="71"/>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="74"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="68"/>
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="68"/>
+      <c r="BJ22" s="68"/>
+      <c r="BK22" s="68"/>
+      <c r="BL22" s="68"/>
+      <c r="BM22" s="68"/>
+      <c r="BN22" s="68"/>
+      <c r="BO22" s="68"/>
+      <c r="BP22" s="73"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:68">
       <c r="A23" s="31"/>
@@ -4103,9 +4049,11 @@
       <c r="D23" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="E23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -4118,21 +4066,21 @@
       <c r="Q23" s="36"/>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
       <c r="AI23" s="36"/>
       <c r="AJ23" s="36"/>
       <c r="AK23" s="36"/>
@@ -4150,23 +4098,23 @@
       <c r="AW23" s="36"/>
       <c r="AX23" s="36"/>
       <c r="AY23" s="36"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="71"/>
-      <c r="BL23" s="71"/>
-      <c r="BM23" s="71"/>
-      <c r="BN23" s="71"/>
-      <c r="BO23" s="71"/>
-      <c r="BP23" s="74"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="68"/>
+      <c r="BC23" s="68"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="68"/>
+      <c r="BJ23" s="68"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="68"/>
+      <c r="BM23" s="68"/>
+      <c r="BN23" s="68"/>
+      <c r="BO23" s="68"/>
+      <c r="BP23" s="73"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:68">
       <c r="A24" s="31"/>
@@ -4177,9 +4125,11 @@
       <c r="D24" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -4192,21 +4142,21 @@
       <c r="Q24" s="36"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
       <c r="AI24" s="36"/>
       <c r="AJ24" s="36"/>
       <c r="AK24" s="36"/>
@@ -4224,23 +4174,23 @@
       <c r="AW24" s="36"/>
       <c r="AX24" s="36"/>
       <c r="AY24" s="36"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="71"/>
-      <c r="BL24" s="71"/>
-      <c r="BM24" s="71"/>
-      <c r="BN24" s="71"/>
-      <c r="BO24" s="71"/>
-      <c r="BP24" s="74"/>
+      <c r="AZ24" s="68"/>
+      <c r="BA24" s="68"/>
+      <c r="BB24" s="68"/>
+      <c r="BC24" s="68"/>
+      <c r="BD24" s="68"/>
+      <c r="BE24" s="68"/>
+      <c r="BF24" s="68"/>
+      <c r="BG24" s="68"/>
+      <c r="BH24" s="68"/>
+      <c r="BI24" s="68"/>
+      <c r="BJ24" s="68"/>
+      <c r="BK24" s="68"/>
+      <c r="BL24" s="68"/>
+      <c r="BM24" s="68"/>
+      <c r="BN24" s="68"/>
+      <c r="BO24" s="68"/>
+      <c r="BP24" s="73"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:68">
       <c r="A25" s="31"/>
@@ -4251,9 +4201,11 @@
       <c r="D25" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
+      <c r="E25" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -4266,21 +4218,21 @@
       <c r="Q25" s="36"/>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
       <c r="AI25" s="36"/>
       <c r="AJ25" s="36"/>
       <c r="AK25" s="36"/>
@@ -4298,23 +4250,23 @@
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
       <c r="AY25" s="36"/>
-      <c r="AZ25" s="71"/>
-      <c r="BA25" s="71"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="71"/>
-      <c r="BE25" s="71"/>
-      <c r="BF25" s="71"/>
-      <c r="BG25" s="71"/>
-      <c r="BH25" s="71"/>
-      <c r="BI25" s="71"/>
-      <c r="BJ25" s="71"/>
-      <c r="BK25" s="71"/>
-      <c r="BL25" s="71"/>
-      <c r="BM25" s="71"/>
-      <c r="BN25" s="71"/>
-      <c r="BO25" s="71"/>
-      <c r="BP25" s="74"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
+      <c r="BI25" s="68"/>
+      <c r="BJ25" s="68"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="68"/>
+      <c r="BO25" s="68"/>
+      <c r="BP25" s="73"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:68">
       <c r="A26" s="31"/>
@@ -4325,9 +4277,11 @@
       <c r="D26" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="E26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -4340,21 +4294,21 @@
       <c r="Q26" s="36"/>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="36"/>
       <c r="AK26" s="36"/>
@@ -4372,23 +4326,23 @@
       <c r="AW26" s="36"/>
       <c r="AX26" s="36"/>
       <c r="AY26" s="36"/>
-      <c r="AZ26" s="71"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="71"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="71"/>
-      <c r="BE26" s="71"/>
-      <c r="BF26" s="71"/>
-      <c r="BG26" s="71"/>
-      <c r="BH26" s="71"/>
-      <c r="BI26" s="71"/>
-      <c r="BJ26" s="71"/>
-      <c r="BK26" s="71"/>
-      <c r="BL26" s="71"/>
-      <c r="BM26" s="71"/>
-      <c r="BN26" s="71"/>
-      <c r="BO26" s="71"/>
-      <c r="BP26" s="74"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="68"/>
+      <c r="BG26" s="68"/>
+      <c r="BH26" s="68"/>
+      <c r="BI26" s="68"/>
+      <c r="BJ26" s="68"/>
+      <c r="BK26" s="68"/>
+      <c r="BL26" s="68"/>
+      <c r="BM26" s="68"/>
+      <c r="BN26" s="68"/>
+      <c r="BO26" s="68"/>
+      <c r="BP26" s="73"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:68">
       <c r="A27" s="31"/>
@@ -4399,9 +4353,11 @@
       <c r="D27" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="E27" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -4414,21 +4370,21 @@
       <c r="Q27" s="36"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
       <c r="AI27" s="36"/>
       <c r="AJ27" s="36"/>
       <c r="AK27" s="36"/>
@@ -4446,23 +4402,23 @@
       <c r="AW27" s="36"/>
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
-      <c r="AZ27" s="71"/>
-      <c r="BA27" s="71"/>
-      <c r="BB27" s="71"/>
-      <c r="BC27" s="71"/>
-      <c r="BD27" s="71"/>
-      <c r="BE27" s="71"/>
-      <c r="BF27" s="71"/>
-      <c r="BG27" s="71"/>
-      <c r="BH27" s="71"/>
-      <c r="BI27" s="71"/>
-      <c r="BJ27" s="71"/>
-      <c r="BK27" s="71"/>
-      <c r="BL27" s="71"/>
-      <c r="BM27" s="71"/>
-      <c r="BN27" s="71"/>
-      <c r="BO27" s="71"/>
-      <c r="BP27" s="74"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="68"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="68"/>
+      <c r="BI27" s="68"/>
+      <c r="BJ27" s="68"/>
+      <c r="BK27" s="68"/>
+      <c r="BL27" s="68"/>
+      <c r="BM27" s="68"/>
+      <c r="BN27" s="68"/>
+      <c r="BO27" s="68"/>
+      <c r="BP27" s="73"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:68">
       <c r="A28" s="31"/>
@@ -4473,9 +4429,11 @@
       <c r="D28" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="E28" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -4488,21 +4446,21 @@
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="36"/>
@@ -4520,23 +4478,23 @@
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
-      <c r="AZ28" s="71"/>
-      <c r="BA28" s="71"/>
-      <c r="BB28" s="71"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="71"/>
-      <c r="BE28" s="71"/>
-      <c r="BF28" s="71"/>
-      <c r="BG28" s="71"/>
-      <c r="BH28" s="71"/>
-      <c r="BI28" s="71"/>
-      <c r="BJ28" s="71"/>
-      <c r="BK28" s="71"/>
-      <c r="BL28" s="71"/>
-      <c r="BM28" s="71"/>
-      <c r="BN28" s="71"/>
-      <c r="BO28" s="71"/>
-      <c r="BP28" s="74"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="68"/>
+      <c r="BD28" s="68"/>
+      <c r="BE28" s="68"/>
+      <c r="BF28" s="68"/>
+      <c r="BG28" s="68"/>
+      <c r="BH28" s="68"/>
+      <c r="BI28" s="68"/>
+      <c r="BJ28" s="68"/>
+      <c r="BK28" s="68"/>
+      <c r="BL28" s="68"/>
+      <c r="BM28" s="68"/>
+      <c r="BN28" s="68"/>
+      <c r="BO28" s="68"/>
+      <c r="BP28" s="73"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:68">
       <c r="A29" s="31"/>
@@ -4547,9 +4505,11 @@
       <c r="D29" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="E29" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
@@ -4562,21 +4522,21 @@
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="36"/>
@@ -4594,23 +4554,23 @@
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="71"/>
-      <c r="BE29" s="71"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="71"/>
-      <c r="BH29" s="71"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="71"/>
-      <c r="BK29" s="71"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="71"/>
-      <c r="BN29" s="71"/>
-      <c r="BO29" s="71"/>
-      <c r="BP29" s="74"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="68"/>
+      <c r="BG29" s="68"/>
+      <c r="BH29" s="68"/>
+      <c r="BI29" s="68"/>
+      <c r="BJ29" s="68"/>
+      <c r="BK29" s="68"/>
+      <c r="BL29" s="68"/>
+      <c r="BM29" s="68"/>
+      <c r="BN29" s="68"/>
+      <c r="BO29" s="68"/>
+      <c r="BP29" s="73"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:68">
       <c r="A30" s="31"/>
@@ -4621,9 +4581,11 @@
       <c r="D30" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="E30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -4636,21 +4598,21 @@
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="36"/>
       <c r="AK30" s="36"/>
@@ -4668,23 +4630,23 @@
       <c r="AW30" s="36"/>
       <c r="AX30" s="36"/>
       <c r="AY30" s="36"/>
-      <c r="AZ30" s="71"/>
-      <c r="BA30" s="71"/>
-      <c r="BB30" s="71"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="71"/>
-      <c r="BE30" s="71"/>
-      <c r="BF30" s="71"/>
-      <c r="BG30" s="71"/>
-      <c r="BH30" s="71"/>
-      <c r="BI30" s="71"/>
-      <c r="BJ30" s="71"/>
-      <c r="BK30" s="71"/>
-      <c r="BL30" s="71"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="71"/>
-      <c r="BP30" s="74"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="68"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="68"/>
+      <c r="BG30" s="68"/>
+      <c r="BH30" s="68"/>
+      <c r="BI30" s="68"/>
+      <c r="BJ30" s="68"/>
+      <c r="BK30" s="68"/>
+      <c r="BL30" s="68"/>
+      <c r="BM30" s="68"/>
+      <c r="BN30" s="68"/>
+      <c r="BO30" s="68"/>
+      <c r="BP30" s="73"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:68">
       <c r="A31" s="31"/>
@@ -4692,12 +4654,14 @@
       <c r="C31" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="E31" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -4710,21 +4674,21 @@
       <c r="Q31" s="36"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="36"/>
       <c r="AK31" s="36"/>
@@ -4742,23 +4706,23 @@
       <c r="AW31" s="36"/>
       <c r="AX31" s="36"/>
       <c r="AY31" s="36"/>
-      <c r="AZ31" s="71"/>
-      <c r="BA31" s="71"/>
-      <c r="BB31" s="71"/>
-      <c r="BC31" s="71"/>
-      <c r="BD31" s="71"/>
-      <c r="BE31" s="71"/>
-      <c r="BF31" s="71"/>
-      <c r="BG31" s="71"/>
-      <c r="BH31" s="71"/>
-      <c r="BI31" s="71"/>
-      <c r="BJ31" s="71"/>
-      <c r="BK31" s="71"/>
-      <c r="BL31" s="71"/>
-      <c r="BM31" s="71"/>
-      <c r="BN31" s="71"/>
-      <c r="BO31" s="71"/>
-      <c r="BP31" s="74"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="68"/>
+      <c r="BG31" s="68"/>
+      <c r="BH31" s="68"/>
+      <c r="BI31" s="68"/>
+      <c r="BJ31" s="68"/>
+      <c r="BK31" s="68"/>
+      <c r="BL31" s="68"/>
+      <c r="BM31" s="68"/>
+      <c r="BN31" s="68"/>
+      <c r="BO31" s="68"/>
+      <c r="BP31" s="73"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:68">
       <c r="A32" s="31"/>
@@ -4769,9 +4733,11 @@
       <c r="D32" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="E32" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -4784,21 +4750,21 @@
       <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="66"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="36"/>
@@ -4816,23 +4782,23 @@
       <c r="AW32" s="36"/>
       <c r="AX32" s="36"/>
       <c r="AY32" s="36"/>
-      <c r="AZ32" s="71"/>
-      <c r="BA32" s="71"/>
-      <c r="BB32" s="71"/>
-      <c r="BC32" s="71"/>
-      <c r="BD32" s="71"/>
-      <c r="BE32" s="71"/>
-      <c r="BF32" s="71"/>
-      <c r="BG32" s="71"/>
-      <c r="BH32" s="71"/>
-      <c r="BI32" s="71"/>
-      <c r="BJ32" s="71"/>
-      <c r="BK32" s="71"/>
-      <c r="BL32" s="71"/>
-      <c r="BM32" s="71"/>
-      <c r="BN32" s="71"/>
-      <c r="BO32" s="71"/>
-      <c r="BP32" s="74"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="68"/>
+      <c r="BG32" s="68"/>
+      <c r="BH32" s="68"/>
+      <c r="BI32" s="68"/>
+      <c r="BJ32" s="68"/>
+      <c r="BK32" s="68"/>
+      <c r="BL32" s="68"/>
+      <c r="BM32" s="68"/>
+      <c r="BN32" s="68"/>
+      <c r="BO32" s="68"/>
+      <c r="BP32" s="73"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:68">
       <c r="A33" s="31"/>
@@ -4843,9 +4809,11 @@
       <c r="D33" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="E33" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -4858,21 +4826,21 @@
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="66"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
       <c r="AK33" s="36"/>
@@ -4890,117 +4858,109 @@
       <c r="AW33" s="36"/>
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
-      <c r="AZ33" s="71"/>
-      <c r="BA33" s="71"/>
-      <c r="BB33" s="71"/>
-      <c r="BC33" s="71"/>
-      <c r="BD33" s="71"/>
-      <c r="BE33" s="71"/>
-      <c r="BF33" s="71"/>
-      <c r="BG33" s="71"/>
-      <c r="BH33" s="71"/>
-      <c r="BI33" s="71"/>
-      <c r="BJ33" s="71"/>
-      <c r="BK33" s="71"/>
-      <c r="BL33" s="71"/>
-      <c r="BM33" s="71"/>
-      <c r="BN33" s="71"/>
-      <c r="BO33" s="71"/>
-      <c r="BP33" s="74"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="68"/>
+      <c r="BG33" s="68"/>
+      <c r="BH33" s="68"/>
+      <c r="BI33" s="68"/>
+      <c r="BJ33" s="68"/>
+      <c r="BK33" s="68"/>
+      <c r="BL33" s="68"/>
+      <c r="BM33" s="68"/>
+      <c r="BN33" s="68"/>
+      <c r="BO33" s="68"/>
+      <c r="BP33" s="73"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:60">
-      <c r="A34" s="44" t="s">
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
+      <c r="A34" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="46">
-        <v>45945</v>
-      </c>
-      <c r="G34" s="46">
-        <v>45945</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="68"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="71"/>
-      <c r="AS34" s="71"/>
-      <c r="AT34" s="71"/>
-      <c r="AU34" s="71"/>
-      <c r="AV34" s="71"/>
-      <c r="AW34" s="71"/>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="71"/>
-      <c r="BA34" s="71"/>
-      <c r="BB34" s="71"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="71"/>
-      <c r="BE34" s="71"/>
-      <c r="BF34" s="71"/>
-      <c r="BG34" s="71"/>
-      <c r="BH34" s="74"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="68"/>
+      <c r="AT34" s="68"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="68"/>
+      <c r="BG34" s="68"/>
+      <c r="BH34" s="73"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:60">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45" t="s">
+    <row r="35" ht="18" customHeight="1" spans="1:68">
+      <c r="A35" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="B35" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="46">
-        <v>45945</v>
-      </c>
-      <c r="G35" s="46">
-        <v>45952</v>
+      <c r="F35" s="47">
+        <v>45953</v>
+      </c>
+      <c r="G35" s="47">
+        <v>45953</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
@@ -5021,58 +4981,66 @@
       <c r="X35" s="36"/>
       <c r="Y35" s="36"/>
       <c r="Z35" s="36"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
       <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
       <c r="AO35" s="36"/>
       <c r="AP35" s="36"/>
       <c r="AQ35" s="36"/>
-      <c r="AR35" s="71"/>
-      <c r="AS35" s="71"/>
-      <c r="AT35" s="71"/>
-      <c r="AU35" s="71"/>
-      <c r="AV35" s="71"/>
-      <c r="AW35" s="71"/>
-      <c r="AX35" s="71"/>
-      <c r="AY35" s="71"/>
-      <c r="AZ35" s="71"/>
-      <c r="BA35" s="71"/>
-      <c r="BB35" s="71"/>
-      <c r="BC35" s="71"/>
-      <c r="BD35" s="71"/>
-      <c r="BE35" s="71"/>
-      <c r="BF35" s="71"/>
-      <c r="BG35" s="71"/>
-      <c r="BH35" s="74"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
+      <c r="AV35" s="36"/>
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="68"/>
+      <c r="BA35" s="68"/>
+      <c r="BB35" s="68"/>
+      <c r="BC35" s="68"/>
+      <c r="BD35" s="68"/>
+      <c r="BE35" s="68"/>
+      <c r="BF35" s="68"/>
+      <c r="BG35" s="68"/>
+      <c r="BH35" s="68"/>
+      <c r="BI35" s="68"/>
+      <c r="BJ35" s="68"/>
+      <c r="BK35" s="68"/>
+      <c r="BL35" s="68"/>
+      <c r="BM35" s="68"/>
+      <c r="BN35" s="68"/>
+      <c r="BO35" s="68"/>
+      <c r="BP35" s="73"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:60">
-      <c r="A36" s="47"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="45" t="s">
+    <row r="36" ht="18" customHeight="1" spans="1:68">
+      <c r="A36" s="48"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="46">
-        <v>45952</v>
-      </c>
-      <c r="G36" s="46">
-        <v>45952</v>
+      <c r="F36" s="47">
+        <v>45953</v>
+      </c>
+      <c r="G36" s="47">
+        <v>45959</v>
       </c>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
@@ -5099,128 +5067,144 @@
       <c r="AD36" s="36"/>
       <c r="AE36" s="36"/>
       <c r="AF36" s="36"/>
-      <c r="AG36" s="68"/>
+      <c r="AG36" s="36"/>
       <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="71"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="71"/>
-      <c r="AW36" s="71"/>
-      <c r="AX36" s="71"/>
-      <c r="AY36" s="71"/>
-      <c r="AZ36" s="71"/>
-      <c r="BA36" s="71"/>
-      <c r="BB36" s="71"/>
-      <c r="BC36" s="71"/>
-      <c r="BD36" s="71"/>
-      <c r="BE36" s="71"/>
-      <c r="BF36" s="71"/>
-      <c r="BG36" s="71"/>
-      <c r="BH36" s="74"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="68"/>
+      <c r="BG36" s="68"/>
+      <c r="BH36" s="68"/>
+      <c r="BI36" s="68"/>
+      <c r="BJ36" s="68"/>
+      <c r="BK36" s="68"/>
+      <c r="BL36" s="68"/>
+      <c r="BM36" s="68"/>
+      <c r="BN36" s="68"/>
+      <c r="BO36" s="68"/>
+      <c r="BP36" s="73"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:60">
-      <c r="A37" s="48" t="s">
+    <row r="37" ht="18" customHeight="1" spans="1:68">
+      <c r="A37" s="48"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="50">
-        <v>45953</v>
-      </c>
-      <c r="G37" s="50">
-        <v>45953</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
+      <c r="F37" s="47">
+        <v>45959</v>
+      </c>
+      <c r="G37" s="47">
+        <v>45959</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
       <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
-      <c r="AO37" s="15"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="15"/>
-      <c r="AR37" s="71"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
-      <c r="AV37" s="71"/>
-      <c r="AW37" s="71"/>
-      <c r="AX37" s="71"/>
-      <c r="AY37" s="71"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="71"/>
-      <c r="BB37" s="71"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="71"/>
-      <c r="BE37" s="71"/>
-      <c r="BF37" s="71"/>
-      <c r="BG37" s="71"/>
-      <c r="BH37" s="74"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="68"/>
+      <c r="BJ37" s="68"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="68"/>
+      <c r="BM37" s="68"/>
+      <c r="BN37" s="68"/>
+      <c r="BO37" s="68"/>
+      <c r="BP37" s="73"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:60">
-      <c r="A38" s="51"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="49" t="s">
+    <row r="38" ht="18" customHeight="1" spans="1:68">
+      <c r="A38" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="50">
-        <v>45953</v>
-      </c>
-      <c r="G38" s="50">
-        <v>45961</v>
+      <c r="F38" s="51">
+        <v>45962</v>
+      </c>
+      <c r="G38" s="51">
+        <v>45962</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -5248,51 +5232,59 @@
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="69"/>
-      <c r="AM38" s="69"/>
-      <c r="AN38" s="69"/>
-      <c r="AO38" s="69"/>
-      <c r="AP38" s="69"/>
-      <c r="AQ38" s="15"/>
-      <c r="AR38" s="71"/>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="71"/>
-      <c r="AV38" s="71"/>
-      <c r="AW38" s="71"/>
-      <c r="AX38" s="71"/>
-      <c r="AY38" s="71"/>
-      <c r="AZ38" s="71"/>
-      <c r="BA38" s="71"/>
-      <c r="BB38" s="71"/>
-      <c r="BC38" s="71"/>
-      <c r="BD38" s="71"/>
-      <c r="BE38" s="71"/>
-      <c r="BF38" s="71"/>
-      <c r="BG38" s="71"/>
-      <c r="BH38" s="74"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="69"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="68"/>
+      <c r="BG38" s="68"/>
+      <c r="BH38" s="68"/>
+      <c r="BI38" s="68"/>
+      <c r="BJ38" s="68"/>
+      <c r="BK38" s="68"/>
+      <c r="BL38" s="68"/>
+      <c r="BM38" s="68"/>
+      <c r="BN38" s="68"/>
+      <c r="BO38" s="68"/>
+      <c r="BP38" s="73"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:60">
-      <c r="A39" s="51"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="49" t="s">
+    <row r="39" ht="18" customHeight="1" spans="1:68">
+      <c r="A39" s="52"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="50">
-        <v>45961</v>
-      </c>
-      <c r="G39" s="50">
-        <v>45961</v>
+      <c r="F39" s="51">
+        <v>45962</v>
+      </c>
+      <c r="G39" s="51">
+        <v>45968</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -5320,55 +5312,59 @@
       <c r="AE39" s="15"/>
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="15"/>
       <c r="AL39" s="15"/>
       <c r="AM39" s="15"/>
       <c r="AN39" s="15"/>
       <c r="AO39" s="15"/>
-      <c r="AP39" s="69"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="71"/>
-      <c r="AT39" s="71"/>
-      <c r="AU39" s="71"/>
-      <c r="AV39" s="71"/>
-      <c r="AW39" s="71"/>
-      <c r="AX39" s="71"/>
-      <c r="AY39" s="71"/>
-      <c r="AZ39" s="71"/>
-      <c r="BA39" s="71"/>
-      <c r="BB39" s="71"/>
-      <c r="BC39" s="71"/>
-      <c r="BD39" s="71"/>
-      <c r="BE39" s="71"/>
-      <c r="BF39" s="71"/>
-      <c r="BG39" s="71"/>
-      <c r="BH39" s="74"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="69"/>
+      <c r="AS39" s="69"/>
+      <c r="AT39" s="69"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="69"/>
+      <c r="AW39" s="69"/>
+      <c r="AX39" s="69"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="68"/>
+      <c r="BA39" s="68"/>
+      <c r="BB39" s="68"/>
+      <c r="BC39" s="68"/>
+      <c r="BD39" s="68"/>
+      <c r="BE39" s="68"/>
+      <c r="BF39" s="68"/>
+      <c r="BG39" s="68"/>
+      <c r="BH39" s="68"/>
+      <c r="BI39" s="68"/>
+      <c r="BJ39" s="68"/>
+      <c r="BK39" s="68"/>
+      <c r="BL39" s="68"/>
+      <c r="BM39" s="68"/>
+      <c r="BN39" s="68"/>
+      <c r="BO39" s="68"/>
+      <c r="BP39" s="73"/>
     </row>
-    <row r="40" ht="18" customHeight="1" spans="1:60">
-      <c r="A40" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="53" t="s">
+    <row r="40" ht="18" customHeight="1" spans="1:68">
+      <c r="A40" s="52"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="54">
-        <v>45964</v>
-      </c>
-      <c r="G40" s="54">
-        <v>45964</v>
+      <c r="F40" s="51">
+        <v>45968</v>
+      </c>
+      <c r="G40" s="51">
+        <v>45968</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -5404,43 +5400,55 @@
       <c r="AM40" s="15"/>
       <c r="AN40" s="15"/>
       <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="71"/>
-      <c r="AS40" s="72"/>
-      <c r="AT40" s="71"/>
-      <c r="AU40" s="71"/>
-      <c r="AV40" s="71"/>
-      <c r="AW40" s="71"/>
-      <c r="AX40" s="71"/>
-      <c r="AY40" s="71"/>
-      <c r="AZ40" s="71"/>
-      <c r="BA40" s="71"/>
-      <c r="BB40" s="71"/>
-      <c r="BC40" s="71"/>
-      <c r="BD40" s="71"/>
-      <c r="BE40" s="71"/>
-      <c r="BF40" s="71"/>
-      <c r="BG40" s="71"/>
-      <c r="BH40" s="74"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="68"/>
+      <c r="BA40" s="68"/>
+      <c r="BB40" s="68"/>
+      <c r="BC40" s="68"/>
+      <c r="BD40" s="68"/>
+      <c r="BE40" s="68"/>
+      <c r="BF40" s="68"/>
+      <c r="BG40" s="68"/>
+      <c r="BH40" s="68"/>
+      <c r="BI40" s="68"/>
+      <c r="BJ40" s="68"/>
+      <c r="BK40" s="68"/>
+      <c r="BL40" s="68"/>
+      <c r="BM40" s="68"/>
+      <c r="BN40" s="68"/>
+      <c r="BO40" s="68"/>
+      <c r="BP40" s="73"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:60">
-      <c r="A41" s="55"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="53" t="s">
+    <row r="41" ht="18" customHeight="1" spans="1:68">
+      <c r="A41" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="54">
-        <v>45964</v>
-      </c>
-      <c r="G41" s="54">
-        <v>45970</v>
+      <c r="F41" s="55">
+        <v>45971</v>
+      </c>
+      <c r="G41" s="55">
+        <v>45971</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -5478,41 +5486,49 @@
       <c r="AO41" s="15"/>
       <c r="AP41" s="15"/>
       <c r="AQ41" s="15"/>
-      <c r="AR41" s="71"/>
-      <c r="AS41" s="72"/>
-      <c r="AT41" s="72"/>
-      <c r="AU41" s="72"/>
-      <c r="AV41" s="72"/>
-      <c r="AW41" s="72"/>
-      <c r="AX41" s="72"/>
-      <c r="AY41" s="72"/>
-      <c r="AZ41" s="71"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="68"/>
       <c r="BA41" s="71"/>
-      <c r="BB41" s="71"/>
-      <c r="BC41" s="71"/>
-      <c r="BD41" s="71"/>
-      <c r="BE41" s="71"/>
-      <c r="BF41" s="71"/>
-      <c r="BG41" s="71"/>
-      <c r="BH41" s="74"/>
+      <c r="BB41" s="68"/>
+      <c r="BC41" s="68"/>
+      <c r="BD41" s="68"/>
+      <c r="BE41" s="68"/>
+      <c r="BF41" s="68"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="68"/>
+      <c r="BI41" s="68"/>
+      <c r="BJ41" s="68"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="68"/>
+      <c r="BM41" s="68"/>
+      <c r="BN41" s="68"/>
+      <c r="BO41" s="68"/>
+      <c r="BP41" s="73"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:60">
-      <c r="A42" s="55"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="53" t="s">
+    <row r="42" ht="18" customHeight="1" spans="1:68">
+      <c r="A42" s="56"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="54">
-        <v>45970</v>
-      </c>
-      <c r="G42" s="54">
-        <v>45970</v>
+      <c r="F42" s="55">
+        <v>45971</v>
+      </c>
+      <c r="G42" s="55">
+        <v>45977</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -5550,15 +5566,15 @@
       <c r="AO42" s="15"/>
       <c r="AP42" s="15"/>
       <c r="AQ42" s="15"/>
-      <c r="AR42" s="71"/>
-      <c r="AS42" s="71"/>
-      <c r="AT42" s="71"/>
-      <c r="AU42" s="71"/>
-      <c r="AV42" s="71"/>
-      <c r="AW42" s="71"/>
-      <c r="AX42" s="71"/>
-      <c r="AY42" s="72"/>
-      <c r="AZ42" s="71"/>
+      <c r="AR42" s="15"/>
+      <c r="AS42" s="15"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="68"/>
       <c r="BA42" s="71"/>
       <c r="BB42" s="71"/>
       <c r="BC42" s="71"/>
@@ -5566,29 +5582,33 @@
       <c r="BE42" s="71"/>
       <c r="BF42" s="71"/>
       <c r="BG42" s="71"/>
-      <c r="BH42" s="74"/>
+      <c r="BH42" s="68"/>
+      <c r="BI42" s="68"/>
+      <c r="BJ42" s="68"/>
+      <c r="BK42" s="68"/>
+      <c r="BL42" s="68"/>
+      <c r="BM42" s="68"/>
+      <c r="BN42" s="68"/>
+      <c r="BO42" s="68"/>
+      <c r="BP42" s="73"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A43" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="57" t="s">
+    <row r="43" ht="18" customHeight="1" spans="1:68">
+      <c r="A43" s="56"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="58">
-        <v>45953</v>
-      </c>
-      <c r="G43" s="58">
-        <v>45955</v>
+      <c r="F43" s="55">
+        <v>45977</v>
+      </c>
+      <c r="G43" s="55">
+        <v>45977</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -5616,9 +5636,9 @@
       <c r="AE43" s="15"/>
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
       <c r="AM43" s="15"/>
@@ -5626,41 +5646,53 @@
       <c r="AO43" s="15"/>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="15"/>
-      <c r="AR43" s="71"/>
-      <c r="AS43" s="71"/>
-      <c r="AT43" s="71"/>
-      <c r="AU43" s="71"/>
-      <c r="AV43" s="71"/>
-      <c r="AW43" s="71"/>
-      <c r="AX43" s="71"/>
-      <c r="AY43" s="71"/>
-      <c r="AZ43" s="71"/>
-      <c r="BA43" s="71"/>
-      <c r="BB43" s="71"/>
-      <c r="BC43" s="71"/>
-      <c r="BD43" s="71"/>
-      <c r="BE43" s="71"/>
-      <c r="BF43" s="71"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="68"/>
+      <c r="BA43" s="68"/>
+      <c r="BB43" s="68"/>
+      <c r="BC43" s="68"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="68"/>
+      <c r="BF43" s="68"/>
       <c r="BG43" s="71"/>
-      <c r="BH43" s="74"/>
+      <c r="BH43" s="68"/>
+      <c r="BI43" s="68"/>
+      <c r="BJ43" s="68"/>
+      <c r="BK43" s="68"/>
+      <c r="BL43" s="68"/>
+      <c r="BM43" s="68"/>
+      <c r="BN43" s="68"/>
+      <c r="BO43" s="68"/>
+      <c r="BP43" s="73"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A44" s="59"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57" t="s">
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A44" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="57" t="s">
+      <c r="D44" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="58">
-        <v>45953</v>
-      </c>
-      <c r="G44" s="58">
-        <v>45955</v>
+      <c r="F44" s="59">
+        <v>45960</v>
+      </c>
+      <c r="G44" s="59">
+        <v>45962</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -5690,49 +5722,57 @@
       <c r="AG44" s="15"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="70"/>
-      <c r="AL44" s="70"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
       <c r="AM44" s="15"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="15"/>
-      <c r="AP44" s="15"/>
-      <c r="AQ44" s="15"/>
-      <c r="AR44" s="71"/>
-      <c r="AS44" s="71"/>
-      <c r="AT44" s="71"/>
-      <c r="AU44" s="71"/>
-      <c r="AV44" s="71"/>
-      <c r="AW44" s="71"/>
-      <c r="AX44" s="71"/>
-      <c r="AY44" s="71"/>
-      <c r="AZ44" s="71"/>
-      <c r="BA44" s="71"/>
-      <c r="BB44" s="71"/>
-      <c r="BC44" s="71"/>
-      <c r="BD44" s="71"/>
-      <c r="BE44" s="71"/>
-      <c r="BF44" s="71"/>
-      <c r="BG44" s="71"/>
-      <c r="BH44" s="74"/>
+      <c r="AP44" s="70"/>
+      <c r="AQ44" s="70"/>
+      <c r="AR44" s="70"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="68"/>
+      <c r="BA44" s="68"/>
+      <c r="BB44" s="68"/>
+      <c r="BC44" s="68"/>
+      <c r="BD44" s="68"/>
+      <c r="BE44" s="68"/>
+      <c r="BF44" s="68"/>
+      <c r="BG44" s="68"/>
+      <c r="BH44" s="68"/>
+      <c r="BI44" s="68"/>
+      <c r="BJ44" s="68"/>
+      <c r="BK44" s="68"/>
+      <c r="BL44" s="68"/>
+      <c r="BM44" s="68"/>
+      <c r="BN44" s="68"/>
+      <c r="BO44" s="68"/>
+      <c r="BP44" s="73"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A45" s="59"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57" t="s">
+    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A45" s="60"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="57" t="s">
+      <c r="D45" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="58">
-        <v>45958</v>
-      </c>
-      <c r="G45" s="58">
-        <v>45959</v>
+      <c r="F45" s="59">
+        <v>45962</v>
+      </c>
+      <c r="G45" s="59">
+        <v>45964</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -5765,46 +5805,54 @@
       <c r="AJ45" s="15"/>
       <c r="AK45" s="15"/>
       <c r="AL45" s="15"/>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="70"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
       <c r="AO45" s="15"/>
       <c r="AP45" s="15"/>
       <c r="AQ45" s="15"/>
-      <c r="AR45" s="71"/>
-      <c r="AS45" s="71"/>
-      <c r="AT45" s="71"/>
-      <c r="AU45" s="71"/>
-      <c r="AV45" s="71"/>
-      <c r="AW45" s="71"/>
-      <c r="AX45" s="71"/>
-      <c r="AY45" s="71"/>
-      <c r="AZ45" s="71"/>
-      <c r="BA45" s="71"/>
-      <c r="BB45" s="71"/>
-      <c r="BC45" s="71"/>
-      <c r="BD45" s="71"/>
-      <c r="BE45" s="71"/>
-      <c r="BF45" s="71"/>
-      <c r="BG45" s="71"/>
-      <c r="BH45" s="74"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="70"/>
+      <c r="AT45" s="70"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="68"/>
+      <c r="BA45" s="68"/>
+      <c r="BB45" s="68"/>
+      <c r="BC45" s="68"/>
+      <c r="BD45" s="68"/>
+      <c r="BE45" s="68"/>
+      <c r="BF45" s="68"/>
+      <c r="BG45" s="68"/>
+      <c r="BH45" s="68"/>
+      <c r="BI45" s="68"/>
+      <c r="BJ45" s="68"/>
+      <c r="BK45" s="68"/>
+      <c r="BL45" s="68"/>
+      <c r="BM45" s="68"/>
+      <c r="BN45" s="68"/>
+      <c r="BO45" s="68"/>
+      <c r="BP45" s="73"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A46" s="59"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57" t="s">
+    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A46" s="60"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="58">
-        <v>45959</v>
-      </c>
-      <c r="G46" s="58">
-        <v>45959</v>
+      <c r="F46" s="59">
+        <v>45965</v>
+      </c>
+      <c r="G46" s="59">
+        <v>45966</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -5838,45 +5886,53 @@
       <c r="AK46" s="15"/>
       <c r="AL46" s="15"/>
       <c r="AM46" s="15"/>
-      <c r="AN46" s="70"/>
+      <c r="AN46" s="15"/>
       <c r="AO46" s="15"/>
       <c r="AP46" s="15"/>
       <c r="AQ46" s="15"/>
-      <c r="AR46" s="71"/>
-      <c r="AS46" s="71"/>
-      <c r="AT46" s="71"/>
-      <c r="AU46" s="71"/>
-      <c r="AV46" s="71"/>
-      <c r="AW46" s="71"/>
-      <c r="AX46" s="71"/>
-      <c r="AY46" s="71"/>
-      <c r="AZ46" s="71"/>
-      <c r="BA46" s="71"/>
-      <c r="BB46" s="71"/>
-      <c r="BC46" s="71"/>
-      <c r="BD46" s="71"/>
-      <c r="BE46" s="71"/>
-      <c r="BF46" s="71"/>
-      <c r="BG46" s="71"/>
-      <c r="BH46" s="74"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="70"/>
+      <c r="AV46" s="70"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="68"/>
+      <c r="BA46" s="68"/>
+      <c r="BB46" s="68"/>
+      <c r="BC46" s="68"/>
+      <c r="BD46" s="68"/>
+      <c r="BE46" s="68"/>
+      <c r="BF46" s="68"/>
+      <c r="BG46" s="68"/>
+      <c r="BH46" s="68"/>
+      <c r="BI46" s="68"/>
+      <c r="BJ46" s="68"/>
+      <c r="BK46" s="68"/>
+      <c r="BL46" s="68"/>
+      <c r="BM46" s="68"/>
+      <c r="BN46" s="68"/>
+      <c r="BO46" s="68"/>
+      <c r="BP46" s="73"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A47" s="59"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57" t="s">
+    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A47" s="60"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="58">
-        <v>45959</v>
-      </c>
-      <c r="G47" s="58">
-        <v>45961</v>
+      <c r="F47" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G47" s="59">
+        <v>45966</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
@@ -5910,45 +5966,53 @@
       <c r="AK47" s="15"/>
       <c r="AL47" s="15"/>
       <c r="AM47" s="15"/>
-      <c r="AN47" s="70"/>
-      <c r="AO47" s="70"/>
-      <c r="AP47" s="70"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
       <c r="AQ47" s="15"/>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="71"/>
-      <c r="AU47" s="71"/>
-      <c r="AV47" s="71"/>
-      <c r="AW47" s="71"/>
-      <c r="AX47" s="71"/>
-      <c r="AY47" s="71"/>
-      <c r="AZ47" s="71"/>
-      <c r="BA47" s="71"/>
-      <c r="BB47" s="71"/>
-      <c r="BC47" s="71"/>
-      <c r="BD47" s="71"/>
-      <c r="BE47" s="71"/>
-      <c r="BF47" s="71"/>
-      <c r="BG47" s="71"/>
-      <c r="BH47" s="74"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="70"/>
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="15"/>
+      <c r="AY47" s="15"/>
+      <c r="AZ47" s="68"/>
+      <c r="BA47" s="68"/>
+      <c r="BB47" s="68"/>
+      <c r="BC47" s="68"/>
+      <c r="BD47" s="68"/>
+      <c r="BE47" s="68"/>
+      <c r="BF47" s="68"/>
+      <c r="BG47" s="68"/>
+      <c r="BH47" s="68"/>
+      <c r="BI47" s="68"/>
+      <c r="BJ47" s="68"/>
+      <c r="BK47" s="68"/>
+      <c r="BL47" s="68"/>
+      <c r="BM47" s="68"/>
+      <c r="BN47" s="68"/>
+      <c r="BO47" s="68"/>
+      <c r="BP47" s="73"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A48" s="59"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57" t="s">
+    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A48" s="60"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="57" t="s">
+      <c r="D48" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="58">
-        <v>45959</v>
-      </c>
-      <c r="G48" s="58">
-        <v>45961</v>
+      <c r="F48" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G48" s="59">
+        <v>45968</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
@@ -5982,45 +6046,53 @@
       <c r="AK48" s="15"/>
       <c r="AL48" s="15"/>
       <c r="AM48" s="15"/>
-      <c r="AN48" s="70"/>
-      <c r="AO48" s="70"/>
-      <c r="AP48" s="70"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
       <c r="AQ48" s="15"/>
-      <c r="AR48" s="71"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="71"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="71"/>
-      <c r="AW48" s="71"/>
-      <c r="AX48" s="71"/>
-      <c r="AY48" s="71"/>
-      <c r="AZ48" s="71"/>
-      <c r="BA48" s="71"/>
-      <c r="BB48" s="71"/>
-      <c r="BC48" s="71"/>
-      <c r="BD48" s="71"/>
-      <c r="BE48" s="71"/>
-      <c r="BF48" s="71"/>
-      <c r="BG48" s="71"/>
-      <c r="BH48" s="74"/>
+      <c r="AR48" s="15"/>
+      <c r="AS48" s="15"/>
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="70"/>
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="15"/>
+      <c r="AZ48" s="68"/>
+      <c r="BA48" s="68"/>
+      <c r="BB48" s="68"/>
+      <c r="BC48" s="68"/>
+      <c r="BD48" s="68"/>
+      <c r="BE48" s="68"/>
+      <c r="BF48" s="68"/>
+      <c r="BG48" s="68"/>
+      <c r="BH48" s="68"/>
+      <c r="BI48" s="68"/>
+      <c r="BJ48" s="68"/>
+      <c r="BK48" s="68"/>
+      <c r="BL48" s="68"/>
+      <c r="BM48" s="68"/>
+      <c r="BN48" s="68"/>
+      <c r="BO48" s="68"/>
+      <c r="BP48" s="73"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A49" s="59"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57" t="s">
+    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A49" s="60"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="57" t="s">
+      <c r="D49" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="58">
-        <v>45961</v>
-      </c>
-      <c r="G49" s="58">
-        <v>45961</v>
+      <c r="F49" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G49" s="59">
+        <v>45968</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -6056,45 +6128,51 @@
       <c r="AM49" s="15"/>
       <c r="AN49" s="15"/>
       <c r="AO49" s="15"/>
-      <c r="AP49" s="70"/>
+      <c r="AP49" s="15"/>
       <c r="AQ49" s="15"/>
-      <c r="AR49" s="71"/>
-      <c r="AS49" s="71"/>
-      <c r="AT49" s="71"/>
-      <c r="AU49" s="71"/>
-      <c r="AV49" s="71"/>
-      <c r="AW49" s="71"/>
-      <c r="AX49" s="71"/>
-      <c r="AY49" s="71"/>
-      <c r="AZ49" s="71"/>
-      <c r="BA49" s="71"/>
-      <c r="BB49" s="71"/>
-      <c r="BC49" s="71"/>
-      <c r="BD49" s="71"/>
-      <c r="BE49" s="71"/>
-      <c r="BF49" s="71"/>
-      <c r="BG49" s="71"/>
-      <c r="BH49" s="74"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="70"/>
+      <c r="AW49" s="70"/>
+      <c r="AX49" s="70"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="68"/>
+      <c r="BA49" s="68"/>
+      <c r="BB49" s="68"/>
+      <c r="BC49" s="68"/>
+      <c r="BD49" s="68"/>
+      <c r="BE49" s="68"/>
+      <c r="BF49" s="68"/>
+      <c r="BG49" s="68"/>
+      <c r="BH49" s="68"/>
+      <c r="BI49" s="68"/>
+      <c r="BJ49" s="68"/>
+      <c r="BK49" s="68"/>
+      <c r="BL49" s="68"/>
+      <c r="BM49" s="68"/>
+      <c r="BN49" s="68"/>
+      <c r="BO49" s="68"/>
+      <c r="BP49" s="73"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A50" s="59"/>
-      <c r="B50" s="57" t="s">
+    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A50" s="60"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="58">
-        <v>45958</v>
-      </c>
-      <c r="G50" s="58">
-        <v>45959</v>
+      <c r="F50" s="59">
+        <v>45968</v>
+      </c>
+      <c r="G50" s="59">
+        <v>45968</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -6128,45 +6206,55 @@
       <c r="AK50" s="15"/>
       <c r="AL50" s="15"/>
       <c r="AM50" s="15"/>
-      <c r="AN50" s="70"/>
-      <c r="AO50" s="70"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
       <c r="AP50" s="15"/>
       <c r="AQ50" s="15"/>
-      <c r="AR50" s="71"/>
-      <c r="AS50" s="71"/>
-      <c r="AT50" s="71"/>
-      <c r="AU50" s="71"/>
-      <c r="AV50" s="71"/>
-      <c r="AW50" s="71"/>
-      <c r="AX50" s="71"/>
-      <c r="AY50" s="71"/>
-      <c r="AZ50" s="71"/>
-      <c r="BA50" s="71"/>
-      <c r="BB50" s="71"/>
-      <c r="BC50" s="71"/>
-      <c r="BD50" s="71"/>
-      <c r="BE50" s="71"/>
-      <c r="BF50" s="71"/>
-      <c r="BG50" s="71"/>
-      <c r="BH50" s="74"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="70"/>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="68"/>
+      <c r="BA50" s="68"/>
+      <c r="BB50" s="68"/>
+      <c r="BC50" s="68"/>
+      <c r="BD50" s="68"/>
+      <c r="BE50" s="68"/>
+      <c r="BF50" s="68"/>
+      <c r="BG50" s="68"/>
+      <c r="BH50" s="68"/>
+      <c r="BI50" s="68"/>
+      <c r="BJ50" s="68"/>
+      <c r="BK50" s="68"/>
+      <c r="BL50" s="68"/>
+      <c r="BM50" s="68"/>
+      <c r="BN50" s="68"/>
+      <c r="BO50" s="68"/>
+      <c r="BP50" s="73"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A51" s="59"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57" t="s">
+    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A51" s="60"/>
+      <c r="B51" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="58">
-        <v>45959</v>
-      </c>
-      <c r="G51" s="58">
-        <v>45960</v>
+      <c r="F51" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G51" s="59">
+        <v>45967</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -6200,45 +6288,53 @@
       <c r="AK51" s="15"/>
       <c r="AL51" s="15"/>
       <c r="AM51" s="15"/>
-      <c r="AN51" s="70"/>
-      <c r="AO51" s="70"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
       <c r="AP51" s="15"/>
       <c r="AQ51" s="15"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="71"/>
-      <c r="AV51" s="71"/>
-      <c r="AW51" s="71"/>
-      <c r="AX51" s="71"/>
-      <c r="AY51" s="71"/>
-      <c r="AZ51" s="71"/>
-      <c r="BA51" s="71"/>
-      <c r="BB51" s="71"/>
-      <c r="BC51" s="71"/>
-      <c r="BD51" s="71"/>
-      <c r="BE51" s="71"/>
-      <c r="BF51" s="71"/>
-      <c r="BG51" s="71"/>
-      <c r="BH51" s="74"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="70"/>
+      <c r="AW51" s="70"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="68"/>
+      <c r="BA51" s="68"/>
+      <c r="BB51" s="68"/>
+      <c r="BC51" s="68"/>
+      <c r="BD51" s="68"/>
+      <c r="BE51" s="68"/>
+      <c r="BF51" s="68"/>
+      <c r="BG51" s="68"/>
+      <c r="BH51" s="68"/>
+      <c r="BI51" s="68"/>
+      <c r="BJ51" s="68"/>
+      <c r="BK51" s="68"/>
+      <c r="BL51" s="68"/>
+      <c r="BM51" s="68"/>
+      <c r="BN51" s="68"/>
+      <c r="BO51" s="68"/>
+      <c r="BP51" s="73"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A52" s="59"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57" t="s">
+    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A52" s="60"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="58">
-        <v>45959</v>
-      </c>
-      <c r="G52" s="58">
-        <v>45960</v>
+      <c r="F52" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G52" s="59">
+        <v>45967</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -6272,45 +6368,53 @@
       <c r="AK52" s="15"/>
       <c r="AL52" s="15"/>
       <c r="AM52" s="15"/>
-      <c r="AN52" s="70"/>
-      <c r="AO52" s="70"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
       <c r="AP52" s="15"/>
       <c r="AQ52" s="15"/>
-      <c r="AR52" s="71"/>
-      <c r="AS52" s="71"/>
-      <c r="AT52" s="71"/>
-      <c r="AU52" s="71"/>
-      <c r="AV52" s="71"/>
-      <c r="AW52" s="71"/>
-      <c r="AX52" s="71"/>
-      <c r="AY52" s="71"/>
-      <c r="AZ52" s="71"/>
-      <c r="BA52" s="71"/>
-      <c r="BB52" s="71"/>
-      <c r="BC52" s="71"/>
-      <c r="BD52" s="71"/>
-      <c r="BE52" s="71"/>
-      <c r="BF52" s="71"/>
-      <c r="BG52" s="71"/>
-      <c r="BH52" s="74"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="70"/>
+      <c r="AW52" s="70"/>
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="68"/>
+      <c r="BA52" s="68"/>
+      <c r="BB52" s="68"/>
+      <c r="BC52" s="68"/>
+      <c r="BD52" s="68"/>
+      <c r="BE52" s="68"/>
+      <c r="BF52" s="68"/>
+      <c r="BG52" s="68"/>
+      <c r="BH52" s="68"/>
+      <c r="BI52" s="68"/>
+      <c r="BJ52" s="68"/>
+      <c r="BK52" s="68"/>
+      <c r="BL52" s="68"/>
+      <c r="BM52" s="68"/>
+      <c r="BN52" s="68"/>
+      <c r="BO52" s="68"/>
+      <c r="BP52" s="73"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A53" s="59"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57" t="s">
+    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A53" s="60"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="57" t="s">
+      <c r="D53" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="58">
-        <v>45959</v>
-      </c>
-      <c r="G53" s="58">
-        <v>45960</v>
+      <c r="F53" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G53" s="59">
+        <v>45967</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -6344,38 +6448,54 @@
       <c r="AK53" s="15"/>
       <c r="AL53" s="15"/>
       <c r="AM53" s="15"/>
-      <c r="AN53" s="70"/>
-      <c r="AO53" s="70"/>
-      <c r="AP53" s="70"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
       <c r="AQ53" s="15"/>
-      <c r="AR53" s="71"/>
-      <c r="AS53" s="71"/>
-      <c r="AT53" s="71"/>
-      <c r="AU53" s="71"/>
-      <c r="AV53" s="71"/>
-      <c r="AW53" s="71"/>
-      <c r="AX53" s="71"/>
-      <c r="AY53" s="71"/>
-      <c r="AZ53" s="71"/>
-      <c r="BA53" s="71"/>
-      <c r="BB53" s="71"/>
-      <c r="BC53" s="71"/>
-      <c r="BD53" s="71"/>
-      <c r="BE53" s="71"/>
-      <c r="BF53" s="71"/>
-      <c r="BG53" s="71"/>
-      <c r="BH53" s="74"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="15"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="70"/>
+      <c r="AW53" s="70"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="68"/>
+      <c r="BA53" s="68"/>
+      <c r="BB53" s="68"/>
+      <c r="BC53" s="68"/>
+      <c r="BD53" s="68"/>
+      <c r="BE53" s="68"/>
+      <c r="BF53" s="68"/>
+      <c r="BG53" s="68"/>
+      <c r="BH53" s="68"/>
+      <c r="BI53" s="68"/>
+      <c r="BJ53" s="68"/>
+      <c r="BK53" s="68"/>
+      <c r="BL53" s="68"/>
+      <c r="BM53" s="68"/>
+      <c r="BN53" s="68"/>
+      <c r="BO53" s="68"/>
+      <c r="BP53" s="73"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A54" s="60" t="s">
+    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A54" s="60"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62"/>
+      <c r="D54" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="59">
+        <v>45966</v>
+      </c>
+      <c r="G54" s="59">
+        <v>45968</v>
+      </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
@@ -6408,49 +6528,57 @@
       <c r="AK54" s="15"/>
       <c r="AL54" s="15"/>
       <c r="AM54" s="15"/>
-      <c r="AN54" s="70"/>
-      <c r="AO54" s="70"/>
-      <c r="AP54" s="70"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
       <c r="AQ54" s="15"/>
-      <c r="AR54" s="71"/>
-      <c r="AS54" s="71"/>
-      <c r="AT54" s="71"/>
-      <c r="AU54" s="71"/>
-      <c r="AV54" s="71"/>
-      <c r="AW54" s="71"/>
-      <c r="AX54" s="71"/>
-      <c r="AY54" s="71"/>
-      <c r="AZ54" s="71"/>
-      <c r="BA54" s="71"/>
-      <c r="BB54" s="71"/>
-      <c r="BC54" s="71"/>
-      <c r="BD54" s="71"/>
-      <c r="BE54" s="71"/>
-      <c r="BF54" s="71"/>
-      <c r="BG54" s="71"/>
-      <c r="BH54" s="74"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="70"/>
+      <c r="AW54" s="70"/>
+      <c r="AX54" s="70"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="68"/>
+      <c r="BA54" s="68"/>
+      <c r="BB54" s="68"/>
+      <c r="BC54" s="68"/>
+      <c r="BD54" s="68"/>
+      <c r="BE54" s="68"/>
+      <c r="BF54" s="68"/>
+      <c r="BG54" s="68"/>
+      <c r="BH54" s="68"/>
+      <c r="BI54" s="68"/>
+      <c r="BJ54" s="68"/>
+      <c r="BK54" s="68"/>
+      <c r="BL54" s="68"/>
+      <c r="BM54" s="68"/>
+      <c r="BN54" s="68"/>
+      <c r="BO54" s="68"/>
+      <c r="BP54" s="73"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A55" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="64" t="s">
+    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A55" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="B55" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="64" t="s">
+      <c r="C55" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="65">
-        <v>45962</v>
-      </c>
-      <c r="G55" s="65">
-        <v>45964</v>
+      <c r="F55" s="63">
+        <v>45969</v>
+      </c>
+      <c r="G55" s="63">
+        <v>45971</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -6487,42 +6615,50 @@
       <c r="AN55" s="15"/>
       <c r="AO55" s="15"/>
       <c r="AP55" s="15"/>
-      <c r="AQ55" s="73"/>
-      <c r="AR55" s="73"/>
-      <c r="AS55" s="73"/>
+      <c r="AQ55" s="15"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="15"/>
       <c r="AT55" s="15"/>
       <c r="AU55" s="15"/>
       <c r="AV55" s="15"/>
       <c r="AW55" s="15"/>
       <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="71"/>
-      <c r="BA55" s="71"/>
-      <c r="BB55" s="71"/>
-      <c r="BC55" s="71"/>
-      <c r="BD55" s="71"/>
-      <c r="BE55" s="71"/>
-      <c r="BF55" s="71"/>
-      <c r="BG55" s="71"/>
-      <c r="BH55" s="74"/>
+      <c r="AY55" s="72"/>
+      <c r="AZ55" s="72"/>
+      <c r="BA55" s="72"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="68"/>
+      <c r="BI55" s="68"/>
+      <c r="BJ55" s="68"/>
+      <c r="BK55" s="68"/>
+      <c r="BL55" s="68"/>
+      <c r="BM55" s="68"/>
+      <c r="BN55" s="68"/>
+      <c r="BO55" s="68"/>
+      <c r="BP55" s="73"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A56" s="66"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="64" t="s">
+    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A56" s="64"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="65">
-        <v>45964</v>
-      </c>
-      <c r="G56" s="65">
-        <v>45966</v>
+      <c r="F56" s="63">
+        <v>45971</v>
+      </c>
+      <c r="G56" s="63">
+        <v>45973</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -6561,40 +6697,48 @@
       <c r="AP56" s="15"/>
       <c r="AQ56" s="15"/>
       <c r="AR56" s="15"/>
-      <c r="AS56" s="73"/>
-      <c r="AT56" s="73"/>
-      <c r="AU56" s="73"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
       <c r="AV56" s="15"/>
       <c r="AW56" s="15"/>
       <c r="AX56" s="15"/>
       <c r="AY56" s="15"/>
-      <c r="AZ56" s="71"/>
-      <c r="BA56" s="71"/>
-      <c r="BB56" s="71"/>
-      <c r="BC56" s="71"/>
-      <c r="BD56" s="71"/>
-      <c r="BE56" s="71"/>
-      <c r="BF56" s="71"/>
-      <c r="BG56" s="71"/>
-      <c r="BH56" s="74"/>
+      <c r="AZ56" s="15"/>
+      <c r="BA56" s="72"/>
+      <c r="BB56" s="72"/>
+      <c r="BC56" s="72"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="68"/>
+      <c r="BI56" s="68"/>
+      <c r="BJ56" s="68"/>
+      <c r="BK56" s="68"/>
+      <c r="BL56" s="68"/>
+      <c r="BM56" s="68"/>
+      <c r="BN56" s="68"/>
+      <c r="BO56" s="68"/>
+      <c r="BP56" s="73"/>
     </row>
-    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A57" s="66"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="64" t="s">
+    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A57" s="64"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="65">
-        <v>45967</v>
-      </c>
-      <c r="G57" s="65">
-        <v>45968</v>
+      <c r="F57" s="63">
+        <v>45974</v>
+      </c>
+      <c r="G57" s="63">
+        <v>45975</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -6636,37 +6780,45 @@
       <c r="AS57" s="15"/>
       <c r="AT57" s="15"/>
       <c r="AU57" s="15"/>
-      <c r="AV57" s="73"/>
-      <c r="AW57" s="73"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="15"/>
       <c r="AX57" s="15"/>
       <c r="AY57" s="15"/>
-      <c r="AZ57" s="71"/>
-      <c r="BA57" s="71"/>
-      <c r="BB57" s="71"/>
-      <c r="BC57" s="71"/>
-      <c r="BD57" s="71"/>
-      <c r="BE57" s="71"/>
-      <c r="BF57" s="71"/>
-      <c r="BG57" s="71"/>
-      <c r="BH57" s="74"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="15"/>
+      <c r="BB57" s="15"/>
+      <c r="BC57" s="15"/>
+      <c r="BD57" s="72"/>
+      <c r="BE57" s="72"/>
+      <c r="BF57" s="15"/>
+      <c r="BG57" s="15"/>
+      <c r="BH57" s="68"/>
+      <c r="BI57" s="68"/>
+      <c r="BJ57" s="68"/>
+      <c r="BK57" s="68"/>
+      <c r="BL57" s="68"/>
+      <c r="BM57" s="68"/>
+      <c r="BN57" s="68"/>
+      <c r="BO57" s="68"/>
+      <c r="BP57" s="73"/>
     </row>
-    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A58" s="66"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="64" t="s">
+    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A58" s="64"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G58" s="65">
-        <v>45968</v>
+      <c r="F58" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G58" s="63">
+        <v>45975</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -6709,36 +6861,44 @@
       <c r="AT58" s="15"/>
       <c r="AU58" s="15"/>
       <c r="AV58" s="15"/>
-      <c r="AW58" s="73"/>
+      <c r="AW58" s="15"/>
       <c r="AX58" s="15"/>
       <c r="AY58" s="15"/>
-      <c r="AZ58" s="71"/>
-      <c r="BA58" s="71"/>
-      <c r="BB58" s="71"/>
-      <c r="BC58" s="71"/>
-      <c r="BD58" s="71"/>
-      <c r="BE58" s="71"/>
-      <c r="BF58" s="71"/>
-      <c r="BG58" s="71"/>
-      <c r="BH58" s="74"/>
+      <c r="AZ58" s="15"/>
+      <c r="BA58" s="15"/>
+      <c r="BB58" s="15"/>
+      <c r="BC58" s="15"/>
+      <c r="BD58" s="15"/>
+      <c r="BE58" s="72"/>
+      <c r="BF58" s="15"/>
+      <c r="BG58" s="15"/>
+      <c r="BH58" s="68"/>
+      <c r="BI58" s="68"/>
+      <c r="BJ58" s="68"/>
+      <c r="BK58" s="68"/>
+      <c r="BL58" s="68"/>
+      <c r="BM58" s="68"/>
+      <c r="BN58" s="68"/>
+      <c r="BO58" s="68"/>
+      <c r="BP58" s="73"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A59" s="66"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="64" t="s">
+    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A59" s="64"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G59" s="65">
-        <v>45970</v>
+      <c r="F59" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G59" s="63">
+        <v>45977</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -6781,36 +6941,44 @@
       <c r="AT59" s="15"/>
       <c r="AU59" s="15"/>
       <c r="AV59" s="15"/>
-      <c r="AW59" s="73"/>
-      <c r="AX59" s="73"/>
-      <c r="AY59" s="73"/>
-      <c r="AZ59" s="71"/>
-      <c r="BA59" s="71"/>
-      <c r="BB59" s="71"/>
-      <c r="BC59" s="71"/>
-      <c r="BD59" s="71"/>
-      <c r="BE59" s="71"/>
-      <c r="BF59" s="71"/>
-      <c r="BG59" s="71"/>
-      <c r="BH59" s="74"/>
+      <c r="AW59" s="15"/>
+      <c r="AX59" s="15"/>
+      <c r="AY59" s="15"/>
+      <c r="AZ59" s="15"/>
+      <c r="BA59" s="15"/>
+      <c r="BB59" s="15"/>
+      <c r="BC59" s="15"/>
+      <c r="BD59" s="15"/>
+      <c r="BE59" s="72"/>
+      <c r="BF59" s="72"/>
+      <c r="BG59" s="72"/>
+      <c r="BH59" s="68"/>
+      <c r="BI59" s="68"/>
+      <c r="BJ59" s="68"/>
+      <c r="BK59" s="68"/>
+      <c r="BL59" s="68"/>
+      <c r="BM59" s="68"/>
+      <c r="BN59" s="68"/>
+      <c r="BO59" s="68"/>
+      <c r="BP59" s="73"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A60" s="66"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="64" t="s">
+    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A60" s="64"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G60" s="65">
-        <v>45970</v>
+      <c r="F60" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G60" s="63">
+        <v>45977</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -6853,36 +7021,44 @@
       <c r="AT60" s="15"/>
       <c r="AU60" s="15"/>
       <c r="AV60" s="15"/>
-      <c r="AW60" s="73"/>
-      <c r="AX60" s="73"/>
-      <c r="AY60" s="73"/>
-      <c r="AZ60" s="71"/>
-      <c r="BA60" s="71"/>
-      <c r="BB60" s="71"/>
-      <c r="BC60" s="71"/>
-      <c r="BD60" s="71"/>
-      <c r="BE60" s="71"/>
-      <c r="BF60" s="71"/>
-      <c r="BG60" s="71"/>
-      <c r="BH60" s="74"/>
+      <c r="AW60" s="15"/>
+      <c r="AX60" s="15"/>
+      <c r="AY60" s="15"/>
+      <c r="AZ60" s="15"/>
+      <c r="BA60" s="15"/>
+      <c r="BB60" s="15"/>
+      <c r="BC60" s="15"/>
+      <c r="BD60" s="15"/>
+      <c r="BE60" s="72"/>
+      <c r="BF60" s="72"/>
+      <c r="BG60" s="72"/>
+      <c r="BH60" s="68"/>
+      <c r="BI60" s="68"/>
+      <c r="BJ60" s="68"/>
+      <c r="BK60" s="68"/>
+      <c r="BL60" s="68"/>
+      <c r="BM60" s="68"/>
+      <c r="BN60" s="68"/>
+      <c r="BO60" s="68"/>
+      <c r="BP60" s="73"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A61" s="66"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="64" t="s">
+    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A61" s="64"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="65">
-        <v>45970</v>
-      </c>
-      <c r="G61" s="65">
-        <v>45970</v>
+      <c r="F61" s="63">
+        <v>45977</v>
+      </c>
+      <c r="G61" s="63">
+        <v>45977</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -6927,36 +7103,44 @@
       <c r="AV61" s="15"/>
       <c r="AW61" s="15"/>
       <c r="AX61" s="15"/>
-      <c r="AY61" s="73"/>
-      <c r="AZ61" s="71"/>
-      <c r="BA61" s="71"/>
-      <c r="BB61" s="71"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="71"/>
-      <c r="BE61" s="71"/>
-      <c r="BF61" s="71"/>
-      <c r="BG61" s="71"/>
-      <c r="BH61" s="74"/>
+      <c r="AY61" s="15"/>
+      <c r="AZ61" s="15"/>
+      <c r="BA61" s="15"/>
+      <c r="BB61" s="15"/>
+      <c r="BC61" s="15"/>
+      <c r="BD61" s="15"/>
+      <c r="BE61" s="15"/>
+      <c r="BF61" s="15"/>
+      <c r="BG61" s="72"/>
+      <c r="BH61" s="68"/>
+      <c r="BI61" s="68"/>
+      <c r="BJ61" s="68"/>
+      <c r="BK61" s="68"/>
+      <c r="BL61" s="68"/>
+      <c r="BM61" s="68"/>
+      <c r="BN61" s="68"/>
+      <c r="BO61" s="68"/>
+      <c r="BP61" s="73"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A62" s="66"/>
-      <c r="B62" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="64" t="s">
+    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A62" s="64"/>
+      <c r="B62" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="C62" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="D62" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G62" s="65">
-        <v>45969</v>
+      <c r="F62" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G62" s="63">
+        <v>45976</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -6999,36 +7183,44 @@
       <c r="AT62" s="15"/>
       <c r="AU62" s="15"/>
       <c r="AV62" s="15"/>
-      <c r="AW62" s="73"/>
-      <c r="AX62" s="73"/>
+      <c r="AW62" s="15"/>
+      <c r="AX62" s="15"/>
       <c r="AY62" s="15"/>
-      <c r="AZ62" s="71"/>
-      <c r="BA62" s="71"/>
-      <c r="BB62" s="71"/>
-      <c r="BC62" s="71"/>
-      <c r="BD62" s="71"/>
-      <c r="BE62" s="71"/>
-      <c r="BF62" s="71"/>
-      <c r="BG62" s="71"/>
-      <c r="BH62" s="74"/>
+      <c r="AZ62" s="15"/>
+      <c r="BA62" s="15"/>
+      <c r="BB62" s="15"/>
+      <c r="BC62" s="15"/>
+      <c r="BD62" s="15"/>
+      <c r="BE62" s="72"/>
+      <c r="BF62" s="72"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="68"/>
+      <c r="BI62" s="68"/>
+      <c r="BJ62" s="68"/>
+      <c r="BK62" s="68"/>
+      <c r="BL62" s="68"/>
+      <c r="BM62" s="68"/>
+      <c r="BN62" s="68"/>
+      <c r="BO62" s="68"/>
+      <c r="BP62" s="73"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A63" s="66"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="64" t="s">
+    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A63" s="64"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="64" t="s">
+      <c r="D63" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G63" s="65">
-        <v>45969</v>
+      <c r="F63" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G63" s="63">
+        <v>45976</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -7071,36 +7263,44 @@
       <c r="AT63" s="15"/>
       <c r="AU63" s="15"/>
       <c r="AV63" s="15"/>
-      <c r="AW63" s="73"/>
-      <c r="AX63" s="73"/>
+      <c r="AW63" s="15"/>
+      <c r="AX63" s="15"/>
       <c r="AY63" s="15"/>
-      <c r="AZ63" s="71"/>
-      <c r="BA63" s="71"/>
-      <c r="BB63" s="71"/>
-      <c r="BC63" s="71"/>
-      <c r="BD63" s="71"/>
-      <c r="BE63" s="71"/>
-      <c r="BF63" s="71"/>
-      <c r="BG63" s="71"/>
-      <c r="BH63" s="74"/>
+      <c r="AZ63" s="15"/>
+      <c r="BA63" s="15"/>
+      <c r="BB63" s="15"/>
+      <c r="BC63" s="15"/>
+      <c r="BD63" s="15"/>
+      <c r="BE63" s="72"/>
+      <c r="BF63" s="72"/>
+      <c r="BG63" s="15"/>
+      <c r="BH63" s="68"/>
+      <c r="BI63" s="68"/>
+      <c r="BJ63" s="68"/>
+      <c r="BK63" s="68"/>
+      <c r="BL63" s="68"/>
+      <c r="BM63" s="68"/>
+      <c r="BN63" s="68"/>
+      <c r="BO63" s="68"/>
+      <c r="BP63" s="73"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A64" s="66"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" s="64" t="s">
+    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A64" s="64"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G64" s="65">
-        <v>45969</v>
+      <c r="F64" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G64" s="63">
+        <v>45976</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -7143,36 +7343,44 @@
       <c r="AT64" s="15"/>
       <c r="AU64" s="15"/>
       <c r="AV64" s="15"/>
-      <c r="AW64" s="73"/>
-      <c r="AX64" s="73"/>
+      <c r="AW64" s="15"/>
+      <c r="AX64" s="15"/>
       <c r="AY64" s="15"/>
-      <c r="AZ64" s="71"/>
-      <c r="BA64" s="71"/>
-      <c r="BB64" s="71"/>
-      <c r="BC64" s="71"/>
-      <c r="BD64" s="71"/>
-      <c r="BE64" s="71"/>
-      <c r="BF64" s="71"/>
-      <c r="BG64" s="71"/>
-      <c r="BH64" s="74"/>
+      <c r="AZ64" s="15"/>
+      <c r="BA64" s="15"/>
+      <c r="BB64" s="15"/>
+      <c r="BC64" s="15"/>
+      <c r="BD64" s="15"/>
+      <c r="BE64" s="72"/>
+      <c r="BF64" s="72"/>
+      <c r="BG64" s="15"/>
+      <c r="BH64" s="68"/>
+      <c r="BI64" s="68"/>
+      <c r="BJ64" s="68"/>
+      <c r="BK64" s="68"/>
+      <c r="BL64" s="68"/>
+      <c r="BM64" s="68"/>
+      <c r="BN64" s="68"/>
+      <c r="BO64" s="68"/>
+      <c r="BP64" s="73"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A65" s="66"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="64" t="s">
+    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A65" s="64"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="65">
-        <v>45968</v>
-      </c>
-      <c r="G65" s="65">
-        <v>45970</v>
+      <c r="F65" s="63">
+        <v>45975</v>
+      </c>
+      <c r="G65" s="63">
+        <v>45977</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -7215,29 +7423,37 @@
       <c r="AT65" s="15"/>
       <c r="AU65" s="15"/>
       <c r="AV65" s="15"/>
-      <c r="AW65" s="73"/>
-      <c r="AX65" s="73"/>
-      <c r="AY65" s="73"/>
-      <c r="AZ65" s="71"/>
-      <c r="BA65" s="71"/>
-      <c r="BB65" s="71"/>
-      <c r="BC65" s="71"/>
-      <c r="BD65" s="71"/>
-      <c r="BE65" s="71"/>
-      <c r="BF65" s="71"/>
-      <c r="BG65" s="71"/>
-      <c r="BH65" s="74"/>
+      <c r="AW65" s="15"/>
+      <c r="AX65" s="15"/>
+      <c r="AY65" s="15"/>
+      <c r="AZ65" s="15"/>
+      <c r="BA65" s="15"/>
+      <c r="BB65" s="15"/>
+      <c r="BC65" s="15"/>
+      <c r="BD65" s="15"/>
+      <c r="BE65" s="72"/>
+      <c r="BF65" s="72"/>
+      <c r="BG65" s="72"/>
+      <c r="BH65" s="68"/>
+      <c r="BI65" s="68"/>
+      <c r="BJ65" s="68"/>
+      <c r="BK65" s="68"/>
+      <c r="BL65" s="68"/>
+      <c r="BM65" s="68"/>
+      <c r="BN65" s="68"/>
+      <c r="BO65" s="68"/>
+      <c r="BP65" s="73"/>
     </row>
-    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A66" s="78" t="s">
+    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A66" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7274,45 +7490,53 @@
       <c r="AO66" s="15"/>
       <c r="AP66" s="15"/>
       <c r="AQ66" s="15"/>
-      <c r="AR66" s="71"/>
-      <c r="AS66" s="71"/>
-      <c r="AT66" s="71"/>
-      <c r="AU66" s="71"/>
-      <c r="AV66" s="71"/>
-      <c r="AW66" s="71"/>
-      <c r="AX66" s="71"/>
-      <c r="AY66" s="71"/>
-      <c r="AZ66" s="68"/>
-      <c r="BA66" s="68"/>
-      <c r="BB66" s="68"/>
+      <c r="AR66" s="15"/>
+      <c r="AS66" s="15"/>
+      <c r="AT66" s="15"/>
+      <c r="AU66" s="15"/>
+      <c r="AV66" s="15"/>
+      <c r="AW66" s="15"/>
+      <c r="AX66" s="15"/>
+      <c r="AY66" s="15"/>
+      <c r="AZ66" s="15"/>
+      <c r="BA66" s="15"/>
+      <c r="BB66" s="15"/>
       <c r="BC66" s="15"/>
       <c r="BD66" s="15"/>
-      <c r="BE66" s="15"/>
-      <c r="BF66" s="15"/>
-      <c r="BG66" s="15"/>
-      <c r="BH66" s="91"/>
+      <c r="BE66" s="72"/>
+      <c r="BF66" s="72"/>
+      <c r="BG66" s="72"/>
+      <c r="BH66" s="68"/>
+      <c r="BI66" s="68"/>
+      <c r="BJ66" s="68"/>
+      <c r="BK66" s="68"/>
+      <c r="BL66" s="68"/>
+      <c r="BM66" s="68"/>
+      <c r="BN66" s="68"/>
+      <c r="BO66" s="68"/>
+      <c r="BP66" s="73"/>
     </row>
-    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A67" s="44" t="s">
+    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A67" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="45" t="s">
+      <c r="B67" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="45" t="s">
+      <c r="C67" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="46">
-        <v>45971</v>
-      </c>
-      <c r="G67" s="46">
-        <v>45973</v>
+      <c r="F67" s="47">
+        <v>45978</v>
+      </c>
+      <c r="G67" s="47">
+        <v>45980</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
@@ -7350,41 +7574,49 @@
       <c r="AO67" s="15"/>
       <c r="AP67" s="15"/>
       <c r="AQ67" s="15"/>
-      <c r="AR67" s="71"/>
-      <c r="AS67" s="71"/>
-      <c r="AT67" s="71"/>
-      <c r="AU67" s="71"/>
-      <c r="AV67" s="71"/>
-      <c r="AW67" s="71"/>
-      <c r="AX67" s="71"/>
-      <c r="AY67" s="71"/>
+      <c r="AR67" s="15"/>
+      <c r="AS67" s="15"/>
+      <c r="AT67" s="15"/>
+      <c r="AU67" s="15"/>
+      <c r="AV67" s="15"/>
+      <c r="AW67" s="15"/>
+      <c r="AX67" s="15"/>
+      <c r="AY67" s="15"/>
       <c r="AZ67" s="68"/>
       <c r="BA67" s="68"/>
       <c r="BB67" s="68"/>
-      <c r="BC67" s="15"/>
-      <c r="BD67" s="15"/>
-      <c r="BE67" s="15"/>
-      <c r="BF67" s="15"/>
-      <c r="BG67" s="15"/>
-      <c r="BH67" s="91"/>
+      <c r="BC67" s="68"/>
+      <c r="BD67" s="68"/>
+      <c r="BE67" s="68"/>
+      <c r="BF67" s="68"/>
+      <c r="BG67" s="68"/>
+      <c r="BH67" s="67"/>
+      <c r="BI67" s="67"/>
+      <c r="BJ67" s="67"/>
+      <c r="BK67" s="15"/>
+      <c r="BL67" s="15"/>
+      <c r="BM67" s="15"/>
+      <c r="BN67" s="15"/>
+      <c r="BO67" s="15"/>
+      <c r="BP67" s="87"/>
     </row>
-    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A68" s="47"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="45" t="s">
+    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A68" s="48"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="46">
-        <v>45973</v>
-      </c>
-      <c r="G68" s="46">
-        <v>45975</v>
+      <c r="F68" s="47">
+        <v>45980</v>
+      </c>
+      <c r="G68" s="47">
+        <v>45982</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -7422,41 +7654,49 @@
       <c r="AO68" s="15"/>
       <c r="AP68" s="15"/>
       <c r="AQ68" s="15"/>
-      <c r="AR68" s="71"/>
-      <c r="AS68" s="71"/>
-      <c r="AT68" s="71"/>
-      <c r="AU68" s="71"/>
-      <c r="AV68" s="71"/>
-      <c r="AW68" s="71"/>
-      <c r="AX68" s="71"/>
-      <c r="AY68" s="71"/>
-      <c r="AZ68" s="15"/>
-      <c r="BA68" s="15"/>
+      <c r="AR68" s="15"/>
+      <c r="AS68" s="15"/>
+      <c r="AT68" s="15"/>
+      <c r="AU68" s="15"/>
+      <c r="AV68" s="15"/>
+      <c r="AW68" s="15"/>
+      <c r="AX68" s="15"/>
+      <c r="AY68" s="15"/>
+      <c r="AZ68" s="68"/>
+      <c r="BA68" s="68"/>
       <c r="BB68" s="68"/>
       <c r="BC68" s="68"/>
       <c r="BD68" s="68"/>
-      <c r="BE68" s="15"/>
-      <c r="BF68" s="15"/>
-      <c r="BG68" s="15"/>
-      <c r="BH68" s="91"/>
+      <c r="BE68" s="68"/>
+      <c r="BF68" s="68"/>
+      <c r="BG68" s="68"/>
+      <c r="BH68" s="15"/>
+      <c r="BI68" s="15"/>
+      <c r="BJ68" s="67"/>
+      <c r="BK68" s="67"/>
+      <c r="BL68" s="67"/>
+      <c r="BM68" s="15"/>
+      <c r="BN68" s="15"/>
+      <c r="BO68" s="15"/>
+      <c r="BP68" s="87"/>
     </row>
-    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A69" s="47"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="45" t="s">
+    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A69" s="48"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="D69" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="46">
-        <v>45976</v>
-      </c>
-      <c r="G69" s="46">
-        <v>45977</v>
+      <c r="F69" s="47">
+        <v>45983</v>
+      </c>
+      <c r="G69" s="47">
+        <v>45984</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -7494,41 +7734,49 @@
       <c r="AO69" s="15"/>
       <c r="AP69" s="15"/>
       <c r="AQ69" s="15"/>
-      <c r="AR69" s="71"/>
-      <c r="AS69" s="71"/>
-      <c r="AT69" s="71"/>
-      <c r="AU69" s="71"/>
-      <c r="AV69" s="71"/>
-      <c r="AW69" s="71"/>
-      <c r="AX69" s="71"/>
-      <c r="AY69" s="71"/>
-      <c r="AZ69" s="15"/>
-      <c r="BA69" s="15"/>
-      <c r="BB69" s="15"/>
-      <c r="BC69" s="15"/>
-      <c r="BD69" s="15"/>
+      <c r="AR69" s="15"/>
+      <c r="AS69" s="15"/>
+      <c r="AT69" s="15"/>
+      <c r="AU69" s="15"/>
+      <c r="AV69" s="15"/>
+      <c r="AW69" s="15"/>
+      <c r="AX69" s="15"/>
+      <c r="AY69" s="15"/>
+      <c r="AZ69" s="68"/>
+      <c r="BA69" s="68"/>
+      <c r="BB69" s="68"/>
+      <c r="BC69" s="68"/>
+      <c r="BD69" s="68"/>
       <c r="BE69" s="68"/>
       <c r="BF69" s="68"/>
-      <c r="BG69" s="15"/>
-      <c r="BH69" s="91"/>
+      <c r="BG69" s="68"/>
+      <c r="BH69" s="15"/>
+      <c r="BI69" s="15"/>
+      <c r="BJ69" s="15"/>
+      <c r="BK69" s="15"/>
+      <c r="BL69" s="15"/>
+      <c r="BM69" s="67"/>
+      <c r="BN69" s="67"/>
+      <c r="BO69" s="15"/>
+      <c r="BP69" s="87"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A70" s="47"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="45" t="s">
+    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A70" s="48"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F70" s="46">
-        <v>45977</v>
-      </c>
-      <c r="G70" s="46">
-        <v>45977</v>
+      <c r="F70" s="47">
+        <v>45984</v>
+      </c>
+      <c r="G70" s="47">
+        <v>45984</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
@@ -7566,41 +7814,49 @@
       <c r="AO70" s="15"/>
       <c r="AP70" s="15"/>
       <c r="AQ70" s="15"/>
-      <c r="AR70" s="71"/>
-      <c r="AS70" s="71"/>
-      <c r="AT70" s="71"/>
-      <c r="AU70" s="71"/>
-      <c r="AV70" s="71"/>
-      <c r="AW70" s="71"/>
-      <c r="AX70" s="71"/>
-      <c r="AY70" s="71"/>
-      <c r="AZ70" s="15"/>
-      <c r="BA70" s="15"/>
-      <c r="BB70" s="15"/>
-      <c r="BC70" s="15"/>
-      <c r="BD70" s="15"/>
-      <c r="BE70" s="15"/>
+      <c r="AR70" s="15"/>
+      <c r="AS70" s="15"/>
+      <c r="AT70" s="15"/>
+      <c r="AU70" s="15"/>
+      <c r="AV70" s="15"/>
+      <c r="AW70" s="15"/>
+      <c r="AX70" s="15"/>
+      <c r="AY70" s="15"/>
+      <c r="AZ70" s="68"/>
+      <c r="BA70" s="68"/>
+      <c r="BB70" s="68"/>
+      <c r="BC70" s="68"/>
+      <c r="BD70" s="68"/>
+      <c r="BE70" s="68"/>
       <c r="BF70" s="68"/>
-      <c r="BG70" s="15"/>
-      <c r="BH70" s="91"/>
+      <c r="BG70" s="68"/>
+      <c r="BH70" s="15"/>
+      <c r="BI70" s="15"/>
+      <c r="BJ70" s="15"/>
+      <c r="BK70" s="15"/>
+      <c r="BL70" s="15"/>
+      <c r="BM70" s="15"/>
+      <c r="BN70" s="67"/>
+      <c r="BO70" s="15"/>
+      <c r="BP70" s="87"/>
     </row>
-    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A71" s="47"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="45" t="s">
+    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A71" s="48"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="46">
-        <v>45977</v>
-      </c>
-      <c r="G71" s="46">
-        <v>45979</v>
+      <c r="F71" s="47">
+        <v>45984</v>
+      </c>
+      <c r="G71" s="47">
+        <v>45986</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
@@ -7638,41 +7894,49 @@
       <c r="AO71" s="15"/>
       <c r="AP71" s="15"/>
       <c r="AQ71" s="15"/>
-      <c r="AR71" s="71"/>
-      <c r="AS71" s="71"/>
-      <c r="AT71" s="71"/>
-      <c r="AU71" s="71"/>
-      <c r="AV71" s="71"/>
-      <c r="AW71" s="71"/>
-      <c r="AX71" s="71"/>
-      <c r="AY71" s="71"/>
-      <c r="AZ71" s="15"/>
-      <c r="BA71" s="15"/>
-      <c r="BB71" s="15"/>
-      <c r="BC71" s="15"/>
-      <c r="BD71" s="15"/>
-      <c r="BE71" s="15"/>
+      <c r="AR71" s="15"/>
+      <c r="AS71" s="15"/>
+      <c r="AT71" s="15"/>
+      <c r="AU71" s="15"/>
+      <c r="AV71" s="15"/>
+      <c r="AW71" s="15"/>
+      <c r="AX71" s="15"/>
+      <c r="AY71" s="15"/>
+      <c r="AZ71" s="68"/>
+      <c r="BA71" s="68"/>
+      <c r="BB71" s="68"/>
+      <c r="BC71" s="68"/>
+      <c r="BD71" s="68"/>
+      <c r="BE71" s="68"/>
       <c r="BF71" s="68"/>
       <c r="BG71" s="68"/>
-      <c r="BH71" s="92"/>
+      <c r="BH71" s="15"/>
+      <c r="BI71" s="15"/>
+      <c r="BJ71" s="15"/>
+      <c r="BK71" s="15"/>
+      <c r="BL71" s="15"/>
+      <c r="BM71" s="15"/>
+      <c r="BN71" s="67"/>
+      <c r="BO71" s="67"/>
+      <c r="BP71" s="88"/>
     </row>
-    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A72" s="47"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" s="45" t="s">
+    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A72" s="48"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="46">
-        <v>45977</v>
-      </c>
-      <c r="G72" s="46">
-        <v>45979</v>
+      <c r="F72" s="47">
+        <v>45984</v>
+      </c>
+      <c r="G72" s="47">
+        <v>45986</v>
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
@@ -7710,41 +7974,49 @@
       <c r="AO72" s="15"/>
       <c r="AP72" s="15"/>
       <c r="AQ72" s="15"/>
-      <c r="AR72" s="71"/>
-      <c r="AS72" s="71"/>
-      <c r="AT72" s="71"/>
-      <c r="AU72" s="71"/>
-      <c r="AV72" s="71"/>
-      <c r="AW72" s="71"/>
-      <c r="AX72" s="71"/>
-      <c r="AY72" s="71"/>
-      <c r="AZ72" s="15"/>
-      <c r="BA72" s="15"/>
-      <c r="BB72" s="15"/>
-      <c r="BC72" s="15"/>
-      <c r="BD72" s="15"/>
-      <c r="BE72" s="15"/>
+      <c r="AR72" s="15"/>
+      <c r="AS72" s="15"/>
+      <c r="AT72" s="15"/>
+      <c r="AU72" s="15"/>
+      <c r="AV72" s="15"/>
+      <c r="AW72" s="15"/>
+      <c r="AX72" s="15"/>
+      <c r="AY72" s="15"/>
+      <c r="AZ72" s="68"/>
+      <c r="BA72" s="68"/>
+      <c r="BB72" s="68"/>
+      <c r="BC72" s="68"/>
+      <c r="BD72" s="68"/>
+      <c r="BE72" s="68"/>
       <c r="BF72" s="68"/>
       <c r="BG72" s="68"/>
-      <c r="BH72" s="92"/>
+      <c r="BH72" s="15"/>
+      <c r="BI72" s="15"/>
+      <c r="BJ72" s="15"/>
+      <c r="BK72" s="15"/>
+      <c r="BL72" s="15"/>
+      <c r="BM72" s="15"/>
+      <c r="BN72" s="67"/>
+      <c r="BO72" s="67"/>
+      <c r="BP72" s="88"/>
     </row>
-    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A73" s="47"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="45" t="s">
+    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A73" s="48"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="D73" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F73" s="46">
-        <v>45979</v>
-      </c>
-      <c r="G73" s="46">
-        <v>45979</v>
+      <c r="F73" s="47">
+        <v>45986</v>
+      </c>
+      <c r="G73" s="47">
+        <v>45986</v>
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
@@ -7782,42 +8054,50 @@
       <c r="AO73" s="15"/>
       <c r="AP73" s="15"/>
       <c r="AQ73" s="15"/>
-      <c r="AR73" s="71"/>
-      <c r="AS73" s="71"/>
-      <c r="AT73" s="71"/>
-      <c r="AU73" s="71"/>
-      <c r="AV73" s="71"/>
-      <c r="AW73" s="71"/>
-      <c r="AX73" s="71"/>
-      <c r="AY73" s="71"/>
-      <c r="AZ73" s="15"/>
-      <c r="BA73" s="15"/>
-      <c r="BB73" s="15"/>
-      <c r="BC73" s="15"/>
-      <c r="BD73" s="15"/>
-      <c r="BE73" s="15"/>
-      <c r="BF73" s="15"/>
-      <c r="BG73" s="15"/>
-      <c r="BH73" s="92"/>
+      <c r="AR73" s="15"/>
+      <c r="AS73" s="15"/>
+      <c r="AT73" s="15"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
+      <c r="AW73" s="15"/>
+      <c r="AX73" s="15"/>
+      <c r="AY73" s="15"/>
+      <c r="AZ73" s="68"/>
+      <c r="BA73" s="68"/>
+      <c r="BB73" s="68"/>
+      <c r="BC73" s="68"/>
+      <c r="BD73" s="68"/>
+      <c r="BE73" s="68"/>
+      <c r="BF73" s="68"/>
+      <c r="BG73" s="68"/>
+      <c r="BH73" s="15"/>
+      <c r="BI73" s="15"/>
+      <c r="BJ73" s="15"/>
+      <c r="BK73" s="15"/>
+      <c r="BL73" s="15"/>
+      <c r="BM73" s="15"/>
+      <c r="BN73" s="15"/>
+      <c r="BO73" s="15"/>
+      <c r="BP73" s="88"/>
     </row>
-    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A74" s="47"/>
-      <c r="B74" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="45" t="s">
+    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A74" s="48"/>
+      <c r="B74" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="C74" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="D74" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="46">
-        <v>45977</v>
-      </c>
-      <c r="G74" s="46">
+      <c r="F74" s="47">
+        <v>45984</v>
+      </c>
+      <c r="G74" s="47">
         <v>45985</v>
       </c>
       <c r="H74" s="15"/>
@@ -7856,41 +8136,49 @@
       <c r="AO74" s="15"/>
       <c r="AP74" s="15"/>
       <c r="AQ74" s="15"/>
-      <c r="AR74" s="71"/>
-      <c r="AS74" s="71"/>
-      <c r="AT74" s="71"/>
-      <c r="AU74" s="71"/>
-      <c r="AV74" s="71"/>
-      <c r="AW74" s="71"/>
-      <c r="AX74" s="71"/>
-      <c r="AY74" s="71"/>
-      <c r="AZ74" s="15"/>
-      <c r="BA74" s="15"/>
-      <c r="BB74" s="15"/>
-      <c r="BC74" s="15"/>
-      <c r="BD74" s="15"/>
-      <c r="BE74" s="15"/>
+      <c r="AR74" s="15"/>
+      <c r="AS74" s="15"/>
+      <c r="AT74" s="15"/>
+      <c r="AU74" s="15"/>
+      <c r="AV74" s="15"/>
+      <c r="AW74" s="15"/>
+      <c r="AX74" s="15"/>
+      <c r="AY74" s="15"/>
+      <c r="AZ74" s="68"/>
+      <c r="BA74" s="68"/>
+      <c r="BB74" s="68"/>
+      <c r="BC74" s="68"/>
+      <c r="BD74" s="68"/>
+      <c r="BE74" s="68"/>
       <c r="BF74" s="68"/>
       <c r="BG74" s="68"/>
-      <c r="BH74" s="91"/>
+      <c r="BH74" s="15"/>
+      <c r="BI74" s="15"/>
+      <c r="BJ74" s="15"/>
+      <c r="BK74" s="15"/>
+      <c r="BL74" s="15"/>
+      <c r="BM74" s="15"/>
+      <c r="BN74" s="67"/>
+      <c r="BO74" s="67"/>
+      <c r="BP74" s="87"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A75" s="47"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="45" t="s">
+    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A75" s="48"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="D75" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="46">
-        <v>45977</v>
-      </c>
-      <c r="G75" s="46">
-        <v>45978</v>
+      <c r="F75" s="47">
+        <v>45984</v>
+      </c>
+      <c r="G75" s="47">
+        <v>45985</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
@@ -7928,41 +8216,49 @@
       <c r="AO75" s="15"/>
       <c r="AP75" s="15"/>
       <c r="AQ75" s="15"/>
-      <c r="AR75" s="71"/>
-      <c r="AS75" s="71"/>
-      <c r="AT75" s="71"/>
-      <c r="AU75" s="71"/>
-      <c r="AV75" s="71"/>
-      <c r="AW75" s="71"/>
-      <c r="AX75" s="71"/>
-      <c r="AY75" s="71"/>
-      <c r="AZ75" s="15"/>
-      <c r="BA75" s="15"/>
-      <c r="BB75" s="15"/>
-      <c r="BC75" s="15"/>
-      <c r="BD75" s="15"/>
-      <c r="BE75" s="15"/>
+      <c r="AR75" s="15"/>
+      <c r="AS75" s="15"/>
+      <c r="AT75" s="15"/>
+      <c r="AU75" s="15"/>
+      <c r="AV75" s="15"/>
+      <c r="AW75" s="15"/>
+      <c r="AX75" s="15"/>
+      <c r="AY75" s="15"/>
+      <c r="AZ75" s="68"/>
+      <c r="BA75" s="68"/>
+      <c r="BB75" s="68"/>
+      <c r="BC75" s="68"/>
+      <c r="BD75" s="68"/>
+      <c r="BE75" s="68"/>
       <c r="BF75" s="68"/>
       <c r="BG75" s="68"/>
-      <c r="BH75" s="91"/>
+      <c r="BH75" s="15"/>
+      <c r="BI75" s="15"/>
+      <c r="BJ75" s="15"/>
+      <c r="BK75" s="15"/>
+      <c r="BL75" s="15"/>
+      <c r="BM75" s="15"/>
+      <c r="BN75" s="67"/>
+      <c r="BO75" s="67"/>
+      <c r="BP75" s="87"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A76" s="47"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="45" t="s">
+    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A76" s="48"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="46">
-        <v>45977</v>
-      </c>
-      <c r="G76" s="46">
-        <v>45978</v>
+      <c r="F76" s="47">
+        <v>45984</v>
+      </c>
+      <c r="G76" s="47">
+        <v>45985</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
@@ -8000,214 +8296,174 @@
       <c r="AO76" s="15"/>
       <c r="AP76" s="15"/>
       <c r="AQ76" s="15"/>
-      <c r="AR76" s="71"/>
-      <c r="AS76" s="71"/>
-      <c r="AT76" s="71"/>
-      <c r="AU76" s="71"/>
-      <c r="AV76" s="71"/>
-      <c r="AW76" s="71"/>
-      <c r="AX76" s="71"/>
-      <c r="AY76" s="71"/>
-      <c r="AZ76" s="15"/>
-      <c r="BA76" s="15"/>
-      <c r="BB76" s="15"/>
-      <c r="BC76" s="15"/>
-      <c r="BD76" s="15"/>
-      <c r="BE76" s="15"/>
+      <c r="AR76" s="15"/>
+      <c r="AS76" s="15"/>
+      <c r="AT76" s="15"/>
+      <c r="AU76" s="15"/>
+      <c r="AV76" s="15"/>
+      <c r="AW76" s="15"/>
+      <c r="AX76" s="15"/>
+      <c r="AY76" s="15"/>
+      <c r="AZ76" s="68"/>
+      <c r="BA76" s="68"/>
+      <c r="BB76" s="68"/>
+      <c r="BC76" s="68"/>
+      <c r="BD76" s="68"/>
+      <c r="BE76" s="68"/>
       <c r="BF76" s="68"/>
       <c r="BG76" s="68"/>
-      <c r="BH76" s="91"/>
+      <c r="BH76" s="15"/>
+      <c r="BI76" s="15"/>
+      <c r="BJ76" s="15"/>
+      <c r="BK76" s="15"/>
+      <c r="BL76" s="15"/>
+      <c r="BM76" s="15"/>
+      <c r="BN76" s="67"/>
+      <c r="BO76" s="67"/>
+      <c r="BP76" s="87"/>
     </row>
-    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
-      <c r="A77" s="81"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="82" t="s">
+    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
+      <c r="A77" s="80"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="83">
-        <v>45977</v>
-      </c>
-      <c r="G77" s="83">
-        <v>45979</v>
-      </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="84"/>
-      <c r="R77" s="84"/>
-      <c r="S77" s="84"/>
-      <c r="T77" s="84"/>
-      <c r="U77" s="84"/>
-      <c r="V77" s="84"/>
-      <c r="W77" s="84"/>
-      <c r="X77" s="84"/>
-      <c r="Y77" s="84"/>
-      <c r="Z77" s="84"/>
-      <c r="AA77" s="84"/>
-      <c r="AB77" s="84"/>
-      <c r="AC77" s="84"/>
-      <c r="AD77" s="84"/>
-      <c r="AE77" s="84"/>
-      <c r="AF77" s="84"/>
-      <c r="AG77" s="84"/>
-      <c r="AH77" s="84"/>
-      <c r="AI77" s="84"/>
-      <c r="AJ77" s="84"/>
-      <c r="AK77" s="84"/>
-      <c r="AL77" s="84"/>
-      <c r="AM77" s="84"/>
-      <c r="AN77" s="84"/>
-      <c r="AO77" s="84"/>
-      <c r="AP77" s="84"/>
-      <c r="AQ77" s="84"/>
-      <c r="AR77" s="90"/>
-      <c r="AS77" s="90"/>
-      <c r="AT77" s="90"/>
-      <c r="AU77" s="90"/>
-      <c r="AV77" s="90"/>
-      <c r="AW77" s="90"/>
-      <c r="AX77" s="90"/>
-      <c r="AY77" s="90"/>
-      <c r="AZ77" s="84"/>
-      <c r="BA77" s="84"/>
-      <c r="BB77" s="84"/>
-      <c r="BC77" s="84"/>
-      <c r="BD77" s="84"/>
-      <c r="BE77" s="84"/>
-      <c r="BF77" s="93"/>
-      <c r="BG77" s="93"/>
-      <c r="BH77" s="94"/>
+      <c r="F77" s="82">
+        <v>45984</v>
+      </c>
+      <c r="G77" s="82">
+        <v>45986</v>
+      </c>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="83"/>
+      <c r="R77" s="83"/>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="U77" s="83"/>
+      <c r="V77" s="83"/>
+      <c r="W77" s="83"/>
+      <c r="X77" s="83"/>
+      <c r="Y77" s="83"/>
+      <c r="Z77" s="83"/>
+      <c r="AA77" s="83"/>
+      <c r="AB77" s="83"/>
+      <c r="AC77" s="83"/>
+      <c r="AD77" s="83"/>
+      <c r="AE77" s="83"/>
+      <c r="AF77" s="83"/>
+      <c r="AG77" s="83"/>
+      <c r="AH77" s="83"/>
+      <c r="AI77" s="83"/>
+      <c r="AJ77" s="83"/>
+      <c r="AK77" s="83"/>
+      <c r="AL77" s="83"/>
+      <c r="AM77" s="83"/>
+      <c r="AN77" s="83"/>
+      <c r="AO77" s="83"/>
+      <c r="AP77" s="83"/>
+      <c r="AQ77" s="83"/>
+      <c r="AR77" s="83"/>
+      <c r="AS77" s="83"/>
+      <c r="AT77" s="83"/>
+      <c r="AU77" s="83"/>
+      <c r="AV77" s="83"/>
+      <c r="AW77" s="83"/>
+      <c r="AX77" s="83"/>
+      <c r="AY77" s="83"/>
+      <c r="AZ77" s="86"/>
+      <c r="BA77" s="86"/>
+      <c r="BB77" s="86"/>
+      <c r="BC77" s="86"/>
+      <c r="BD77" s="86"/>
+      <c r="BE77" s="86"/>
+      <c r="BF77" s="86"/>
+      <c r="BG77" s="86"/>
+      <c r="BH77" s="83"/>
+      <c r="BI77" s="83"/>
+      <c r="BJ77" s="83"/>
+      <c r="BK77" s="83"/>
+      <c r="BL77" s="83"/>
+      <c r="BM77" s="83"/>
+      <c r="BN77" s="89"/>
+      <c r="BO77" s="89"/>
+      <c r="BP77" s="90"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="14.75" spans="1:51">
-      <c r="A78" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="88"/>
-      <c r="M78" s="88"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="88"/>
-      <c r="P78" s="88"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="88"/>
-      <c r="S78" s="88"/>
-      <c r="T78" s="88"/>
-      <c r="U78" s="88"/>
-      <c r="V78" s="88"/>
-      <c r="W78" s="88"/>
-      <c r="X78" s="88"/>
-      <c r="Y78" s="88"/>
-      <c r="Z78" s="88"/>
-      <c r="AA78" s="88"/>
-      <c r="AB78" s="88"/>
-      <c r="AC78" s="88"/>
-      <c r="AD78" s="88"/>
-      <c r="AE78" s="88"/>
-      <c r="AF78" s="88"/>
-      <c r="AG78" s="88"/>
-      <c r="AH78" s="88"/>
-      <c r="AI78" s="88"/>
-      <c r="AJ78" s="88"/>
-      <c r="AK78" s="88"/>
-      <c r="AL78" s="88"/>
-      <c r="AM78" s="88"/>
-      <c r="AN78" s="88"/>
-      <c r="AO78" s="88"/>
-      <c r="AP78" s="88"/>
-      <c r="AQ78" s="88"/>
-      <c r="AR78" s="88"/>
-      <c r="AS78" s="88"/>
-      <c r="AT78" s="88"/>
-      <c r="AU78" s="88"/>
-      <c r="AV78" s="88"/>
-      <c r="AW78" s="88"/>
-      <c r="AX78" s="88"/>
-      <c r="AY78" s="88"/>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="5:51">
-      <c r="E79" s="89"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="88"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="88"/>
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
-      <c r="O79" s="88"/>
-      <c r="P79" s="88"/>
-      <c r="Q79" s="88"/>
-      <c r="R79" s="88"/>
-      <c r="S79" s="88"/>
-      <c r="T79" s="88"/>
-      <c r="U79" s="88"/>
-      <c r="V79" s="88"/>
-      <c r="W79" s="88"/>
-      <c r="X79" s="88"/>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="88"/>
-      <c r="AA79" s="88"/>
-      <c r="AB79" s="88"/>
-      <c r="AC79" s="88"/>
-      <c r="AD79" s="88"/>
-      <c r="AE79" s="88"/>
-      <c r="AF79" s="88"/>
-      <c r="AG79" s="88"/>
-      <c r="AH79" s="88"/>
-      <c r="AI79" s="88"/>
-      <c r="AJ79" s="88"/>
-      <c r="AK79" s="88"/>
-      <c r="AL79" s="88"/>
-      <c r="AM79" s="88"/>
-      <c r="AN79" s="88"/>
-      <c r="AO79" s="88"/>
-      <c r="AP79" s="88"/>
-      <c r="AQ79" s="88"/>
-      <c r="AR79" s="88"/>
-      <c r="AS79" s="88"/>
-      <c r="AT79" s="88"/>
-      <c r="AU79" s="88"/>
-      <c r="AV79" s="88"/>
-      <c r="AW79" s="88"/>
-      <c r="AX79" s="88"/>
-      <c r="AY79" s="88"/>
+    <row r="78" s="2" customFormat="1" spans="5:51">
+      <c r="E78" s="84"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="85"/>
+      <c r="O78" s="85"/>
+      <c r="P78" s="85"/>
+      <c r="Q78" s="85"/>
+      <c r="R78" s="85"/>
+      <c r="S78" s="85"/>
+      <c r="T78" s="85"/>
+      <c r="U78" s="85"/>
+      <c r="V78" s="85"/>
+      <c r="W78" s="85"/>
+      <c r="X78" s="85"/>
+      <c r="Y78" s="85"/>
+      <c r="Z78" s="85"/>
+      <c r="AA78" s="85"/>
+      <c r="AB78" s="85"/>
+      <c r="AC78" s="85"/>
+      <c r="AD78" s="85"/>
+      <c r="AE78" s="85"/>
+      <c r="AF78" s="85"/>
+      <c r="AG78" s="85"/>
+      <c r="AH78" s="85"/>
+      <c r="AI78" s="85"/>
+      <c r="AJ78" s="85"/>
+      <c r="AK78" s="85"/>
+      <c r="AL78" s="85"/>
+      <c r="AM78" s="85"/>
+      <c r="AN78" s="85"/>
+      <c r="AO78" s="85"/>
+      <c r="AP78" s="85"/>
+      <c r="AQ78" s="85"/>
+      <c r="AR78" s="85"/>
+      <c r="AS78" s="85"/>
+      <c r="AT78" s="85"/>
+      <c r="AU78" s="85"/>
+      <c r="AV78" s="85"/>
+      <c r="AW78" s="85"/>
+      <c r="AX78" s="85"/>
+      <c r="AY78" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
     <mergeCell ref="A1:BP1"/>
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A20:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A54"/>
     <mergeCell ref="A55:A65"/>
     <mergeCell ref="A67:A77"/>
     <mergeCell ref="B2:B3"/>
@@ -8215,11 +8471,11 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B20:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B67:B73"/>
@@ -8230,7 +8486,6 @@
     <mergeCell ref="D4:D18"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E18"/>
-    <mergeCell ref="E20:E33"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F18"/>
     <mergeCell ref="G2:G3"/>

--- a/近1-2年已完成的短剧项目清单/海南项目进程表.xlsx
+++ b/近1-2年已完成的短剧项目清单/海南项目进程表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="140">
   <si>
     <t>《 制 片 计 划 》</t>
   </si>
@@ -547,6 +547,9 @@
       </rPr>
       <t>《Sorry, but I'm with Your Dad》</t>
     </r>
+  </si>
+  <si>
+    <t>本剧联合3-5家平台于12月1日左右上线</t>
   </si>
 </sst>
 </file>
@@ -763,21 +766,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,12 +856,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1324,6 +1321,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1459,7 +1493,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1471,119 +1505,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,9 +1816,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1836,7 +1867,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1854,7 +1891,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2171,11 +2208,11 @@
   <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U67" sqref="U67"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2262,7 +2299,7 @@
       <c r="BM1" s="5"/>
       <c r="BN1" s="5"/>
       <c r="BO1" s="5"/>
-      <c r="BP1" s="74"/>
+      <c r="BP1" s="73"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:68">
       <c r="A2" s="6" t="s">
@@ -2466,7 +2503,7 @@
       <c r="BO2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BP2" s="74" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2658,7 +2695,7 @@
       <c r="BO3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="BP3" s="76" t="s">
+      <c r="BP3" s="75" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2728,23 +2765,23 @@
       <c r="AW4" s="36"/>
       <c r="AX4" s="36"/>
       <c r="AY4" s="36"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="73"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="67"/>
+      <c r="BD4" s="67"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="67"/>
+      <c r="BH4" s="67"/>
+      <c r="BI4" s="67"/>
+      <c r="BJ4" s="67"/>
+      <c r="BK4" s="67"/>
+      <c r="BL4" s="67"/>
+      <c r="BM4" s="67"/>
+      <c r="BN4" s="67"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="72"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:68">
       <c r="A5" s="16"/>
@@ -2798,23 +2835,23 @@
       <c r="AW5" s="36"/>
       <c r="AX5" s="36"/>
       <c r="AY5" s="36"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="68"/>
-      <c r="BH5" s="68"/>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="68"/>
-      <c r="BK5" s="68"/>
-      <c r="BL5" s="68"/>
-      <c r="BM5" s="68"/>
-      <c r="BN5" s="68"/>
-      <c r="BO5" s="68"/>
-      <c r="BP5" s="73"/>
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="67"/>
+      <c r="BB5" s="67"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="67"/>
+      <c r="BP5" s="72"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:68">
       <c r="A6" s="16"/>
@@ -2868,23 +2905,23 @@
       <c r="AW6" s="36"/>
       <c r="AX6" s="36"/>
       <c r="AY6" s="36"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="68"/>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="68"/>
-      <c r="BJ6" s="68"/>
-      <c r="BK6" s="68"/>
-      <c r="BL6" s="68"/>
-      <c r="BM6" s="68"/>
-      <c r="BN6" s="68"/>
-      <c r="BO6" s="68"/>
-      <c r="BP6" s="73"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="72"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:68">
       <c r="A7" s="16"/>
@@ -2938,23 +2975,23 @@
       <c r="AW7" s="36"/>
       <c r="AX7" s="36"/>
       <c r="AY7" s="36"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="73"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="72"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:68">
       <c r="A8" s="16"/>
@@ -3008,23 +3045,23 @@
       <c r="AW8" s="36"/>
       <c r="AX8" s="36"/>
       <c r="AY8" s="36"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="68"/>
-      <c r="BO8" s="68"/>
-      <c r="BP8" s="73"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="67"/>
+      <c r="BP8" s="72"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:68">
       <c r="A9" s="21" t="s">
@@ -3082,23 +3119,23 @@
       <c r="AW9" s="36"/>
       <c r="AX9" s="36"/>
       <c r="AY9" s="36"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="68"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="68"/>
-      <c r="BN9" s="68"/>
-      <c r="BO9" s="68"/>
-      <c r="BP9" s="73"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="67"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="67"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="72"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:68">
       <c r="A10" s="23"/>
@@ -3152,23 +3189,23 @@
       <c r="AW10" s="36"/>
       <c r="AX10" s="36"/>
       <c r="AY10" s="36"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="68"/>
-      <c r="BF10" s="68"/>
-      <c r="BG10" s="68"/>
-      <c r="BH10" s="68"/>
-      <c r="BI10" s="68"/>
-      <c r="BJ10" s="68"/>
-      <c r="BK10" s="68"/>
-      <c r="BL10" s="68"/>
-      <c r="BM10" s="68"/>
-      <c r="BN10" s="68"/>
-      <c r="BO10" s="68"/>
-      <c r="BP10" s="73"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="67"/>
+      <c r="BC10" s="67"/>
+      <c r="BD10" s="67"/>
+      <c r="BE10" s="67"/>
+      <c r="BF10" s="67"/>
+      <c r="BG10" s="67"/>
+      <c r="BH10" s="67"/>
+      <c r="BI10" s="67"/>
+      <c r="BJ10" s="67"/>
+      <c r="BK10" s="67"/>
+      <c r="BL10" s="67"/>
+      <c r="BM10" s="67"/>
+      <c r="BN10" s="67"/>
+      <c r="BO10" s="67"/>
+      <c r="BP10" s="72"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:68">
       <c r="A11" s="23"/>
@@ -3222,23 +3259,23 @@
       <c r="AW11" s="36"/>
       <c r="AX11" s="36"/>
       <c r="AY11" s="36"/>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="68"/>
-      <c r="BG11" s="68"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="68"/>
-      <c r="BJ11" s="68"/>
-      <c r="BK11" s="68"/>
-      <c r="BL11" s="68"/>
-      <c r="BM11" s="68"/>
-      <c r="BN11" s="68"/>
-      <c r="BO11" s="68"/>
-      <c r="BP11" s="73"/>
+      <c r="AZ11" s="67"/>
+      <c r="BA11" s="67"/>
+      <c r="BB11" s="67"/>
+      <c r="BC11" s="67"/>
+      <c r="BD11" s="67"/>
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="67"/>
+      <c r="BG11" s="67"/>
+      <c r="BH11" s="67"/>
+      <c r="BI11" s="67"/>
+      <c r="BJ11" s="67"/>
+      <c r="BK11" s="67"/>
+      <c r="BL11" s="67"/>
+      <c r="BM11" s="67"/>
+      <c r="BN11" s="67"/>
+      <c r="BO11" s="67"/>
+      <c r="BP11" s="72"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:68">
       <c r="A12" s="23"/>
@@ -3292,23 +3329,23 @@
       <c r="AW12" s="36"/>
       <c r="AX12" s="36"/>
       <c r="AY12" s="36"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="68"/>
-      <c r="BK12" s="68"/>
-      <c r="BL12" s="68"/>
-      <c r="BM12" s="68"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
-      <c r="BP12" s="73"/>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67"/>
+      <c r="BB12" s="67"/>
+      <c r="BC12" s="67"/>
+      <c r="BD12" s="67"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="67"/>
+      <c r="BG12" s="67"/>
+      <c r="BH12" s="67"/>
+      <c r="BI12" s="67"/>
+      <c r="BJ12" s="67"/>
+      <c r="BK12" s="67"/>
+      <c r="BL12" s="67"/>
+      <c r="BM12" s="67"/>
+      <c r="BN12" s="67"/>
+      <c r="BO12" s="67"/>
+      <c r="BP12" s="72"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:68">
       <c r="A13" s="23"/>
@@ -3362,23 +3399,23 @@
       <c r="AW13" s="36"/>
       <c r="AX13" s="36"/>
       <c r="AY13" s="36"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="68"/>
-      <c r="BK13" s="68"/>
-      <c r="BL13" s="68"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="68"/>
-      <c r="BO13" s="68"/>
-      <c r="BP13" s="73"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="67"/>
+      <c r="BB13" s="67"/>
+      <c r="BC13" s="67"/>
+      <c r="BD13" s="67"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="67"/>
+      <c r="BG13" s="67"/>
+      <c r="BH13" s="67"/>
+      <c r="BI13" s="67"/>
+      <c r="BJ13" s="67"/>
+      <c r="BK13" s="67"/>
+      <c r="BL13" s="67"/>
+      <c r="BM13" s="67"/>
+      <c r="BN13" s="67"/>
+      <c r="BO13" s="67"/>
+      <c r="BP13" s="72"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:68">
       <c r="A14" s="24" t="s">
@@ -3436,23 +3473,23 @@
       <c r="AW14" s="36"/>
       <c r="AX14" s="36"/>
       <c r="AY14" s="36"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="68"/>
-      <c r="BF14" s="68"/>
-      <c r="BG14" s="68"/>
-      <c r="BH14" s="68"/>
-      <c r="BI14" s="68"/>
-      <c r="BJ14" s="68"/>
-      <c r="BK14" s="68"/>
-      <c r="BL14" s="68"/>
-      <c r="BM14" s="68"/>
-      <c r="BN14" s="68"/>
-      <c r="BO14" s="68"/>
-      <c r="BP14" s="73"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="67"/>
+      <c r="BC14" s="67"/>
+      <c r="BD14" s="67"/>
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="67"/>
+      <c r="BH14" s="67"/>
+      <c r="BI14" s="67"/>
+      <c r="BJ14" s="67"/>
+      <c r="BK14" s="67"/>
+      <c r="BL14" s="67"/>
+      <c r="BM14" s="67"/>
+      <c r="BN14" s="67"/>
+      <c r="BO14" s="67"/>
+      <c r="BP14" s="72"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:68">
       <c r="A15" s="26"/>
@@ -3506,23 +3543,23 @@
       <c r="AW15" s="36"/>
       <c r="AX15" s="36"/>
       <c r="AY15" s="36"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
-      <c r="BP15" s="73"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="67"/>
+      <c r="BC15" s="67"/>
+      <c r="BD15" s="67"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="67"/>
+      <c r="BG15" s="67"/>
+      <c r="BH15" s="67"/>
+      <c r="BI15" s="67"/>
+      <c r="BJ15" s="67"/>
+      <c r="BK15" s="67"/>
+      <c r="BL15" s="67"/>
+      <c r="BM15" s="67"/>
+      <c r="BN15" s="67"/>
+      <c r="BO15" s="67"/>
+      <c r="BP15" s="72"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:68">
       <c r="A16" s="26"/>
@@ -3576,23 +3613,23 @@
       <c r="AW16" s="36"/>
       <c r="AX16" s="36"/>
       <c r="AY16" s="36"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
-      <c r="BP16" s="73"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
+      <c r="BD16" s="67"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="67"/>
+      <c r="BI16" s="67"/>
+      <c r="BJ16" s="67"/>
+      <c r="BK16" s="67"/>
+      <c r="BL16" s="67"/>
+      <c r="BM16" s="67"/>
+      <c r="BN16" s="67"/>
+      <c r="BO16" s="67"/>
+      <c r="BP16" s="72"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:68">
       <c r="A17" s="26"/>
@@ -3646,23 +3683,23 @@
       <c r="AW17" s="36"/>
       <c r="AX17" s="36"/>
       <c r="AY17" s="36"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="68"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="68"/>
-      <c r="BK17" s="68"/>
-      <c r="BL17" s="68"/>
-      <c r="BM17" s="68"/>
-      <c r="BN17" s="68"/>
-      <c r="BO17" s="68"/>
-      <c r="BP17" s="73"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+      <c r="BB17" s="67"/>
+      <c r="BC17" s="67"/>
+      <c r="BD17" s="67"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="67"/>
+      <c r="BG17" s="67"/>
+      <c r="BH17" s="67"/>
+      <c r="BI17" s="67"/>
+      <c r="BJ17" s="67"/>
+      <c r="BK17" s="67"/>
+      <c r="BL17" s="67"/>
+      <c r="BM17" s="67"/>
+      <c r="BN17" s="67"/>
+      <c r="BO17" s="67"/>
+      <c r="BP17" s="72"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:68">
       <c r="A18" s="27"/>
@@ -3716,23 +3753,23 @@
       <c r="AW18" s="36"/>
       <c r="AX18" s="36"/>
       <c r="AY18" s="36"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
-      <c r="BP18" s="73"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="67"/>
+      <c r="BH18" s="67"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="67"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="67"/>
+      <c r="BM18" s="67"/>
+      <c r="BN18" s="67"/>
+      <c r="BO18" s="67"/>
+      <c r="BP18" s="72"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:68">
       <c r="A19" s="29" t="s">
@@ -3788,23 +3825,23 @@
       <c r="AW19" s="36"/>
       <c r="AX19" s="36"/>
       <c r="AY19" s="36"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
-      <c r="BP19" s="73"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="72"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:68">
       <c r="A20" s="31" t="s">
@@ -3849,10 +3886,10 @@
       <c r="AB20" s="65"/>
       <c r="AC20" s="65"/>
       <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
       <c r="AK20" s="36"/>
@@ -3870,23 +3907,23 @@
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
       <c r="AY20" s="36"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
-      <c r="BP20" s="73"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
+      <c r="BC20" s="67"/>
+      <c r="BD20" s="67"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="67"/>
+      <c r="BG20" s="67"/>
+      <c r="BH20" s="67"/>
+      <c r="BI20" s="67"/>
+      <c r="BJ20" s="67"/>
+      <c r="BK20" s="67"/>
+      <c r="BL20" s="67"/>
+      <c r="BM20" s="67"/>
+      <c r="BN20" s="67"/>
+      <c r="BO20" s="67"/>
+      <c r="BP20" s="72"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:68">
       <c r="A21" s="31"/>
@@ -3923,12 +3960,12 @@
       <c r="Z21" s="65"/>
       <c r="AA21" s="65"/>
       <c r="AB21" s="65"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
       <c r="AI21" s="36"/>
       <c r="AJ21" s="36"/>
       <c r="AK21" s="36"/>
@@ -3946,23 +3983,23 @@
       <c r="AW21" s="36"/>
       <c r="AX21" s="36"/>
       <c r="AY21" s="36"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
-      <c r="BP21" s="73"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
+      <c r="BC21" s="67"/>
+      <c r="BD21" s="67"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="67"/>
+      <c r="BG21" s="67"/>
+      <c r="BH21" s="67"/>
+      <c r="BI21" s="67"/>
+      <c r="BJ21" s="67"/>
+      <c r="BK21" s="67"/>
+      <c r="BL21" s="67"/>
+      <c r="BM21" s="67"/>
+      <c r="BN21" s="67"/>
+      <c r="BO21" s="67"/>
+      <c r="BP21" s="72"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:68">
       <c r="A22" s="31"/>
@@ -3993,18 +4030,18 @@
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
       <c r="Y22" s="65"/>
       <c r="Z22" s="65"/>
       <c r="AA22" s="65"/>
       <c r="AB22" s="65"/>
       <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="36"/>
@@ -4022,23 +4059,23 @@
       <c r="AW22" s="36"/>
       <c r="AX22" s="36"/>
       <c r="AY22" s="36"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
-      <c r="BO22" s="68"/>
-      <c r="BP22" s="73"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="67"/>
+      <c r="BG22" s="67"/>
+      <c r="BH22" s="67"/>
+      <c r="BI22" s="67"/>
+      <c r="BJ22" s="67"/>
+      <c r="BK22" s="67"/>
+      <c r="BL22" s="67"/>
+      <c r="BM22" s="67"/>
+      <c r="BN22" s="67"/>
+      <c r="BO22" s="67"/>
+      <c r="BP22" s="72"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:68">
       <c r="A23" s="31"/>
@@ -4069,8 +4106,8 @@
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
       <c r="Z23" s="65"/>
       <c r="AA23" s="65"/>
@@ -4098,23 +4135,23 @@
       <c r="AW23" s="36"/>
       <c r="AX23" s="36"/>
       <c r="AY23" s="36"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="68"/>
-      <c r="BC23" s="68"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="68"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="68"/>
-      <c r="BJ23" s="68"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="68"/>
-      <c r="BM23" s="68"/>
-      <c r="BN23" s="68"/>
-      <c r="BO23" s="68"/>
-      <c r="BP23" s="73"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="67"/>
+      <c r="BD23" s="67"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="67"/>
+      <c r="BI23" s="67"/>
+      <c r="BJ23" s="67"/>
+      <c r="BK23" s="67"/>
+      <c r="BL23" s="67"/>
+      <c r="BM23" s="67"/>
+      <c r="BN23" s="67"/>
+      <c r="BO23" s="67"/>
+      <c r="BP23" s="72"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:68">
       <c r="A24" s="31"/>
@@ -4145,8 +4182,8 @@
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
       <c r="AA24" s="65"/>
@@ -4174,23 +4211,23 @@
       <c r="AW24" s="36"/>
       <c r="AX24" s="36"/>
       <c r="AY24" s="36"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="68"/>
-      <c r="BE24" s="68"/>
-      <c r="BF24" s="68"/>
-      <c r="BG24" s="68"/>
-      <c r="BH24" s="68"/>
-      <c r="BI24" s="68"/>
-      <c r="BJ24" s="68"/>
-      <c r="BK24" s="68"/>
-      <c r="BL24" s="68"/>
-      <c r="BM24" s="68"/>
-      <c r="BN24" s="68"/>
-      <c r="BO24" s="68"/>
-      <c r="BP24" s="73"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="67"/>
+      <c r="BD24" s="67"/>
+      <c r="BE24" s="67"/>
+      <c r="BF24" s="67"/>
+      <c r="BG24" s="67"/>
+      <c r="BH24" s="67"/>
+      <c r="BI24" s="67"/>
+      <c r="BJ24" s="67"/>
+      <c r="BK24" s="67"/>
+      <c r="BL24" s="67"/>
+      <c r="BM24" s="67"/>
+      <c r="BN24" s="67"/>
+      <c r="BO24" s="67"/>
+      <c r="BP24" s="72"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:68">
       <c r="A25" s="31"/>
@@ -4221,8 +4258,8 @@
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="65"/>
       <c r="AA25" s="65"/>
@@ -4250,23 +4287,23 @@
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
       <c r="AY25" s="36"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68"/>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="68"/>
-      <c r="BO25" s="68"/>
-      <c r="BP25" s="73"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="67"/>
+      <c r="BK25" s="67"/>
+      <c r="BL25" s="67"/>
+      <c r="BM25" s="67"/>
+      <c r="BN25" s="67"/>
+      <c r="BO25" s="67"/>
+      <c r="BP25" s="72"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:68">
       <c r="A26" s="31"/>
@@ -4297,8 +4334,8 @@
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="65"/>
       <c r="AA26" s="65"/>
@@ -4326,23 +4363,23 @@
       <c r="AW26" s="36"/>
       <c r="AX26" s="36"/>
       <c r="AY26" s="36"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="68"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="68"/>
-      <c r="BG26" s="68"/>
-      <c r="BH26" s="68"/>
-      <c r="BI26" s="68"/>
-      <c r="BJ26" s="68"/>
-      <c r="BK26" s="68"/>
-      <c r="BL26" s="68"/>
-      <c r="BM26" s="68"/>
-      <c r="BN26" s="68"/>
-      <c r="BO26" s="68"/>
-      <c r="BP26" s="73"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="67"/>
+      <c r="BD26" s="67"/>
+      <c r="BE26" s="67"/>
+      <c r="BF26" s="67"/>
+      <c r="BG26" s="67"/>
+      <c r="BH26" s="67"/>
+      <c r="BI26" s="67"/>
+      <c r="BJ26" s="67"/>
+      <c r="BK26" s="67"/>
+      <c r="BL26" s="67"/>
+      <c r="BM26" s="67"/>
+      <c r="BN26" s="67"/>
+      <c r="BO26" s="67"/>
+      <c r="BP26" s="72"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:68">
       <c r="A27" s="31"/>
@@ -4373,8 +4410,8 @@
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
       <c r="Y27" s="65"/>
       <c r="Z27" s="65"/>
       <c r="AA27" s="65"/>
@@ -4402,23 +4439,23 @@
       <c r="AW27" s="36"/>
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
-      <c r="BL27" s="68"/>
-      <c r="BM27" s="68"/>
-      <c r="BN27" s="68"/>
-      <c r="BO27" s="68"/>
-      <c r="BP27" s="73"/>
+      <c r="AZ27" s="67"/>
+      <c r="BA27" s="67"/>
+      <c r="BB27" s="67"/>
+      <c r="BC27" s="67"/>
+      <c r="BD27" s="67"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="67"/>
+      <c r="BG27" s="67"/>
+      <c r="BH27" s="67"/>
+      <c r="BI27" s="67"/>
+      <c r="BJ27" s="67"/>
+      <c r="BK27" s="67"/>
+      <c r="BL27" s="67"/>
+      <c r="BM27" s="67"/>
+      <c r="BN27" s="67"/>
+      <c r="BO27" s="67"/>
+      <c r="BP27" s="72"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:68">
       <c r="A28" s="31"/>
@@ -4457,10 +4494,10 @@
       <c r="AB28" s="65"/>
       <c r="AC28" s="65"/>
       <c r="AD28" s="65"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="36"/>
@@ -4478,23 +4515,23 @@
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="68"/>
-      <c r="BG28" s="68"/>
-      <c r="BH28" s="68"/>
-      <c r="BI28" s="68"/>
-      <c r="BJ28" s="68"/>
-      <c r="BK28" s="68"/>
-      <c r="BL28" s="68"/>
-      <c r="BM28" s="68"/>
-      <c r="BN28" s="68"/>
-      <c r="BO28" s="68"/>
-      <c r="BP28" s="73"/>
+      <c r="AZ28" s="67"/>
+      <c r="BA28" s="67"/>
+      <c r="BB28" s="67"/>
+      <c r="BC28" s="67"/>
+      <c r="BD28" s="67"/>
+      <c r="BE28" s="67"/>
+      <c r="BF28" s="67"/>
+      <c r="BG28" s="67"/>
+      <c r="BH28" s="67"/>
+      <c r="BI28" s="67"/>
+      <c r="BJ28" s="67"/>
+      <c r="BK28" s="67"/>
+      <c r="BL28" s="67"/>
+      <c r="BM28" s="67"/>
+      <c r="BN28" s="67"/>
+      <c r="BO28" s="67"/>
+      <c r="BP28" s="72"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:68">
       <c r="A29" s="31"/>
@@ -4525,18 +4562,18 @@
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
       <c r="AB29" s="65"/>
       <c r="AC29" s="65"/>
       <c r="AD29" s="65"/>
       <c r="AE29" s="65"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="36"/>
@@ -4554,23 +4591,23 @@
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="68"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="68"/>
-      <c r="BI29" s="68"/>
-      <c r="BJ29" s="68"/>
-      <c r="BK29" s="68"/>
-      <c r="BL29" s="68"/>
-      <c r="BM29" s="68"/>
-      <c r="BN29" s="68"/>
-      <c r="BO29" s="68"/>
-      <c r="BP29" s="73"/>
+      <c r="AZ29" s="67"/>
+      <c r="BA29" s="67"/>
+      <c r="BB29" s="67"/>
+      <c r="BC29" s="67"/>
+      <c r="BD29" s="67"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="67"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="67"/>
+      <c r="BI29" s="67"/>
+      <c r="BJ29" s="67"/>
+      <c r="BK29" s="67"/>
+      <c r="BL29" s="67"/>
+      <c r="BM29" s="67"/>
+      <c r="BN29" s="67"/>
+      <c r="BO29" s="67"/>
+      <c r="BP29" s="72"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:68">
       <c r="A30" s="31"/>
@@ -4601,18 +4638,18 @@
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
       <c r="AC30" s="65"/>
       <c r="AD30" s="65"/>
       <c r="AE30" s="65"/>
       <c r="AF30" s="65"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="36"/>
       <c r="AK30" s="36"/>
@@ -4630,23 +4667,23 @@
       <c r="AW30" s="36"/>
       <c r="AX30" s="36"/>
       <c r="AY30" s="36"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="68"/>
-      <c r="BF30" s="68"/>
-      <c r="BG30" s="68"/>
-      <c r="BH30" s="68"/>
-      <c r="BI30" s="68"/>
-      <c r="BJ30" s="68"/>
-      <c r="BK30" s="68"/>
-      <c r="BL30" s="68"/>
-      <c r="BM30" s="68"/>
-      <c r="BN30" s="68"/>
-      <c r="BO30" s="68"/>
-      <c r="BP30" s="73"/>
+      <c r="AZ30" s="67"/>
+      <c r="BA30" s="67"/>
+      <c r="BB30" s="67"/>
+      <c r="BC30" s="67"/>
+      <c r="BD30" s="67"/>
+      <c r="BE30" s="67"/>
+      <c r="BF30" s="67"/>
+      <c r="BG30" s="67"/>
+      <c r="BH30" s="67"/>
+      <c r="BI30" s="67"/>
+      <c r="BJ30" s="67"/>
+      <c r="BK30" s="67"/>
+      <c r="BL30" s="67"/>
+      <c r="BM30" s="67"/>
+      <c r="BN30" s="67"/>
+      <c r="BO30" s="67"/>
+      <c r="BP30" s="72"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:68">
       <c r="A31" s="31"/>
@@ -4677,13 +4714,13 @@
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
       <c r="AD31" s="65"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -4706,23 +4743,23 @@
       <c r="AW31" s="36"/>
       <c r="AX31" s="36"/>
       <c r="AY31" s="36"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="68"/>
-      <c r="BH31" s="68"/>
-      <c r="BI31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BK31" s="68"/>
-      <c r="BL31" s="68"/>
-      <c r="BM31" s="68"/>
-      <c r="BN31" s="68"/>
-      <c r="BO31" s="68"/>
-      <c r="BP31" s="73"/>
+      <c r="AZ31" s="67"/>
+      <c r="BA31" s="67"/>
+      <c r="BB31" s="67"/>
+      <c r="BC31" s="67"/>
+      <c r="BD31" s="67"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="67"/>
+      <c r="BG31" s="67"/>
+      <c r="BH31" s="67"/>
+      <c r="BI31" s="67"/>
+      <c r="BJ31" s="67"/>
+      <c r="BK31" s="67"/>
+      <c r="BL31" s="67"/>
+      <c r="BM31" s="67"/>
+      <c r="BN31" s="67"/>
+      <c r="BO31" s="67"/>
+      <c r="BP31" s="72"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:68">
       <c r="A32" s="31"/>
@@ -4753,18 +4790,18 @@
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
       <c r="AD32" s="65"/>
       <c r="AE32" s="65"/>
       <c r="AF32" s="65"/>
       <c r="AG32" s="65"/>
-      <c r="AH32" s="66"/>
+      <c r="AH32" s="65"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="36"/>
@@ -4782,23 +4819,23 @@
       <c r="AW32" s="36"/>
       <c r="AX32" s="36"/>
       <c r="AY32" s="36"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="68"/>
-      <c r="BH32" s="68"/>
-      <c r="BI32" s="68"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="68"/>
-      <c r="BL32" s="68"/>
-      <c r="BM32" s="68"/>
-      <c r="BN32" s="68"/>
-      <c r="BO32" s="68"/>
-      <c r="BP32" s="73"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="67"/>
+      <c r="BD32" s="67"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="67"/>
+      <c r="BG32" s="67"/>
+      <c r="BH32" s="67"/>
+      <c r="BI32" s="67"/>
+      <c r="BJ32" s="67"/>
+      <c r="BK32" s="67"/>
+      <c r="BL32" s="67"/>
+      <c r="BM32" s="67"/>
+      <c r="BN32" s="67"/>
+      <c r="BO32" s="67"/>
+      <c r="BP32" s="72"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:68">
       <c r="A33" s="31"/>
@@ -4829,18 +4866,18 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
       <c r="AD33" s="65"/>
       <c r="AE33" s="65"/>
       <c r="AF33" s="65"/>
       <c r="AG33" s="65"/>
-      <c r="AH33" s="66"/>
+      <c r="AH33" s="65"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
       <c r="AK33" s="36"/>
@@ -4858,23 +4895,23 @@
       <c r="AW33" s="36"/>
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="68"/>
-      <c r="BH33" s="68"/>
-      <c r="BI33" s="68"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="68"/>
-      <c r="BL33" s="68"/>
-      <c r="BM33" s="68"/>
-      <c r="BN33" s="68"/>
-      <c r="BO33" s="68"/>
-      <c r="BP33" s="73"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="67"/>
+      <c r="BD33" s="67"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="67"/>
+      <c r="BG33" s="67"/>
+      <c r="BH33" s="67"/>
+      <c r="BI33" s="67"/>
+      <c r="BJ33" s="67"/>
+      <c r="BK33" s="67"/>
+      <c r="BL33" s="67"/>
+      <c r="BM33" s="67"/>
+      <c r="BN33" s="67"/>
+      <c r="BO33" s="67"/>
+      <c r="BP33" s="72"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="18" customHeight="1" spans="1:60">
       <c r="A34" s="42" t="s">
@@ -4922,23 +4959,23 @@
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
       <c r="AQ34" s="15"/>
-      <c r="AR34" s="68"/>
-      <c r="AS34" s="68"/>
-      <c r="AT34" s="68"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="73"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="72"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:68">
       <c r="A35" s="45" t="s">
@@ -4989,7 +5026,7 @@
       <c r="AF35" s="36"/>
       <c r="AG35" s="36"/>
       <c r="AH35" s="36"/>
-      <c r="AI35" s="67"/>
+      <c r="AI35" s="66"/>
       <c r="AJ35" s="15"/>
       <c r="AK35" s="15"/>
       <c r="AL35" s="15"/>
@@ -5006,23 +5043,23 @@
       <c r="AW35" s="36"/>
       <c r="AX35" s="36"/>
       <c r="AY35" s="36"/>
-      <c r="AZ35" s="68"/>
-      <c r="BA35" s="68"/>
-      <c r="BB35" s="68"/>
-      <c r="BC35" s="68"/>
-      <c r="BD35" s="68"/>
-      <c r="BE35" s="68"/>
-      <c r="BF35" s="68"/>
-      <c r="BG35" s="68"/>
-      <c r="BH35" s="68"/>
-      <c r="BI35" s="68"/>
-      <c r="BJ35" s="68"/>
-      <c r="BK35" s="68"/>
-      <c r="BL35" s="68"/>
-      <c r="BM35" s="68"/>
-      <c r="BN35" s="68"/>
-      <c r="BO35" s="68"/>
-      <c r="BP35" s="73"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="67"/>
+      <c r="BD35" s="67"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="67"/>
+      <c r="BJ35" s="67"/>
+      <c r="BK35" s="67"/>
+      <c r="BL35" s="67"/>
+      <c r="BM35" s="67"/>
+      <c r="BN35" s="67"/>
+      <c r="BO35" s="67"/>
+      <c r="BP35" s="72"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:68">
       <c r="A36" s="48"/>
@@ -5069,13 +5106,13 @@
       <c r="AF36" s="36"/>
       <c r="AG36" s="36"/>
       <c r="AH36" s="36"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
       <c r="AR36" s="36"/>
@@ -5086,23 +5123,23 @@
       <c r="AW36" s="36"/>
       <c r="AX36" s="36"/>
       <c r="AY36" s="36"/>
-      <c r="AZ36" s="68"/>
-      <c r="BA36" s="68"/>
-      <c r="BB36" s="68"/>
-      <c r="BC36" s="68"/>
-      <c r="BD36" s="68"/>
-      <c r="BE36" s="68"/>
-      <c r="BF36" s="68"/>
-      <c r="BG36" s="68"/>
-      <c r="BH36" s="68"/>
-      <c r="BI36" s="68"/>
-      <c r="BJ36" s="68"/>
-      <c r="BK36" s="68"/>
-      <c r="BL36" s="68"/>
-      <c r="BM36" s="68"/>
-      <c r="BN36" s="68"/>
-      <c r="BO36" s="68"/>
-      <c r="BP36" s="73"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="67"/>
+      <c r="BK36" s="67"/>
+      <c r="BL36" s="67"/>
+      <c r="BM36" s="67"/>
+      <c r="BN36" s="67"/>
+      <c r="BO36" s="67"/>
+      <c r="BP36" s="72"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:68">
       <c r="A37" s="48"/>
@@ -5155,7 +5192,7 @@
       <c r="AL37" s="36"/>
       <c r="AM37" s="36"/>
       <c r="AN37" s="36"/>
-      <c r="AO37" s="67"/>
+      <c r="AO37" s="66"/>
       <c r="AP37" s="36"/>
       <c r="AQ37" s="36"/>
       <c r="AR37" s="36"/>
@@ -5166,23 +5203,23 @@
       <c r="AW37" s="36"/>
       <c r="AX37" s="36"/>
       <c r="AY37" s="36"/>
-      <c r="AZ37" s="68"/>
-      <c r="BA37" s="68"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="68"/>
-      <c r="BD37" s="68"/>
-      <c r="BE37" s="68"/>
-      <c r="BF37" s="68"/>
-      <c r="BG37" s="68"/>
-      <c r="BH37" s="68"/>
-      <c r="BI37" s="68"/>
-      <c r="BJ37" s="68"/>
-      <c r="BK37" s="68"/>
-      <c r="BL37" s="68"/>
-      <c r="BM37" s="68"/>
-      <c r="BN37" s="68"/>
-      <c r="BO37" s="68"/>
-      <c r="BP37" s="73"/>
+      <c r="AZ37" s="67"/>
+      <c r="BA37" s="67"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="67"/>
+      <c r="BD37" s="67"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="67"/>
+      <c r="BG37" s="67"/>
+      <c r="BH37" s="67"/>
+      <c r="BI37" s="67"/>
+      <c r="BJ37" s="67"/>
+      <c r="BK37" s="67"/>
+      <c r="BL37" s="67"/>
+      <c r="BM37" s="67"/>
+      <c r="BN37" s="67"/>
+      <c r="BO37" s="67"/>
+      <c r="BP37" s="72"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:68">
       <c r="A38" s="49" t="s">
@@ -5242,7 +5279,7 @@
       <c r="AO38" s="15"/>
       <c r="AP38" s="36"/>
       <c r="AQ38" s="36"/>
-      <c r="AR38" s="69"/>
+      <c r="AR38" s="68"/>
       <c r="AS38" s="15"/>
       <c r="AT38" s="15"/>
       <c r="AU38" s="15"/>
@@ -5250,23 +5287,23 @@
       <c r="AW38" s="15"/>
       <c r="AX38" s="15"/>
       <c r="AY38" s="15"/>
-      <c r="AZ38" s="68"/>
-      <c r="BA38" s="68"/>
-      <c r="BB38" s="68"/>
-      <c r="BC38" s="68"/>
-      <c r="BD38" s="68"/>
-      <c r="BE38" s="68"/>
-      <c r="BF38" s="68"/>
-      <c r="BG38" s="68"/>
-      <c r="BH38" s="68"/>
-      <c r="BI38" s="68"/>
-      <c r="BJ38" s="68"/>
-      <c r="BK38" s="68"/>
-      <c r="BL38" s="68"/>
-      <c r="BM38" s="68"/>
-      <c r="BN38" s="68"/>
-      <c r="BO38" s="68"/>
-      <c r="BP38" s="73"/>
+      <c r="AZ38" s="67"/>
+      <c r="BA38" s="67"/>
+      <c r="BB38" s="67"/>
+      <c r="BC38" s="67"/>
+      <c r="BD38" s="67"/>
+      <c r="BE38" s="67"/>
+      <c r="BF38" s="67"/>
+      <c r="BG38" s="67"/>
+      <c r="BH38" s="67"/>
+      <c r="BI38" s="67"/>
+      <c r="BJ38" s="67"/>
+      <c r="BK38" s="67"/>
+      <c r="BL38" s="67"/>
+      <c r="BM38" s="67"/>
+      <c r="BN38" s="67"/>
+      <c r="BO38" s="67"/>
+      <c r="BP38" s="72"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:68">
       <c r="A39" s="52"/>
@@ -5322,31 +5359,31 @@
       <c r="AO39" s="15"/>
       <c r="AP39" s="36"/>
       <c r="AQ39" s="36"/>
-      <c r="AR39" s="69"/>
-      <c r="AS39" s="69"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
-      <c r="AW39" s="69"/>
-      <c r="AX39" s="69"/>
+      <c r="AR39" s="68"/>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="68"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
       <c r="AY39" s="15"/>
-      <c r="AZ39" s="68"/>
-      <c r="BA39" s="68"/>
-      <c r="BB39" s="68"/>
-      <c r="BC39" s="68"/>
-      <c r="BD39" s="68"/>
-      <c r="BE39" s="68"/>
-      <c r="BF39" s="68"/>
-      <c r="BG39" s="68"/>
-      <c r="BH39" s="68"/>
-      <c r="BI39" s="68"/>
-      <c r="BJ39" s="68"/>
-      <c r="BK39" s="68"/>
-      <c r="BL39" s="68"/>
-      <c r="BM39" s="68"/>
-      <c r="BN39" s="68"/>
-      <c r="BO39" s="68"/>
-      <c r="BP39" s="73"/>
+      <c r="AZ39" s="67"/>
+      <c r="BA39" s="67"/>
+      <c r="BB39" s="67"/>
+      <c r="BC39" s="67"/>
+      <c r="BD39" s="67"/>
+      <c r="BE39" s="67"/>
+      <c r="BF39" s="67"/>
+      <c r="BG39" s="67"/>
+      <c r="BH39" s="67"/>
+      <c r="BI39" s="67"/>
+      <c r="BJ39" s="67"/>
+      <c r="BK39" s="67"/>
+      <c r="BL39" s="67"/>
+      <c r="BM39" s="67"/>
+      <c r="BN39" s="67"/>
+      <c r="BO39" s="67"/>
+      <c r="BP39" s="72"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:68">
       <c r="A40" s="52"/>
@@ -5408,25 +5445,25 @@
       <c r="AU40" s="15"/>
       <c r="AV40" s="15"/>
       <c r="AW40" s="15"/>
-      <c r="AX40" s="69"/>
+      <c r="AX40" s="68"/>
       <c r="AY40" s="15"/>
-      <c r="AZ40" s="68"/>
-      <c r="BA40" s="68"/>
-      <c r="BB40" s="68"/>
-      <c r="BC40" s="68"/>
-      <c r="BD40" s="68"/>
-      <c r="BE40" s="68"/>
-      <c r="BF40" s="68"/>
-      <c r="BG40" s="68"/>
-      <c r="BH40" s="68"/>
-      <c r="BI40" s="68"/>
-      <c r="BJ40" s="68"/>
-      <c r="BK40" s="68"/>
-      <c r="BL40" s="68"/>
-      <c r="BM40" s="68"/>
-      <c r="BN40" s="68"/>
-      <c r="BO40" s="68"/>
-      <c r="BP40" s="73"/>
+      <c r="AZ40" s="67"/>
+      <c r="BA40" s="67"/>
+      <c r="BB40" s="67"/>
+      <c r="BC40" s="67"/>
+      <c r="BD40" s="67"/>
+      <c r="BE40" s="67"/>
+      <c r="BF40" s="67"/>
+      <c r="BG40" s="67"/>
+      <c r="BH40" s="67"/>
+      <c r="BI40" s="67"/>
+      <c r="BJ40" s="67"/>
+      <c r="BK40" s="67"/>
+      <c r="BL40" s="67"/>
+      <c r="BM40" s="67"/>
+      <c r="BN40" s="67"/>
+      <c r="BO40" s="67"/>
+      <c r="BP40" s="72"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:68">
       <c r="A41" s="53" t="s">
@@ -5494,23 +5531,23 @@
       <c r="AW41" s="15"/>
       <c r="AX41" s="15"/>
       <c r="AY41" s="15"/>
-      <c r="AZ41" s="68"/>
-      <c r="BA41" s="71"/>
-      <c r="BB41" s="68"/>
-      <c r="BC41" s="68"/>
-      <c r="BD41" s="68"/>
-      <c r="BE41" s="68"/>
-      <c r="BF41" s="68"/>
-      <c r="BG41" s="68"/>
-      <c r="BH41" s="68"/>
-      <c r="BI41" s="68"/>
-      <c r="BJ41" s="68"/>
-      <c r="BK41" s="68"/>
-      <c r="BL41" s="68"/>
-      <c r="BM41" s="68"/>
-      <c r="BN41" s="68"/>
-      <c r="BO41" s="68"/>
-      <c r="BP41" s="73"/>
+      <c r="AZ41" s="67"/>
+      <c r="BA41" s="70"/>
+      <c r="BB41" s="67"/>
+      <c r="BC41" s="67"/>
+      <c r="BD41" s="67"/>
+      <c r="BE41" s="67"/>
+      <c r="BF41" s="67"/>
+      <c r="BG41" s="67"/>
+      <c r="BH41" s="67"/>
+      <c r="BI41" s="67"/>
+      <c r="BJ41" s="67"/>
+      <c r="BK41" s="67"/>
+      <c r="BL41" s="67"/>
+      <c r="BM41" s="67"/>
+      <c r="BN41" s="67"/>
+      <c r="BO41" s="67"/>
+      <c r="BP41" s="72"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:68">
       <c r="A42" s="56"/>
@@ -5574,23 +5611,23 @@
       <c r="AW42" s="15"/>
       <c r="AX42" s="15"/>
       <c r="AY42" s="15"/>
-      <c r="AZ42" s="68"/>
-      <c r="BA42" s="71"/>
-      <c r="BB42" s="71"/>
-      <c r="BC42" s="71"/>
-      <c r="BD42" s="71"/>
-      <c r="BE42" s="71"/>
-      <c r="BF42" s="71"/>
-      <c r="BG42" s="71"/>
-      <c r="BH42" s="68"/>
-      <c r="BI42" s="68"/>
-      <c r="BJ42" s="68"/>
-      <c r="BK42" s="68"/>
-      <c r="BL42" s="68"/>
-      <c r="BM42" s="68"/>
-      <c r="BN42" s="68"/>
-      <c r="BO42" s="68"/>
-      <c r="BP42" s="73"/>
+      <c r="AZ42" s="67"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="70"/>
+      <c r="BF42" s="70"/>
+      <c r="BG42" s="70"/>
+      <c r="BH42" s="67"/>
+      <c r="BI42" s="67"/>
+      <c r="BJ42" s="67"/>
+      <c r="BK42" s="67"/>
+      <c r="BL42" s="67"/>
+      <c r="BM42" s="67"/>
+      <c r="BN42" s="67"/>
+      <c r="BO42" s="67"/>
+      <c r="BP42" s="72"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:68">
       <c r="A43" s="56"/>
@@ -5654,23 +5691,23 @@
       <c r="AW43" s="15"/>
       <c r="AX43" s="15"/>
       <c r="AY43" s="15"/>
-      <c r="AZ43" s="68"/>
-      <c r="BA43" s="68"/>
-      <c r="BB43" s="68"/>
-      <c r="BC43" s="68"/>
-      <c r="BD43" s="68"/>
-      <c r="BE43" s="68"/>
-      <c r="BF43" s="68"/>
-      <c r="BG43" s="71"/>
-      <c r="BH43" s="68"/>
-      <c r="BI43" s="68"/>
-      <c r="BJ43" s="68"/>
-      <c r="BK43" s="68"/>
-      <c r="BL43" s="68"/>
-      <c r="BM43" s="68"/>
-      <c r="BN43" s="68"/>
-      <c r="BO43" s="68"/>
-      <c r="BP43" s="73"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
+      <c r="BB43" s="67"/>
+      <c r="BC43" s="67"/>
+      <c r="BD43" s="67"/>
+      <c r="BE43" s="67"/>
+      <c r="BF43" s="67"/>
+      <c r="BG43" s="70"/>
+      <c r="BH43" s="67"/>
+      <c r="BI43" s="67"/>
+      <c r="BJ43" s="67"/>
+      <c r="BK43" s="67"/>
+      <c r="BL43" s="67"/>
+      <c r="BM43" s="67"/>
+      <c r="BN43" s="67"/>
+      <c r="BO43" s="67"/>
+      <c r="BP43" s="72"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A44" s="57" t="s">
@@ -5728,9 +5765,9 @@
       <c r="AM44" s="15"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="15"/>
-      <c r="AP44" s="70"/>
-      <c r="AQ44" s="70"/>
-      <c r="AR44" s="70"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="69"/>
       <c r="AS44" s="15"/>
       <c r="AT44" s="15"/>
       <c r="AU44" s="15"/>
@@ -5738,23 +5775,23 @@
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
       <c r="AY44" s="15"/>
-      <c r="AZ44" s="68"/>
-      <c r="BA44" s="68"/>
-      <c r="BB44" s="68"/>
-      <c r="BC44" s="68"/>
-      <c r="BD44" s="68"/>
-      <c r="BE44" s="68"/>
-      <c r="BF44" s="68"/>
-      <c r="BG44" s="68"/>
-      <c r="BH44" s="68"/>
-      <c r="BI44" s="68"/>
-      <c r="BJ44" s="68"/>
-      <c r="BK44" s="68"/>
-      <c r="BL44" s="68"/>
-      <c r="BM44" s="68"/>
-      <c r="BN44" s="68"/>
-      <c r="BO44" s="68"/>
-      <c r="BP44" s="73"/>
+      <c r="AZ44" s="67"/>
+      <c r="BA44" s="67"/>
+      <c r="BB44" s="67"/>
+      <c r="BC44" s="67"/>
+      <c r="BD44" s="67"/>
+      <c r="BE44" s="67"/>
+      <c r="BF44" s="67"/>
+      <c r="BG44" s="67"/>
+      <c r="BH44" s="67"/>
+      <c r="BI44" s="67"/>
+      <c r="BJ44" s="67"/>
+      <c r="BK44" s="67"/>
+      <c r="BL44" s="67"/>
+      <c r="BM44" s="67"/>
+      <c r="BN44" s="67"/>
+      <c r="BO44" s="67"/>
+      <c r="BP44" s="72"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A45" s="60"/>
@@ -5810,31 +5847,31 @@
       <c r="AO45" s="15"/>
       <c r="AP45" s="15"/>
       <c r="AQ45" s="15"/>
-      <c r="AR45" s="70"/>
-      <c r="AS45" s="70"/>
-      <c r="AT45" s="70"/>
+      <c r="AR45" s="69"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
       <c r="AU45" s="15"/>
       <c r="AV45" s="15"/>
       <c r="AW45" s="15"/>
       <c r="AX45" s="15"/>
       <c r="AY45" s="15"/>
-      <c r="AZ45" s="68"/>
-      <c r="BA45" s="68"/>
-      <c r="BB45" s="68"/>
-      <c r="BC45" s="68"/>
-      <c r="BD45" s="68"/>
-      <c r="BE45" s="68"/>
-      <c r="BF45" s="68"/>
-      <c r="BG45" s="68"/>
-      <c r="BH45" s="68"/>
-      <c r="BI45" s="68"/>
-      <c r="BJ45" s="68"/>
-      <c r="BK45" s="68"/>
-      <c r="BL45" s="68"/>
-      <c r="BM45" s="68"/>
-      <c r="BN45" s="68"/>
-      <c r="BO45" s="68"/>
-      <c r="BP45" s="73"/>
+      <c r="AZ45" s="67"/>
+      <c r="BA45" s="67"/>
+      <c r="BB45" s="67"/>
+      <c r="BC45" s="67"/>
+      <c r="BD45" s="67"/>
+      <c r="BE45" s="67"/>
+      <c r="BF45" s="67"/>
+      <c r="BG45" s="67"/>
+      <c r="BH45" s="67"/>
+      <c r="BI45" s="67"/>
+      <c r="BJ45" s="67"/>
+      <c r="BK45" s="67"/>
+      <c r="BL45" s="67"/>
+      <c r="BM45" s="67"/>
+      <c r="BN45" s="67"/>
+      <c r="BO45" s="67"/>
+      <c r="BP45" s="72"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A46" s="60"/>
@@ -5893,28 +5930,28 @@
       <c r="AR46" s="15"/>
       <c r="AS46" s="15"/>
       <c r="AT46" s="15"/>
-      <c r="AU46" s="70"/>
-      <c r="AV46" s="70"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="15"/>
       <c r="AY46" s="15"/>
-      <c r="AZ46" s="68"/>
-      <c r="BA46" s="68"/>
-      <c r="BB46" s="68"/>
-      <c r="BC46" s="68"/>
-      <c r="BD46" s="68"/>
-      <c r="BE46" s="68"/>
-      <c r="BF46" s="68"/>
-      <c r="BG46" s="68"/>
-      <c r="BH46" s="68"/>
-      <c r="BI46" s="68"/>
-      <c r="BJ46" s="68"/>
-      <c r="BK46" s="68"/>
-      <c r="BL46" s="68"/>
-      <c r="BM46" s="68"/>
-      <c r="BN46" s="68"/>
-      <c r="BO46" s="68"/>
-      <c r="BP46" s="73"/>
+      <c r="AZ46" s="67"/>
+      <c r="BA46" s="67"/>
+      <c r="BB46" s="67"/>
+      <c r="BC46" s="67"/>
+      <c r="BD46" s="67"/>
+      <c r="BE46" s="67"/>
+      <c r="BF46" s="67"/>
+      <c r="BG46" s="67"/>
+      <c r="BH46" s="67"/>
+      <c r="BI46" s="67"/>
+      <c r="BJ46" s="67"/>
+      <c r="BK46" s="67"/>
+      <c r="BL46" s="67"/>
+      <c r="BM46" s="67"/>
+      <c r="BN46" s="67"/>
+      <c r="BO46" s="67"/>
+      <c r="BP46" s="72"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A47" s="60"/>
@@ -5974,27 +6011,27 @@
       <c r="AS47" s="15"/>
       <c r="AT47" s="15"/>
       <c r="AU47" s="15"/>
-      <c r="AV47" s="70"/>
+      <c r="AV47" s="69"/>
       <c r="AW47" s="15"/>
       <c r="AX47" s="15"/>
       <c r="AY47" s="15"/>
-      <c r="AZ47" s="68"/>
-      <c r="BA47" s="68"/>
-      <c r="BB47" s="68"/>
-      <c r="BC47" s="68"/>
-      <c r="BD47" s="68"/>
-      <c r="BE47" s="68"/>
-      <c r="BF47" s="68"/>
-      <c r="BG47" s="68"/>
-      <c r="BH47" s="68"/>
-      <c r="BI47" s="68"/>
-      <c r="BJ47" s="68"/>
-      <c r="BK47" s="68"/>
-      <c r="BL47" s="68"/>
-      <c r="BM47" s="68"/>
-      <c r="BN47" s="68"/>
-      <c r="BO47" s="68"/>
-      <c r="BP47" s="73"/>
+      <c r="AZ47" s="67"/>
+      <c r="BA47" s="67"/>
+      <c r="BB47" s="67"/>
+      <c r="BC47" s="67"/>
+      <c r="BD47" s="67"/>
+      <c r="BE47" s="67"/>
+      <c r="BF47" s="67"/>
+      <c r="BG47" s="67"/>
+      <c r="BH47" s="67"/>
+      <c r="BI47" s="67"/>
+      <c r="BJ47" s="67"/>
+      <c r="BK47" s="67"/>
+      <c r="BL47" s="67"/>
+      <c r="BM47" s="67"/>
+      <c r="BN47" s="67"/>
+      <c r="BO47" s="67"/>
+      <c r="BP47" s="72"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A48" s="60"/>
@@ -6054,27 +6091,27 @@
       <c r="AS48" s="15"/>
       <c r="AT48" s="15"/>
       <c r="AU48" s="15"/>
-      <c r="AV48" s="70"/>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
+      <c r="AV48" s="69"/>
+      <c r="AW48" s="69"/>
+      <c r="AX48" s="69"/>
       <c r="AY48" s="15"/>
-      <c r="AZ48" s="68"/>
-      <c r="BA48" s="68"/>
-      <c r="BB48" s="68"/>
-      <c r="BC48" s="68"/>
-      <c r="BD48" s="68"/>
-      <c r="BE48" s="68"/>
-      <c r="BF48" s="68"/>
-      <c r="BG48" s="68"/>
-      <c r="BH48" s="68"/>
-      <c r="BI48" s="68"/>
-      <c r="BJ48" s="68"/>
-      <c r="BK48" s="68"/>
-      <c r="BL48" s="68"/>
-      <c r="BM48" s="68"/>
-      <c r="BN48" s="68"/>
-      <c r="BO48" s="68"/>
-      <c r="BP48" s="73"/>
+      <c r="AZ48" s="67"/>
+      <c r="BA48" s="67"/>
+      <c r="BB48" s="67"/>
+      <c r="BC48" s="67"/>
+      <c r="BD48" s="67"/>
+      <c r="BE48" s="67"/>
+      <c r="BF48" s="67"/>
+      <c r="BG48" s="67"/>
+      <c r="BH48" s="67"/>
+      <c r="BI48" s="67"/>
+      <c r="BJ48" s="67"/>
+      <c r="BK48" s="67"/>
+      <c r="BL48" s="67"/>
+      <c r="BM48" s="67"/>
+      <c r="BN48" s="67"/>
+      <c r="BO48" s="67"/>
+      <c r="BP48" s="72"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A49" s="60"/>
@@ -6134,27 +6171,27 @@
       <c r="AS49" s="15"/>
       <c r="AT49" s="15"/>
       <c r="AU49" s="15"/>
-      <c r="AV49" s="70"/>
-      <c r="AW49" s="70"/>
-      <c r="AX49" s="70"/>
+      <c r="AV49" s="69"/>
+      <c r="AW49" s="69"/>
+      <c r="AX49" s="69"/>
       <c r="AY49" s="15"/>
-      <c r="AZ49" s="68"/>
-      <c r="BA49" s="68"/>
-      <c r="BB49" s="68"/>
-      <c r="BC49" s="68"/>
-      <c r="BD49" s="68"/>
-      <c r="BE49" s="68"/>
-      <c r="BF49" s="68"/>
-      <c r="BG49" s="68"/>
-      <c r="BH49" s="68"/>
-      <c r="BI49" s="68"/>
-      <c r="BJ49" s="68"/>
-      <c r="BK49" s="68"/>
-      <c r="BL49" s="68"/>
-      <c r="BM49" s="68"/>
-      <c r="BN49" s="68"/>
-      <c r="BO49" s="68"/>
-      <c r="BP49" s="73"/>
+      <c r="AZ49" s="67"/>
+      <c r="BA49" s="67"/>
+      <c r="BB49" s="67"/>
+      <c r="BC49" s="67"/>
+      <c r="BD49" s="67"/>
+      <c r="BE49" s="67"/>
+      <c r="BF49" s="67"/>
+      <c r="BG49" s="67"/>
+      <c r="BH49" s="67"/>
+      <c r="BI49" s="67"/>
+      <c r="BJ49" s="67"/>
+      <c r="BK49" s="67"/>
+      <c r="BL49" s="67"/>
+      <c r="BM49" s="67"/>
+      <c r="BN49" s="67"/>
+      <c r="BO49" s="67"/>
+      <c r="BP49" s="72"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A50" s="60"/>
@@ -6216,25 +6253,25 @@
       <c r="AU50" s="15"/>
       <c r="AV50" s="15"/>
       <c r="AW50" s="15"/>
-      <c r="AX50" s="70"/>
+      <c r="AX50" s="69"/>
       <c r="AY50" s="15"/>
-      <c r="AZ50" s="68"/>
-      <c r="BA50" s="68"/>
-      <c r="BB50" s="68"/>
-      <c r="BC50" s="68"/>
-      <c r="BD50" s="68"/>
-      <c r="BE50" s="68"/>
-      <c r="BF50" s="68"/>
-      <c r="BG50" s="68"/>
-      <c r="BH50" s="68"/>
-      <c r="BI50" s="68"/>
-      <c r="BJ50" s="68"/>
-      <c r="BK50" s="68"/>
-      <c r="BL50" s="68"/>
-      <c r="BM50" s="68"/>
-      <c r="BN50" s="68"/>
-      <c r="BO50" s="68"/>
-      <c r="BP50" s="73"/>
+      <c r="AZ50" s="67"/>
+      <c r="BA50" s="67"/>
+      <c r="BB50" s="67"/>
+      <c r="BC50" s="67"/>
+      <c r="BD50" s="67"/>
+      <c r="BE50" s="67"/>
+      <c r="BF50" s="67"/>
+      <c r="BG50" s="67"/>
+      <c r="BH50" s="67"/>
+      <c r="BI50" s="67"/>
+      <c r="BJ50" s="67"/>
+      <c r="BK50" s="67"/>
+      <c r="BL50" s="67"/>
+      <c r="BM50" s="67"/>
+      <c r="BN50" s="67"/>
+      <c r="BO50" s="67"/>
+      <c r="BP50" s="72"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A51" s="60"/>
@@ -6296,27 +6333,27 @@
       <c r="AS51" s="15"/>
       <c r="AT51" s="15"/>
       <c r="AU51" s="15"/>
-      <c r="AV51" s="70"/>
-      <c r="AW51" s="70"/>
+      <c r="AV51" s="69"/>
+      <c r="AW51" s="69"/>
       <c r="AX51" s="15"/>
       <c r="AY51" s="15"/>
-      <c r="AZ51" s="68"/>
-      <c r="BA51" s="68"/>
-      <c r="BB51" s="68"/>
-      <c r="BC51" s="68"/>
-      <c r="BD51" s="68"/>
-      <c r="BE51" s="68"/>
-      <c r="BF51" s="68"/>
-      <c r="BG51" s="68"/>
-      <c r="BH51" s="68"/>
-      <c r="BI51" s="68"/>
-      <c r="BJ51" s="68"/>
-      <c r="BK51" s="68"/>
-      <c r="BL51" s="68"/>
-      <c r="BM51" s="68"/>
-      <c r="BN51" s="68"/>
-      <c r="BO51" s="68"/>
-      <c r="BP51" s="73"/>
+      <c r="AZ51" s="67"/>
+      <c r="BA51" s="67"/>
+      <c r="BB51" s="67"/>
+      <c r="BC51" s="67"/>
+      <c r="BD51" s="67"/>
+      <c r="BE51" s="67"/>
+      <c r="BF51" s="67"/>
+      <c r="BG51" s="67"/>
+      <c r="BH51" s="67"/>
+      <c r="BI51" s="67"/>
+      <c r="BJ51" s="67"/>
+      <c r="BK51" s="67"/>
+      <c r="BL51" s="67"/>
+      <c r="BM51" s="67"/>
+      <c r="BN51" s="67"/>
+      <c r="BO51" s="67"/>
+      <c r="BP51" s="72"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A52" s="60"/>
@@ -6376,27 +6413,27 @@
       <c r="AS52" s="15"/>
       <c r="AT52" s="15"/>
       <c r="AU52" s="15"/>
-      <c r="AV52" s="70"/>
-      <c r="AW52" s="70"/>
+      <c r="AV52" s="69"/>
+      <c r="AW52" s="69"/>
       <c r="AX52" s="15"/>
       <c r="AY52" s="15"/>
-      <c r="AZ52" s="68"/>
-      <c r="BA52" s="68"/>
-      <c r="BB52" s="68"/>
-      <c r="BC52" s="68"/>
-      <c r="BD52" s="68"/>
-      <c r="BE52" s="68"/>
-      <c r="BF52" s="68"/>
-      <c r="BG52" s="68"/>
-      <c r="BH52" s="68"/>
-      <c r="BI52" s="68"/>
-      <c r="BJ52" s="68"/>
-      <c r="BK52" s="68"/>
-      <c r="BL52" s="68"/>
-      <c r="BM52" s="68"/>
-      <c r="BN52" s="68"/>
-      <c r="BO52" s="68"/>
-      <c r="BP52" s="73"/>
+      <c r="AZ52" s="67"/>
+      <c r="BA52" s="67"/>
+      <c r="BB52" s="67"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="67"/>
+      <c r="BE52" s="67"/>
+      <c r="BF52" s="67"/>
+      <c r="BG52" s="67"/>
+      <c r="BH52" s="67"/>
+      <c r="BI52" s="67"/>
+      <c r="BJ52" s="67"/>
+      <c r="BK52" s="67"/>
+      <c r="BL52" s="67"/>
+      <c r="BM52" s="67"/>
+      <c r="BN52" s="67"/>
+      <c r="BO52" s="67"/>
+      <c r="BP52" s="72"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A53" s="60"/>
@@ -6456,27 +6493,27 @@
       <c r="AS53" s="15"/>
       <c r="AT53" s="15"/>
       <c r="AU53" s="15"/>
-      <c r="AV53" s="70"/>
-      <c r="AW53" s="70"/>
+      <c r="AV53" s="69"/>
+      <c r="AW53" s="69"/>
       <c r="AX53" s="15"/>
       <c r="AY53" s="15"/>
-      <c r="AZ53" s="68"/>
-      <c r="BA53" s="68"/>
-      <c r="BB53" s="68"/>
-      <c r="BC53" s="68"/>
-      <c r="BD53" s="68"/>
-      <c r="BE53" s="68"/>
-      <c r="BF53" s="68"/>
-      <c r="BG53" s="68"/>
-      <c r="BH53" s="68"/>
-      <c r="BI53" s="68"/>
-      <c r="BJ53" s="68"/>
-      <c r="BK53" s="68"/>
-      <c r="BL53" s="68"/>
-      <c r="BM53" s="68"/>
-      <c r="BN53" s="68"/>
-      <c r="BO53" s="68"/>
-      <c r="BP53" s="73"/>
+      <c r="AZ53" s="67"/>
+      <c r="BA53" s="67"/>
+      <c r="BB53" s="67"/>
+      <c r="BC53" s="67"/>
+      <c r="BD53" s="67"/>
+      <c r="BE53" s="67"/>
+      <c r="BF53" s="67"/>
+      <c r="BG53" s="67"/>
+      <c r="BH53" s="67"/>
+      <c r="BI53" s="67"/>
+      <c r="BJ53" s="67"/>
+      <c r="BK53" s="67"/>
+      <c r="BL53" s="67"/>
+      <c r="BM53" s="67"/>
+      <c r="BN53" s="67"/>
+      <c r="BO53" s="67"/>
+      <c r="BP53" s="72"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A54" s="60"/>
@@ -6536,27 +6573,27 @@
       <c r="AS54" s="15"/>
       <c r="AT54" s="15"/>
       <c r="AU54" s="15"/>
-      <c r="AV54" s="70"/>
-      <c r="AW54" s="70"/>
-      <c r="AX54" s="70"/>
+      <c r="AV54" s="69"/>
+      <c r="AW54" s="69"/>
+      <c r="AX54" s="69"/>
       <c r="AY54" s="15"/>
-      <c r="AZ54" s="68"/>
-      <c r="BA54" s="68"/>
-      <c r="BB54" s="68"/>
-      <c r="BC54" s="68"/>
-      <c r="BD54" s="68"/>
-      <c r="BE54" s="68"/>
-      <c r="BF54" s="68"/>
-      <c r="BG54" s="68"/>
-      <c r="BH54" s="68"/>
-      <c r="BI54" s="68"/>
-      <c r="BJ54" s="68"/>
-      <c r="BK54" s="68"/>
-      <c r="BL54" s="68"/>
-      <c r="BM54" s="68"/>
-      <c r="BN54" s="68"/>
-      <c r="BO54" s="68"/>
-      <c r="BP54" s="73"/>
+      <c r="AZ54" s="67"/>
+      <c r="BA54" s="67"/>
+      <c r="BB54" s="67"/>
+      <c r="BC54" s="67"/>
+      <c r="BD54" s="67"/>
+      <c r="BE54" s="67"/>
+      <c r="BF54" s="67"/>
+      <c r="BG54" s="67"/>
+      <c r="BH54" s="67"/>
+      <c r="BI54" s="67"/>
+      <c r="BJ54" s="67"/>
+      <c r="BK54" s="67"/>
+      <c r="BL54" s="67"/>
+      <c r="BM54" s="67"/>
+      <c r="BN54" s="67"/>
+      <c r="BO54" s="67"/>
+      <c r="BP54" s="72"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A55" s="61" t="s">
@@ -6623,24 +6660,24 @@
       <c r="AV55" s="15"/>
       <c r="AW55" s="15"/>
       <c r="AX55" s="15"/>
-      <c r="AY55" s="72"/>
-      <c r="AZ55" s="72"/>
-      <c r="BA55" s="72"/>
+      <c r="AY55" s="71"/>
+      <c r="AZ55" s="71"/>
+      <c r="BA55" s="71"/>
       <c r="BB55" s="15"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
       <c r="BF55" s="15"/>
       <c r="BG55" s="15"/>
-      <c r="BH55" s="68"/>
-      <c r="BI55" s="68"/>
-      <c r="BJ55" s="68"/>
-      <c r="BK55" s="68"/>
-      <c r="BL55" s="68"/>
-      <c r="BM55" s="68"/>
-      <c r="BN55" s="68"/>
-      <c r="BO55" s="68"/>
-      <c r="BP55" s="73"/>
+      <c r="BH55" s="67"/>
+      <c r="BI55" s="67"/>
+      <c r="BJ55" s="67"/>
+      <c r="BK55" s="67"/>
+      <c r="BL55" s="67"/>
+      <c r="BM55" s="67"/>
+      <c r="BN55" s="67"/>
+      <c r="BO55" s="67"/>
+      <c r="BP55" s="72"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A56" s="64"/>
@@ -6705,22 +6742,22 @@
       <c r="AX56" s="15"/>
       <c r="AY56" s="15"/>
       <c r="AZ56" s="15"/>
-      <c r="BA56" s="72"/>
-      <c r="BB56" s="72"/>
-      <c r="BC56" s="72"/>
+      <c r="BA56" s="71"/>
+      <c r="BB56" s="71"/>
+      <c r="BC56" s="71"/>
       <c r="BD56" s="15"/>
       <c r="BE56" s="15"/>
       <c r="BF56" s="15"/>
       <c r="BG56" s="15"/>
-      <c r="BH56" s="68"/>
-      <c r="BI56" s="68"/>
-      <c r="BJ56" s="68"/>
-      <c r="BK56" s="68"/>
-      <c r="BL56" s="68"/>
-      <c r="BM56" s="68"/>
-      <c r="BN56" s="68"/>
-      <c r="BO56" s="68"/>
-      <c r="BP56" s="73"/>
+      <c r="BH56" s="67"/>
+      <c r="BI56" s="67"/>
+      <c r="BJ56" s="67"/>
+      <c r="BK56" s="67"/>
+      <c r="BL56" s="67"/>
+      <c r="BM56" s="67"/>
+      <c r="BN56" s="67"/>
+      <c r="BO56" s="67"/>
+      <c r="BP56" s="72"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A57" s="64"/>
@@ -6788,19 +6825,19 @@
       <c r="BA57" s="15"/>
       <c r="BB57" s="15"/>
       <c r="BC57" s="15"/>
-      <c r="BD57" s="72"/>
-      <c r="BE57" s="72"/>
+      <c r="BD57" s="71"/>
+      <c r="BE57" s="71"/>
       <c r="BF57" s="15"/>
       <c r="BG57" s="15"/>
-      <c r="BH57" s="68"/>
-      <c r="BI57" s="68"/>
-      <c r="BJ57" s="68"/>
-      <c r="BK57" s="68"/>
-      <c r="BL57" s="68"/>
-      <c r="BM57" s="68"/>
-      <c r="BN57" s="68"/>
-      <c r="BO57" s="68"/>
-      <c r="BP57" s="73"/>
+      <c r="BH57" s="67"/>
+      <c r="BI57" s="67"/>
+      <c r="BJ57" s="67"/>
+      <c r="BK57" s="67"/>
+      <c r="BL57" s="67"/>
+      <c r="BM57" s="67"/>
+      <c r="BN57" s="67"/>
+      <c r="BO57" s="67"/>
+      <c r="BP57" s="72"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A58" s="64"/>
@@ -6869,18 +6906,18 @@
       <c r="BB58" s="15"/>
       <c r="BC58" s="15"/>
       <c r="BD58" s="15"/>
-      <c r="BE58" s="72"/>
+      <c r="BE58" s="71"/>
       <c r="BF58" s="15"/>
       <c r="BG58" s="15"/>
-      <c r="BH58" s="68"/>
-      <c r="BI58" s="68"/>
-      <c r="BJ58" s="68"/>
-      <c r="BK58" s="68"/>
-      <c r="BL58" s="68"/>
-      <c r="BM58" s="68"/>
-      <c r="BN58" s="68"/>
-      <c r="BO58" s="68"/>
-      <c r="BP58" s="73"/>
+      <c r="BH58" s="67"/>
+      <c r="BI58" s="67"/>
+      <c r="BJ58" s="67"/>
+      <c r="BK58" s="67"/>
+      <c r="BL58" s="67"/>
+      <c r="BM58" s="67"/>
+      <c r="BN58" s="67"/>
+      <c r="BO58" s="67"/>
+      <c r="BP58" s="72"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A59" s="64"/>
@@ -6949,18 +6986,18 @@
       <c r="BB59" s="15"/>
       <c r="BC59" s="15"/>
       <c r="BD59" s="15"/>
-      <c r="BE59" s="72"/>
-      <c r="BF59" s="72"/>
-      <c r="BG59" s="72"/>
-      <c r="BH59" s="68"/>
-      <c r="BI59" s="68"/>
-      <c r="BJ59" s="68"/>
-      <c r="BK59" s="68"/>
-      <c r="BL59" s="68"/>
-      <c r="BM59" s="68"/>
-      <c r="BN59" s="68"/>
-      <c r="BO59" s="68"/>
-      <c r="BP59" s="73"/>
+      <c r="BE59" s="71"/>
+      <c r="BF59" s="71"/>
+      <c r="BG59" s="71"/>
+      <c r="BH59" s="67"/>
+      <c r="BI59" s="67"/>
+      <c r="BJ59" s="67"/>
+      <c r="BK59" s="67"/>
+      <c r="BL59" s="67"/>
+      <c r="BM59" s="67"/>
+      <c r="BN59" s="67"/>
+      <c r="BO59" s="67"/>
+      <c r="BP59" s="72"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A60" s="64"/>
@@ -7029,18 +7066,18 @@
       <c r="BB60" s="15"/>
       <c r="BC60" s="15"/>
       <c r="BD60" s="15"/>
-      <c r="BE60" s="72"/>
-      <c r="BF60" s="72"/>
-      <c r="BG60" s="72"/>
-      <c r="BH60" s="68"/>
-      <c r="BI60" s="68"/>
-      <c r="BJ60" s="68"/>
-      <c r="BK60" s="68"/>
-      <c r="BL60" s="68"/>
-      <c r="BM60" s="68"/>
-      <c r="BN60" s="68"/>
-      <c r="BO60" s="68"/>
-      <c r="BP60" s="73"/>
+      <c r="BE60" s="71"/>
+      <c r="BF60" s="71"/>
+      <c r="BG60" s="71"/>
+      <c r="BH60" s="67"/>
+      <c r="BI60" s="67"/>
+      <c r="BJ60" s="67"/>
+      <c r="BK60" s="67"/>
+      <c r="BL60" s="67"/>
+      <c r="BM60" s="67"/>
+      <c r="BN60" s="67"/>
+      <c r="BO60" s="67"/>
+      <c r="BP60" s="72"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A61" s="64"/>
@@ -7111,16 +7148,16 @@
       <c r="BD61" s="15"/>
       <c r="BE61" s="15"/>
       <c r="BF61" s="15"/>
-      <c r="BG61" s="72"/>
-      <c r="BH61" s="68"/>
-      <c r="BI61" s="68"/>
-      <c r="BJ61" s="68"/>
-      <c r="BK61" s="68"/>
-      <c r="BL61" s="68"/>
-      <c r="BM61" s="68"/>
-      <c r="BN61" s="68"/>
-      <c r="BO61" s="68"/>
-      <c r="BP61" s="73"/>
+      <c r="BG61" s="71"/>
+      <c r="BH61" s="67"/>
+      <c r="BI61" s="67"/>
+      <c r="BJ61" s="67"/>
+      <c r="BK61" s="67"/>
+      <c r="BL61" s="67"/>
+      <c r="BM61" s="67"/>
+      <c r="BN61" s="67"/>
+      <c r="BO61" s="67"/>
+      <c r="BP61" s="72"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A62" s="64"/>
@@ -7191,18 +7228,18 @@
       <c r="BB62" s="15"/>
       <c r="BC62" s="15"/>
       <c r="BD62" s="15"/>
-      <c r="BE62" s="72"/>
-      <c r="BF62" s="72"/>
+      <c r="BE62" s="71"/>
+      <c r="BF62" s="71"/>
       <c r="BG62" s="15"/>
-      <c r="BH62" s="68"/>
-      <c r="BI62" s="68"/>
-      <c r="BJ62" s="68"/>
-      <c r="BK62" s="68"/>
-      <c r="BL62" s="68"/>
-      <c r="BM62" s="68"/>
-      <c r="BN62" s="68"/>
-      <c r="BO62" s="68"/>
-      <c r="BP62" s="73"/>
+      <c r="BH62" s="67"/>
+      <c r="BI62" s="67"/>
+      <c r="BJ62" s="67"/>
+      <c r="BK62" s="67"/>
+      <c r="BL62" s="67"/>
+      <c r="BM62" s="67"/>
+      <c r="BN62" s="67"/>
+      <c r="BO62" s="67"/>
+      <c r="BP62" s="72"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A63" s="64"/>
@@ -7271,18 +7308,18 @@
       <c r="BB63" s="15"/>
       <c r="BC63" s="15"/>
       <c r="BD63" s="15"/>
-      <c r="BE63" s="72"/>
-      <c r="BF63" s="72"/>
+      <c r="BE63" s="71"/>
+      <c r="BF63" s="71"/>
       <c r="BG63" s="15"/>
-      <c r="BH63" s="68"/>
-      <c r="BI63" s="68"/>
-      <c r="BJ63" s="68"/>
-      <c r="BK63" s="68"/>
-      <c r="BL63" s="68"/>
-      <c r="BM63" s="68"/>
-      <c r="BN63" s="68"/>
-      <c r="BO63" s="68"/>
-      <c r="BP63" s="73"/>
+      <c r="BH63" s="67"/>
+      <c r="BI63" s="67"/>
+      <c r="BJ63" s="67"/>
+      <c r="BK63" s="67"/>
+      <c r="BL63" s="67"/>
+      <c r="BM63" s="67"/>
+      <c r="BN63" s="67"/>
+      <c r="BO63" s="67"/>
+      <c r="BP63" s="72"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A64" s="64"/>
@@ -7351,18 +7388,18 @@
       <c r="BB64" s="15"/>
       <c r="BC64" s="15"/>
       <c r="BD64" s="15"/>
-      <c r="BE64" s="72"/>
-      <c r="BF64" s="72"/>
+      <c r="BE64" s="71"/>
+      <c r="BF64" s="71"/>
       <c r="BG64" s="15"/>
-      <c r="BH64" s="68"/>
-      <c r="BI64" s="68"/>
-      <c r="BJ64" s="68"/>
-      <c r="BK64" s="68"/>
-      <c r="BL64" s="68"/>
-      <c r="BM64" s="68"/>
-      <c r="BN64" s="68"/>
-      <c r="BO64" s="68"/>
-      <c r="BP64" s="73"/>
+      <c r="BH64" s="67"/>
+      <c r="BI64" s="67"/>
+      <c r="BJ64" s="67"/>
+      <c r="BK64" s="67"/>
+      <c r="BL64" s="67"/>
+      <c r="BM64" s="67"/>
+      <c r="BN64" s="67"/>
+      <c r="BO64" s="67"/>
+      <c r="BP64" s="72"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A65" s="64"/>
@@ -7431,29 +7468,29 @@
       <c r="BB65" s="15"/>
       <c r="BC65" s="15"/>
       <c r="BD65" s="15"/>
-      <c r="BE65" s="72"/>
-      <c r="BF65" s="72"/>
-      <c r="BG65" s="72"/>
-      <c r="BH65" s="68"/>
-      <c r="BI65" s="68"/>
-      <c r="BJ65" s="68"/>
-      <c r="BK65" s="68"/>
-      <c r="BL65" s="68"/>
-      <c r="BM65" s="68"/>
-      <c r="BN65" s="68"/>
-      <c r="BO65" s="68"/>
-      <c r="BP65" s="73"/>
+      <c r="BE65" s="71"/>
+      <c r="BF65" s="71"/>
+      <c r="BG65" s="71"/>
+      <c r="BH65" s="67"/>
+      <c r="BI65" s="67"/>
+      <c r="BJ65" s="67"/>
+      <c r="BK65" s="67"/>
+      <c r="BL65" s="67"/>
+      <c r="BM65" s="67"/>
+      <c r="BN65" s="67"/>
+      <c r="BO65" s="67"/>
+      <c r="BP65" s="72"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="79"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7503,18 +7540,18 @@
       <c r="BB66" s="15"/>
       <c r="BC66" s="15"/>
       <c r="BD66" s="15"/>
-      <c r="BE66" s="72"/>
-      <c r="BF66" s="72"/>
-      <c r="BG66" s="72"/>
-      <c r="BH66" s="68"/>
-      <c r="BI66" s="68"/>
-      <c r="BJ66" s="68"/>
-      <c r="BK66" s="68"/>
-      <c r="BL66" s="68"/>
-      <c r="BM66" s="68"/>
-      <c r="BN66" s="68"/>
-      <c r="BO66" s="68"/>
-      <c r="BP66" s="73"/>
+      <c r="BE66" s="71"/>
+      <c r="BF66" s="71"/>
+      <c r="BG66" s="71"/>
+      <c r="BH66" s="67"/>
+      <c r="BI66" s="67"/>
+      <c r="BJ66" s="67"/>
+      <c r="BK66" s="67"/>
+      <c r="BL66" s="67"/>
+      <c r="BM66" s="67"/>
+      <c r="BN66" s="67"/>
+      <c r="BO66" s="67"/>
+      <c r="BP66" s="72"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A67" s="45" t="s">
@@ -7582,23 +7619,23 @@
       <c r="AW67" s="15"/>
       <c r="AX67" s="15"/>
       <c r="AY67" s="15"/>
-      <c r="AZ67" s="68"/>
-      <c r="BA67" s="68"/>
-      <c r="BB67" s="68"/>
-      <c r="BC67" s="68"/>
-      <c r="BD67" s="68"/>
-      <c r="BE67" s="68"/>
-      <c r="BF67" s="68"/>
-      <c r="BG67" s="68"/>
-      <c r="BH67" s="67"/>
-      <c r="BI67" s="67"/>
-      <c r="BJ67" s="67"/>
+      <c r="AZ67" s="67"/>
+      <c r="BA67" s="67"/>
+      <c r="BB67" s="67"/>
+      <c r="BC67" s="67"/>
+      <c r="BD67" s="67"/>
+      <c r="BE67" s="67"/>
+      <c r="BF67" s="67"/>
+      <c r="BG67" s="67"/>
+      <c r="BH67" s="66"/>
+      <c r="BI67" s="66"/>
+      <c r="BJ67" s="66"/>
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
       <c r="BM67" s="15"/>
       <c r="BN67" s="15"/>
       <c r="BO67" s="15"/>
-      <c r="BP67" s="87"/>
+      <c r="BP67" s="88"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A68" s="48"/>
@@ -7662,23 +7699,23 @@
       <c r="AW68" s="15"/>
       <c r="AX68" s="15"/>
       <c r="AY68" s="15"/>
-      <c r="AZ68" s="68"/>
-      <c r="BA68" s="68"/>
-      <c r="BB68" s="68"/>
-      <c r="BC68" s="68"/>
-      <c r="BD68" s="68"/>
-      <c r="BE68" s="68"/>
-      <c r="BF68" s="68"/>
-      <c r="BG68" s="68"/>
+      <c r="AZ68" s="67"/>
+      <c r="BA68" s="67"/>
+      <c r="BB68" s="67"/>
+      <c r="BC68" s="67"/>
+      <c r="BD68" s="67"/>
+      <c r="BE68" s="67"/>
+      <c r="BF68" s="67"/>
+      <c r="BG68" s="67"/>
       <c r="BH68" s="15"/>
       <c r="BI68" s="15"/>
-      <c r="BJ68" s="67"/>
-      <c r="BK68" s="67"/>
-      <c r="BL68" s="67"/>
+      <c r="BJ68" s="66"/>
+      <c r="BK68" s="66"/>
+      <c r="BL68" s="66"/>
       <c r="BM68" s="15"/>
       <c r="BN68" s="15"/>
       <c r="BO68" s="15"/>
-      <c r="BP68" s="87"/>
+      <c r="BP68" s="88"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A69" s="48"/>
@@ -7742,23 +7779,23 @@
       <c r="AW69" s="15"/>
       <c r="AX69" s="15"/>
       <c r="AY69" s="15"/>
-      <c r="AZ69" s="68"/>
-      <c r="BA69" s="68"/>
-      <c r="BB69" s="68"/>
-      <c r="BC69" s="68"/>
-      <c r="BD69" s="68"/>
-      <c r="BE69" s="68"/>
-      <c r="BF69" s="68"/>
-      <c r="BG69" s="68"/>
+      <c r="AZ69" s="67"/>
+      <c r="BA69" s="67"/>
+      <c r="BB69" s="67"/>
+      <c r="BC69" s="67"/>
+      <c r="BD69" s="67"/>
+      <c r="BE69" s="67"/>
+      <c r="BF69" s="67"/>
+      <c r="BG69" s="67"/>
       <c r="BH69" s="15"/>
       <c r="BI69" s="15"/>
       <c r="BJ69" s="15"/>
       <c r="BK69" s="15"/>
       <c r="BL69" s="15"/>
-      <c r="BM69" s="67"/>
-      <c r="BN69" s="67"/>
+      <c r="BM69" s="66"/>
+      <c r="BN69" s="66"/>
       <c r="BO69" s="15"/>
-      <c r="BP69" s="87"/>
+      <c r="BP69" s="88"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A70" s="48"/>
@@ -7822,23 +7859,23 @@
       <c r="AW70" s="15"/>
       <c r="AX70" s="15"/>
       <c r="AY70" s="15"/>
-      <c r="AZ70" s="68"/>
-      <c r="BA70" s="68"/>
-      <c r="BB70" s="68"/>
-      <c r="BC70" s="68"/>
-      <c r="BD70" s="68"/>
-      <c r="BE70" s="68"/>
-      <c r="BF70" s="68"/>
-      <c r="BG70" s="68"/>
+      <c r="AZ70" s="67"/>
+      <c r="BA70" s="67"/>
+      <c r="BB70" s="67"/>
+      <c r="BC70" s="67"/>
+      <c r="BD70" s="67"/>
+      <c r="BE70" s="67"/>
+      <c r="BF70" s="67"/>
+      <c r="BG70" s="67"/>
       <c r="BH70" s="15"/>
       <c r="BI70" s="15"/>
       <c r="BJ70" s="15"/>
       <c r="BK70" s="15"/>
       <c r="BL70" s="15"/>
       <c r="BM70" s="15"/>
-      <c r="BN70" s="67"/>
+      <c r="BN70" s="66"/>
       <c r="BO70" s="15"/>
-      <c r="BP70" s="87"/>
+      <c r="BP70" s="88"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A71" s="48"/>
@@ -7902,23 +7939,23 @@
       <c r="AW71" s="15"/>
       <c r="AX71" s="15"/>
       <c r="AY71" s="15"/>
-      <c r="AZ71" s="68"/>
-      <c r="BA71" s="68"/>
-      <c r="BB71" s="68"/>
-      <c r="BC71" s="68"/>
-      <c r="BD71" s="68"/>
-      <c r="BE71" s="68"/>
-      <c r="BF71" s="68"/>
-      <c r="BG71" s="68"/>
+      <c r="AZ71" s="67"/>
+      <c r="BA71" s="67"/>
+      <c r="BB71" s="67"/>
+      <c r="BC71" s="67"/>
+      <c r="BD71" s="67"/>
+      <c r="BE71" s="67"/>
+      <c r="BF71" s="67"/>
+      <c r="BG71" s="67"/>
       <c r="BH71" s="15"/>
       <c r="BI71" s="15"/>
       <c r="BJ71" s="15"/>
       <c r="BK71" s="15"/>
       <c r="BL71" s="15"/>
       <c r="BM71" s="15"/>
-      <c r="BN71" s="67"/>
-      <c r="BO71" s="67"/>
-      <c r="BP71" s="88"/>
+      <c r="BN71" s="66"/>
+      <c r="BO71" s="66"/>
+      <c r="BP71" s="89"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A72" s="48"/>
@@ -7982,23 +8019,23 @@
       <c r="AW72" s="15"/>
       <c r="AX72" s="15"/>
       <c r="AY72" s="15"/>
-      <c r="AZ72" s="68"/>
-      <c r="BA72" s="68"/>
-      <c r="BB72" s="68"/>
-      <c r="BC72" s="68"/>
-      <c r="BD72" s="68"/>
-      <c r="BE72" s="68"/>
-      <c r="BF72" s="68"/>
-      <c r="BG72" s="68"/>
+      <c r="AZ72" s="67"/>
+      <c r="BA72" s="67"/>
+      <c r="BB72" s="67"/>
+      <c r="BC72" s="67"/>
+      <c r="BD72" s="67"/>
+      <c r="BE72" s="67"/>
+      <c r="BF72" s="67"/>
+      <c r="BG72" s="67"/>
       <c r="BH72" s="15"/>
       <c r="BI72" s="15"/>
       <c r="BJ72" s="15"/>
       <c r="BK72" s="15"/>
       <c r="BL72" s="15"/>
       <c r="BM72" s="15"/>
-      <c r="BN72" s="67"/>
-      <c r="BO72" s="67"/>
-      <c r="BP72" s="88"/>
+      <c r="BN72" s="66"/>
+      <c r="BO72" s="66"/>
+      <c r="BP72" s="89"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A73" s="48"/>
@@ -8062,14 +8099,14 @@
       <c r="AW73" s="15"/>
       <c r="AX73" s="15"/>
       <c r="AY73" s="15"/>
-      <c r="AZ73" s="68"/>
-      <c r="BA73" s="68"/>
-      <c r="BB73" s="68"/>
-      <c r="BC73" s="68"/>
-      <c r="BD73" s="68"/>
-      <c r="BE73" s="68"/>
-      <c r="BF73" s="68"/>
-      <c r="BG73" s="68"/>
+      <c r="AZ73" s="67"/>
+      <c r="BA73" s="67"/>
+      <c r="BB73" s="67"/>
+      <c r="BC73" s="67"/>
+      <c r="BD73" s="67"/>
+      <c r="BE73" s="67"/>
+      <c r="BF73" s="67"/>
+      <c r="BG73" s="67"/>
       <c r="BH73" s="15"/>
       <c r="BI73" s="15"/>
       <c r="BJ73" s="15"/>
@@ -8078,7 +8115,7 @@
       <c r="BM73" s="15"/>
       <c r="BN73" s="15"/>
       <c r="BO73" s="15"/>
-      <c r="BP73" s="88"/>
+      <c r="BP73" s="89"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A74" s="48"/>
@@ -8144,23 +8181,23 @@
       <c r="AW74" s="15"/>
       <c r="AX74" s="15"/>
       <c r="AY74" s="15"/>
-      <c r="AZ74" s="68"/>
-      <c r="BA74" s="68"/>
-      <c r="BB74" s="68"/>
-      <c r="BC74" s="68"/>
-      <c r="BD74" s="68"/>
-      <c r="BE74" s="68"/>
-      <c r="BF74" s="68"/>
-      <c r="BG74" s="68"/>
+      <c r="AZ74" s="67"/>
+      <c r="BA74" s="67"/>
+      <c r="BB74" s="67"/>
+      <c r="BC74" s="67"/>
+      <c r="BD74" s="67"/>
+      <c r="BE74" s="67"/>
+      <c r="BF74" s="67"/>
+      <c r="BG74" s="67"/>
       <c r="BH74" s="15"/>
       <c r="BI74" s="15"/>
       <c r="BJ74" s="15"/>
       <c r="BK74" s="15"/>
       <c r="BL74" s="15"/>
       <c r="BM74" s="15"/>
-      <c r="BN74" s="67"/>
-      <c r="BO74" s="67"/>
-      <c r="BP74" s="87"/>
+      <c r="BN74" s="66"/>
+      <c r="BO74" s="66"/>
+      <c r="BP74" s="88"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A75" s="48"/>
@@ -8224,23 +8261,23 @@
       <c r="AW75" s="15"/>
       <c r="AX75" s="15"/>
       <c r="AY75" s="15"/>
-      <c r="AZ75" s="68"/>
-      <c r="BA75" s="68"/>
-      <c r="BB75" s="68"/>
-      <c r="BC75" s="68"/>
-      <c r="BD75" s="68"/>
-      <c r="BE75" s="68"/>
-      <c r="BF75" s="68"/>
-      <c r="BG75" s="68"/>
+      <c r="AZ75" s="67"/>
+      <c r="BA75" s="67"/>
+      <c r="BB75" s="67"/>
+      <c r="BC75" s="67"/>
+      <c r="BD75" s="67"/>
+      <c r="BE75" s="67"/>
+      <c r="BF75" s="67"/>
+      <c r="BG75" s="67"/>
       <c r="BH75" s="15"/>
       <c r="BI75" s="15"/>
       <c r="BJ75" s="15"/>
       <c r="BK75" s="15"/>
       <c r="BL75" s="15"/>
       <c r="BM75" s="15"/>
-      <c r="BN75" s="67"/>
-      <c r="BO75" s="67"/>
-      <c r="BP75" s="87"/>
+      <c r="BN75" s="66"/>
+      <c r="BO75" s="66"/>
+      <c r="BP75" s="88"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
       <c r="A76" s="48"/>
@@ -8304,157 +8341,166 @@
       <c r="AW76" s="15"/>
       <c r="AX76" s="15"/>
       <c r="AY76" s="15"/>
-      <c r="AZ76" s="68"/>
-      <c r="BA76" s="68"/>
-      <c r="BB76" s="68"/>
-      <c r="BC76" s="68"/>
-      <c r="BD76" s="68"/>
-      <c r="BE76" s="68"/>
-      <c r="BF76" s="68"/>
-      <c r="BG76" s="68"/>
+      <c r="AZ76" s="67"/>
+      <c r="BA76" s="67"/>
+      <c r="BB76" s="67"/>
+      <c r="BC76" s="67"/>
+      <c r="BD76" s="67"/>
+      <c r="BE76" s="67"/>
+      <c r="BF76" s="67"/>
+      <c r="BG76" s="67"/>
       <c r="BH76" s="15"/>
       <c r="BI76" s="15"/>
       <c r="BJ76" s="15"/>
       <c r="BK76" s="15"/>
       <c r="BL76" s="15"/>
       <c r="BM76" s="15"/>
-      <c r="BN76" s="67"/>
-      <c r="BO76" s="67"/>
-      <c r="BP76" s="87"/>
+      <c r="BN76" s="66"/>
+      <c r="BO76" s="66"/>
+      <c r="BP76" s="88"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:68">
-      <c r="A77" s="80"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81" t="s">
+      <c r="A77" s="79"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="81" t="s">
+      <c r="D77" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="81" t="s">
+      <c r="E77" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="82">
+      <c r="F77" s="81">
         <v>45984</v>
       </c>
-      <c r="G77" s="82">
+      <c r="G77" s="81">
         <v>45986</v>
       </c>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
-      <c r="Q77" s="83"/>
-      <c r="R77" s="83"/>
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
-      <c r="U77" s="83"/>
-      <c r="V77" s="83"/>
-      <c r="W77" s="83"/>
-      <c r="X77" s="83"/>
-      <c r="Y77" s="83"/>
-      <c r="Z77" s="83"/>
-      <c r="AA77" s="83"/>
-      <c r="AB77" s="83"/>
-      <c r="AC77" s="83"/>
-      <c r="AD77" s="83"/>
-      <c r="AE77" s="83"/>
-      <c r="AF77" s="83"/>
-      <c r="AG77" s="83"/>
-      <c r="AH77" s="83"/>
-      <c r="AI77" s="83"/>
-      <c r="AJ77" s="83"/>
-      <c r="AK77" s="83"/>
-      <c r="AL77" s="83"/>
-      <c r="AM77" s="83"/>
-      <c r="AN77" s="83"/>
-      <c r="AO77" s="83"/>
-      <c r="AP77" s="83"/>
-      <c r="AQ77" s="83"/>
-      <c r="AR77" s="83"/>
-      <c r="AS77" s="83"/>
-      <c r="AT77" s="83"/>
-      <c r="AU77" s="83"/>
-      <c r="AV77" s="83"/>
-      <c r="AW77" s="83"/>
-      <c r="AX77" s="83"/>
-      <c r="AY77" s="83"/>
-      <c r="AZ77" s="86"/>
-      <c r="BA77" s="86"/>
-      <c r="BB77" s="86"/>
-      <c r="BC77" s="86"/>
-      <c r="BD77" s="86"/>
-      <c r="BE77" s="86"/>
-      <c r="BF77" s="86"/>
-      <c r="BG77" s="86"/>
-      <c r="BH77" s="83"/>
-      <c r="BI77" s="83"/>
-      <c r="BJ77" s="83"/>
-      <c r="BK77" s="83"/>
-      <c r="BL77" s="83"/>
-      <c r="BM77" s="83"/>
-      <c r="BN77" s="89"/>
-      <c r="BO77" s="89"/>
-      <c r="BP77" s="90"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="82"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="82"/>
+      <c r="O77" s="82"/>
+      <c r="P77" s="82"/>
+      <c r="Q77" s="82"/>
+      <c r="R77" s="82"/>
+      <c r="S77" s="82"/>
+      <c r="T77" s="82"/>
+      <c r="U77" s="82"/>
+      <c r="V77" s="82"/>
+      <c r="W77" s="82"/>
+      <c r="X77" s="82"/>
+      <c r="Y77" s="82"/>
+      <c r="Z77" s="82"/>
+      <c r="AA77" s="82"/>
+      <c r="AB77" s="82"/>
+      <c r="AC77" s="82"/>
+      <c r="AD77" s="82"/>
+      <c r="AE77" s="82"/>
+      <c r="AF77" s="82"/>
+      <c r="AG77" s="82"/>
+      <c r="AH77" s="82"/>
+      <c r="AI77" s="82"/>
+      <c r="AJ77" s="82"/>
+      <c r="AK77" s="82"/>
+      <c r="AL77" s="82"/>
+      <c r="AM77" s="82"/>
+      <c r="AN77" s="82"/>
+      <c r="AO77" s="82"/>
+      <c r="AP77" s="82"/>
+      <c r="AQ77" s="82"/>
+      <c r="AR77" s="82"/>
+      <c r="AS77" s="82"/>
+      <c r="AT77" s="82"/>
+      <c r="AU77" s="82"/>
+      <c r="AV77" s="82"/>
+      <c r="AW77" s="82"/>
+      <c r="AX77" s="82"/>
+      <c r="AY77" s="82"/>
+      <c r="AZ77" s="87"/>
+      <c r="BA77" s="87"/>
+      <c r="BB77" s="87"/>
+      <c r="BC77" s="87"/>
+      <c r="BD77" s="87"/>
+      <c r="BE77" s="87"/>
+      <c r="BF77" s="87"/>
+      <c r="BG77" s="87"/>
+      <c r="BH77" s="82"/>
+      <c r="BI77" s="82"/>
+      <c r="BJ77" s="82"/>
+      <c r="BK77" s="82"/>
+      <c r="BL77" s="82"/>
+      <c r="BM77" s="82"/>
+      <c r="BN77" s="90"/>
+      <c r="BO77" s="90"/>
+      <c r="BP77" s="91"/>
     </row>
-    <row r="78" s="2" customFormat="1" spans="5:51">
+    <row r="78" s="2" customFormat="1" ht="14.75" spans="1:51">
+      <c r="A78" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
       <c r="E78" s="84"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="85"/>
-      <c r="O78" s="85"/>
-      <c r="P78" s="85"/>
-      <c r="Q78" s="85"/>
-      <c r="R78" s="85"/>
-      <c r="S78" s="85"/>
-      <c r="T78" s="85"/>
-      <c r="U78" s="85"/>
-      <c r="V78" s="85"/>
-      <c r="W78" s="85"/>
-      <c r="X78" s="85"/>
-      <c r="Y78" s="85"/>
-      <c r="Z78" s="85"/>
-      <c r="AA78" s="85"/>
-      <c r="AB78" s="85"/>
-      <c r="AC78" s="85"/>
-      <c r="AD78" s="85"/>
-      <c r="AE78" s="85"/>
-      <c r="AF78" s="85"/>
-      <c r="AG78" s="85"/>
-      <c r="AH78" s="85"/>
-      <c r="AI78" s="85"/>
-      <c r="AJ78" s="85"/>
-      <c r="AK78" s="85"/>
-      <c r="AL78" s="85"/>
-      <c r="AM78" s="85"/>
-      <c r="AN78" s="85"/>
-      <c r="AO78" s="85"/>
-      <c r="AP78" s="85"/>
-      <c r="AQ78" s="85"/>
-      <c r="AR78" s="85"/>
-      <c r="AS78" s="85"/>
-      <c r="AT78" s="85"/>
-      <c r="AU78" s="85"/>
-      <c r="AV78" s="85"/>
-      <c r="AW78" s="85"/>
-      <c r="AX78" s="85"/>
-      <c r="AY78" s="85"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="86"/>
+      <c r="K78" s="86"/>
+      <c r="L78" s="86"/>
+      <c r="M78" s="86"/>
+      <c r="N78" s="86"/>
+      <c r="O78" s="86"/>
+      <c r="P78" s="86"/>
+      <c r="Q78" s="86"/>
+      <c r="R78" s="86"/>
+      <c r="S78" s="86"/>
+      <c r="T78" s="86"/>
+      <c r="U78" s="86"/>
+      <c r="V78" s="86"/>
+      <c r="W78" s="86"/>
+      <c r="X78" s="86"/>
+      <c r="Y78" s="86"/>
+      <c r="Z78" s="86"/>
+      <c r="AA78" s="86"/>
+      <c r="AB78" s="86"/>
+      <c r="AC78" s="86"/>
+      <c r="AD78" s="86"/>
+      <c r="AE78" s="86"/>
+      <c r="AF78" s="86"/>
+      <c r="AG78" s="86"/>
+      <c r="AH78" s="86"/>
+      <c r="AI78" s="86"/>
+      <c r="AJ78" s="86"/>
+      <c r="AK78" s="86"/>
+      <c r="AL78" s="86"/>
+      <c r="AM78" s="86"/>
+      <c r="AN78" s="86"/>
+      <c r="AO78" s="86"/>
+      <c r="AP78" s="86"/>
+      <c r="AQ78" s="86"/>
+      <c r="AR78" s="86"/>
+      <c r="AS78" s="86"/>
+      <c r="AT78" s="86"/>
+      <c r="AU78" s="86"/>
+      <c r="AV78" s="86"/>
+      <c r="AW78" s="86"/>
+      <c r="AX78" s="86"/>
+      <c r="AY78" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="A1:BP1"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>

--- a/近1-2年已完成的短剧项目清单/海南项目进程表.xlsx
+++ b/近1-2年已完成的短剧项目清单/海南项目进程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32060" windowHeight="15480"/>
+    <workbookView windowWidth="21600" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="甘特图" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>《 制 片 计 划 》</t>
   </si>
@@ -53,27 +53,8 @@
     <t>结束时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">《治愈我，温暖我》
+    <t xml:space="preserve">《失控，我和死对头假戏真做》
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>《My Erotic Phone Companion》</t>
-    </r>
   </si>
   <si>
     <t>剧本</t>
@@ -88,33 +69,14 @@
     <t>计划</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">《她才是那个女孩》
+    <t xml:space="preserve">《顶流女明星的秘密》
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>《The Bride with a Secret Past》</t>
-    </r>
-  </si>
-  <si>
-    <t>《Sorry, but I'm with Your Dad》</t>
-  </si>
-  <si>
-    <t>注：项目所需全部资金需于2025年9月30日前全部到位，如无法及时到位，项目筹备整体向后顺延</t>
+  </si>
+  <si>
+    <t>《Doomsday-Nemesis》</t>
+  </si>
+  <si>
+    <t>注：项目所需全部资金需于2025年10月10日前全部到位，如无法及时到位，项目筹备整体向后顺延</t>
   </si>
   <si>
     <t>全</t>
@@ -129,8 +91,7 @@
     <t>导演、制片</t>
   </si>
   <si>
-    <t xml:space="preserve">2025年10月21日完成
-</t>
+    <t>2025年10月14日前完成</t>
   </si>
   <si>
     <t>确定主演</t>
@@ -210,29 +171,6 @@
     <t>所有主创</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">《治愈我，温暖我》
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>《My Erotic Phone Companion》</t>
-    </r>
-  </si>
-  <si>
     <t>拍摄</t>
   </si>
   <si>
@@ -242,29 +180,6 @@
     <t>剧组杀青</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">《她才是那个女孩》
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>《The Bride with a Secret Past》</t>
-    </r>
-  </si>
-  <si>
     <t>剪辑</t>
   </si>
   <si>
@@ -316,36 +231,13 @@
     <t>混音</t>
   </si>
   <si>
-    <t>本剧联合3-5家平台于11月12日左右上线</t>
-  </si>
-  <si>
-    <t>本剧联合3-5家平台于11月22日左右上线</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>《Sorry, but I'm with Your Dad》</t>
-    </r>
-  </si>
-  <si>
-    <t>本剧联合3-5家平台于12月1日左右上线</t>
+    <t>本剧联合3-5家平台于11月5日左右上线</t>
+  </si>
+  <si>
+    <t>本剧联合3-5家平台于11月15日左右上线</t>
+  </si>
+  <si>
+    <t>本剧联合3-5家平台于11月24日左右上线</t>
   </si>
 </sst>
 </file>
@@ -359,7 +251,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,20 +439,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -810,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -977,6 +855,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1218,7 +1109,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,34 +1121,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,10 +1295,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,7 +1375,7 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,18 +1384,24 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1517,37 +1414,40 @@
     <xf numFmtId="176" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1861,14 +1761,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="BH4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1876,7 +1776,7 @@
     <col min="1" max="1" width="28.7410714285714" customWidth="1"/>
     <col min="2" max="2" width="5.55357142857143" customWidth="1"/>
     <col min="3" max="3" width="17.3928571428571" customWidth="1"/>
-    <col min="4" max="4" width="26.4464285714286" customWidth="1"/>
+    <col min="4" max="4" width="26.4375" customWidth="1"/>
     <col min="5" max="5" width="5.55357142857143" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.9196428571429" customWidth="1"/>
   </cols>
@@ -2081,7 +1981,7 @@
       <c r="F18" s="44"/>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:7">
+    <row r="19" ht="57" customHeight="1" spans="1:7">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -2122,11 +2022,9 @@
       <c r="D21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:7">
       <c r="A22" s="22"/>
@@ -2137,11 +2035,9 @@
       <c r="D22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:7">
       <c r="A23" s="22"/>
@@ -2152,11 +2048,9 @@
       <c r="D23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:7">
       <c r="A24" s="22"/>
@@ -2167,11 +2061,9 @@
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:7">
       <c r="A25" s="22"/>
@@ -2182,11 +2074,9 @@
       <c r="D25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:7">
       <c r="A26" s="22"/>
@@ -2197,11 +2087,9 @@
       <c r="D26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:7">
       <c r="A27" s="22"/>
@@ -2212,11 +2100,9 @@
       <c r="D27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:7">
       <c r="A28" s="22"/>
@@ -2227,11 +2113,9 @@
       <c r="D28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:7">
       <c r="A29" s="22"/>
@@ -2242,11 +2126,9 @@
       <c r="D29" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:7">
       <c r="A30" s="22"/>
@@ -2257,11 +2139,9 @@
       <c r="D30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:7">
       <c r="A31" s="22"/>
@@ -2272,11 +2152,9 @@
       <c r="D31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:7">
       <c r="A32" s="22"/>
@@ -2287,11 +2165,9 @@
       <c r="D32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:7">
       <c r="A33" s="22"/>
@@ -2302,21 +2178,19 @@
       <c r="D33" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:7">
       <c r="A34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>26</v>
@@ -2324,18 +2198,18 @@
       <c r="E34" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="54">
-        <v>45953</v>
-      </c>
-      <c r="G34" s="54">
-        <v>45953</v>
+      <c r="F34" s="56">
+        <v>45945</v>
+      </c>
+      <c r="G34" s="56">
+        <v>45945</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:7">
       <c r="A35" s="27"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>26</v>
@@ -2343,18 +2217,18 @@
       <c r="E35" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="54">
-        <v>45953</v>
-      </c>
-      <c r="G35" s="54">
-        <v>45960</v>
+      <c r="F35" s="56">
+        <v>45945</v>
+      </c>
+      <c r="G35" s="56">
+        <v>45952</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:7">
       <c r="A36" s="27"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>26</v>
@@ -2362,22 +2236,22 @@
       <c r="E36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="54">
-        <v>45960</v>
-      </c>
-      <c r="G36" s="54">
-        <v>45960</v>
+      <c r="F36" s="56">
+        <v>45952</v>
+      </c>
+      <c r="G36" s="56">
+        <v>45952</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:7">
       <c r="A37" s="28" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>26</v>
@@ -2385,18 +2259,18 @@
       <c r="E37" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="55">
-        <v>45962</v>
-      </c>
-      <c r="G37" s="55">
-        <v>45962</v>
+      <c r="F37" s="57">
+        <v>45953</v>
+      </c>
+      <c r="G37" s="57">
+        <v>45953</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:7">
       <c r="A38" s="30"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>26</v>
@@ -2404,18 +2278,18 @@
       <c r="E38" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="55">
-        <v>45962</v>
-      </c>
-      <c r="G38" s="55">
-        <v>45969</v>
+      <c r="F38" s="57">
+        <v>45953</v>
+      </c>
+      <c r="G38" s="57">
+        <v>45961</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:7">
       <c r="A39" s="30"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>26</v>
@@ -2423,11 +2297,11 @@
       <c r="E39" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="55">
-        <v>45969</v>
-      </c>
-      <c r="G39" s="55">
-        <v>45969</v>
+      <c r="F39" s="57">
+        <v>45961</v>
+      </c>
+      <c r="G39" s="57">
+        <v>45961</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:7">
@@ -2435,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>26</v>
@@ -2446,18 +2320,18 @@
       <c r="E40" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="56">
-        <v>45971</v>
-      </c>
-      <c r="G40" s="56">
-        <v>45971</v>
+      <c r="F40" s="58">
+        <v>45964</v>
+      </c>
+      <c r="G40" s="58">
+        <v>45964</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>26</v>
@@ -2465,18 +2339,18 @@
       <c r="E41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="56">
-        <v>45971</v>
-      </c>
-      <c r="G41" s="56">
-        <v>45978</v>
+      <c r="F41" s="58">
+        <v>45964</v>
+      </c>
+      <c r="G41" s="58">
+        <v>45970</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:7">
       <c r="A42" s="33"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>26</v>
@@ -2484,41 +2358,41 @@
       <c r="E42" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="56">
-        <v>45978</v>
-      </c>
-      <c r="G42" s="56">
-        <v>45978</v>
+      <c r="F42" s="58">
+        <v>45970</v>
+      </c>
+      <c r="G42" s="58">
+        <v>45970</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A43" s="34" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="57">
-        <v>45960</v>
-      </c>
-      <c r="G43" s="57">
-        <v>45962</v>
+      <c r="F43" s="59">
+        <v>45953</v>
+      </c>
+      <c r="G43" s="59">
+        <v>45955</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A44" s="36"/>
       <c r="B44" s="35"/>
       <c r="C44" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>22</v>
@@ -2526,37 +2400,37 @@
       <c r="E44" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="57">
-        <v>45962</v>
-      </c>
-      <c r="G44" s="57">
-        <v>45964</v>
+      <c r="F44" s="59">
+        <v>45953</v>
+      </c>
+      <c r="G44" s="59">
+        <v>45955</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A45" s="36"/>
       <c r="B45" s="35"/>
       <c r="C45" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="57">
-        <v>45965</v>
-      </c>
-      <c r="G45" s="57">
-        <v>45966</v>
+      <c r="F45" s="59">
+        <v>45958</v>
+      </c>
+      <c r="G45" s="59">
+        <v>45959</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A46" s="36"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>22</v>
@@ -2564,187 +2438,187 @@
       <c r="E46" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G46" s="57">
-        <v>45966</v>
+      <c r="F46" s="59">
+        <v>45959</v>
+      </c>
+      <c r="G46" s="59">
+        <v>45959</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A47" s="36"/>
       <c r="B47" s="35"/>
       <c r="C47" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G47" s="57">
-        <v>45968</v>
+      <c r="F47" s="59">
+        <v>45959</v>
+      </c>
+      <c r="G47" s="59">
+        <v>45961</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A48" s="36"/>
       <c r="B48" s="35"/>
       <c r="C48" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G48" s="57">
-        <v>45968</v>
+      <c r="F48" s="59">
+        <v>45959</v>
+      </c>
+      <c r="G48" s="59">
+        <v>45961</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A49" s="36"/>
       <c r="B49" s="35"/>
       <c r="C49" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="57">
-        <v>45968</v>
-      </c>
-      <c r="G49" s="57">
-        <v>45968</v>
+      <c r="F49" s="59">
+        <v>45961</v>
+      </c>
+      <c r="G49" s="59">
+        <v>45961</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A50" s="36"/>
       <c r="B50" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>63</v>
-      </c>
       <c r="E50" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G50" s="57">
-        <v>45967</v>
+      <c r="F50" s="59">
+        <v>45958</v>
+      </c>
+      <c r="G50" s="59">
+        <v>45959</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A51" s="36"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G51" s="57">
-        <v>45967</v>
+      <c r="F51" s="59">
+        <v>45959</v>
+      </c>
+      <c r="G51" s="59">
+        <v>45960</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A52" s="36"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G52" s="57">
-        <v>45967</v>
+      <c r="F52" s="59">
+        <v>45959</v>
+      </c>
+      <c r="G52" s="59">
+        <v>45960</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A53" s="36"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="57">
-        <v>45966</v>
-      </c>
-      <c r="G53" s="57">
-        <v>45968</v>
+      <c r="F53" s="59">
+        <v>45959</v>
+      </c>
+      <c r="G53" s="59">
+        <v>45960</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A54" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="58"/>
+      <c r="G54" s="60"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A55" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>52</v>
-      </c>
       <c r="D55" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E55" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="59">
-        <v>45969</v>
-      </c>
-      <c r="G55" s="59">
-        <v>45971</v>
+      <c r="F55" s="61">
+        <v>45962</v>
+      </c>
+      <c r="G55" s="61">
+        <v>45964</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A56" s="41"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>22</v>
@@ -2752,37 +2626,37 @@
       <c r="E56" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="59">
-        <v>45971</v>
-      </c>
-      <c r="G56" s="59">
-        <v>45973</v>
+      <c r="F56" s="61">
+        <v>45964</v>
+      </c>
+      <c r="G56" s="61">
+        <v>45966</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A57" s="41"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E57" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="59">
-        <v>45974</v>
-      </c>
-      <c r="G57" s="59">
-        <v>45975</v>
+      <c r="F57" s="61">
+        <v>45967</v>
+      </c>
+      <c r="G57" s="61">
+        <v>45968</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A58" s="41"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" s="40" t="s">
         <v>22</v>
@@ -2790,187 +2664,187 @@
       <c r="E58" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G58" s="59">
-        <v>45975</v>
+      <c r="F58" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G58" s="61">
+        <v>45968</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A59" s="41"/>
       <c r="B59" s="40"/>
       <c r="C59" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G59" s="59">
-        <v>45977</v>
+      <c r="F59" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G59" s="61">
+        <v>45970</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A60" s="41"/>
       <c r="B60" s="40"/>
       <c r="C60" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G60" s="59">
-        <v>45977</v>
+      <c r="F60" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G60" s="61">
+        <v>45970</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A61" s="41"/>
       <c r="B61" s="40"/>
       <c r="C61" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E61" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="59">
-        <v>45977</v>
-      </c>
-      <c r="G61" s="59">
-        <v>45977</v>
+      <c r="F61" s="61">
+        <v>45970</v>
+      </c>
+      <c r="G61" s="61">
+        <v>45970</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A62" s="41"/>
       <c r="B62" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="40" t="s">
-        <v>63</v>
-      </c>
       <c r="E62" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G62" s="59">
-        <v>45976</v>
+      <c r="F62" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G62" s="61">
+        <v>45969</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A63" s="41"/>
       <c r="B63" s="40"/>
       <c r="C63" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E63" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G63" s="59">
-        <v>45976</v>
+      <c r="F63" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G63" s="61">
+        <v>45969</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A64" s="41"/>
       <c r="B64" s="40"/>
       <c r="C64" s="40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E64" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G64" s="59">
-        <v>45976</v>
+      <c r="F64" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G64" s="61">
+        <v>45969</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A65" s="41"/>
       <c r="B65" s="40"/>
       <c r="C65" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="61">
+        <v>45968</v>
+      </c>
+      <c r="G65" s="61">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A66" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="59">
-        <v>45975</v>
-      </c>
-      <c r="G65" s="59">
-        <v>45977</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A66" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="66"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A67" s="25" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="54">
-        <v>45978</v>
-      </c>
-      <c r="G67" s="54">
-        <v>45980</v>
+      <c r="F67" s="56">
+        <v>45971</v>
+      </c>
+      <c r="G67" s="56">
+        <v>45973</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A68" s="27"/>
       <c r="B68" s="26"/>
       <c r="C68" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>22</v>
@@ -2978,37 +2852,37 @@
       <c r="E68" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="54">
-        <v>45980</v>
-      </c>
-      <c r="G68" s="54">
-        <v>45982</v>
+      <c r="F68" s="56">
+        <v>45973</v>
+      </c>
+      <c r="G68" s="56">
+        <v>45975</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A69" s="27"/>
       <c r="B69" s="26"/>
       <c r="C69" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="54">
-        <v>45983</v>
-      </c>
-      <c r="G69" s="54">
-        <v>45984</v>
+      <c r="F69" s="56">
+        <v>45976</v>
+      </c>
+      <c r="G69" s="56">
+        <v>45977</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A70" s="27"/>
       <c r="B70" s="26"/>
       <c r="C70" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>22</v>
@@ -3016,88 +2890,88 @@
       <c r="E70" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="54">
-        <v>45984</v>
-      </c>
-      <c r="G70" s="54">
-        <v>45984</v>
+      <c r="F70" s="56">
+        <v>45977</v>
+      </c>
+      <c r="G70" s="56">
+        <v>45977</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A71" s="27"/>
       <c r="B71" s="26"/>
       <c r="C71" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="54">
-        <v>45984</v>
-      </c>
-      <c r="G71" s="54">
-        <v>45986</v>
+      <c r="F71" s="56">
+        <v>45977</v>
+      </c>
+      <c r="G71" s="56">
+        <v>45979</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A72" s="27"/>
       <c r="B72" s="26"/>
       <c r="C72" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E72" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="54">
-        <v>45984</v>
-      </c>
-      <c r="G72" s="54">
-        <v>45986</v>
+      <c r="F72" s="56">
+        <v>45977</v>
+      </c>
+      <c r="G72" s="56">
+        <v>45979</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A73" s="27"/>
       <c r="B73" s="26"/>
       <c r="C73" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="54">
-        <v>45986</v>
-      </c>
-      <c r="G73" s="54">
-        <v>45986</v>
+      <c r="F73" s="56">
+        <v>45979</v>
+      </c>
+      <c r="G73" s="56">
+        <v>45979</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A74" s="27"/>
       <c r="B74" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="E74" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="54">
-        <v>45984</v>
-      </c>
-      <c r="G74" s="54">
+      <c r="F74" s="56">
+        <v>45977</v>
+      </c>
+      <c r="G74" s="56">
         <v>45985</v>
       </c>
     </row>
@@ -3105,72 +2979,75 @@
       <c r="A75" s="27"/>
       <c r="B75" s="26"/>
       <c r="C75" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="54">
-        <v>45984</v>
-      </c>
-      <c r="G75" s="54">
-        <v>45985</v>
+      <c r="F75" s="56">
+        <v>45977</v>
+      </c>
+      <c r="G75" s="56">
+        <v>45978</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
       <c r="A76" s="27"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="54">
-        <v>45984</v>
-      </c>
-      <c r="G76" s="54">
-        <v>45985</v>
+      <c r="F76" s="56">
+        <v>45977</v>
+      </c>
+      <c r="G76" s="56">
+        <v>45978</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A77" s="62"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="67">
-        <v>45984</v>
-      </c>
-      <c r="G77" s="67">
-        <v>45986</v>
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="69">
+        <v>45977</v>
+      </c>
+      <c r="G77" s="69">
+        <v>45979</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="17.55" spans="1:7">
-      <c r="A78" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="68"/>
+      <c r="A78" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="70"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="5:5">
+      <c r="E79" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A54:G54"/>
@@ -3207,6 +3084,7 @@
     <mergeCell ref="D4:D18"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E18"/>
+    <mergeCell ref="E20:E33"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F18"/>
     <mergeCell ref="G2:G3"/>
